--- a/df/icer-all.xlsx
+++ b/df/icer-all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gkang/git/economic-influenza/df/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{2C9545D0-0CAF-704D-B9B0-9E0B3B5811A9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8140008_{F1A7FC7D-B8D4-6F4B-9F36-698C91A2C682}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8860" yWindow="440" windowWidth="37740" windowHeight="28360"/>
+    <workbookView xWindow="19800" yWindow="440" windowWidth="30320" windowHeight="28360"/>
   </bookViews>
   <sheets>
     <sheet name="icer-all" sheetId="1" r:id="rId1"/>
@@ -960,7 +960,7 @@
   <dimension ref="A1:U196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -970,12 +970,12 @@
     <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="20.5" bestFit="1" customWidth="1"/>
@@ -1070,6 +1070,13 @@
       <c r="F2" t="s">
         <v>31</v>
       </c>
+      <c r="G2">
+        <v>4749.1559999999999</v>
+      </c>
+      <c r="H2">
+        <f>G2/E2*100000</f>
+        <v>33185.562623201462</v>
+      </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
@@ -1078,6 +1085,9 @@
       </c>
       <c r="K2" t="s">
         <v>31</v>
+      </c>
+      <c r="L2">
+        <v>30.899419999999999</v>
       </c>
       <c r="N2" t="s">
         <v>31</v>
@@ -1117,6 +1127,13 @@
       <c r="F3" t="s">
         <v>31</v>
       </c>
+      <c r="G3">
+        <v>69456.399999999994</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H12" si="0">G3/E3*100000</f>
+        <v>33185.554562655409</v>
+      </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
@@ -1125,6 +1142,9 @@
       </c>
       <c r="K3" t="s">
         <v>31</v>
+      </c>
+      <c r="L3">
+        <v>9.427861</v>
       </c>
       <c r="N3" t="s">
         <v>31</v>
@@ -1164,6 +1184,13 @@
       <c r="F4" t="s">
         <v>31</v>
       </c>
+      <c r="G4">
+        <v>74205.56</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>33185.556867375046</v>
+      </c>
       <c r="I4" t="s">
         <v>31</v>
       </c>
@@ -1172,6 +1199,9 @@
       </c>
       <c r="K4" t="s">
         <v>31</v>
+      </c>
+      <c r="L4">
+        <v>40.327280000000002</v>
       </c>
       <c r="N4" t="s">
         <v>31</v>
@@ -1211,6 +1241,13 @@
       <c r="F5" t="s">
         <v>31</v>
       </c>
+      <c r="G5">
+        <v>26866.44</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>65626.662562930054</v>
+      </c>
       <c r="I5" t="s">
         <v>31</v>
       </c>
@@ -1219,6 +1256,9 @@
       </c>
       <c r="K5" t="s">
         <v>31</v>
+      </c>
+      <c r="L5">
+        <v>175.1361</v>
       </c>
       <c r="N5" t="s">
         <v>31</v>
@@ -1258,6 +1298,13 @@
       <c r="F6" t="s">
         <v>31</v>
       </c>
+      <c r="G6">
+        <v>392921.59999999998</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>65626.641515345924</v>
+      </c>
       <c r="I6" t="s">
         <v>31</v>
       </c>
@@ -1266,6 +1313,9 @@
       </c>
       <c r="K6" t="s">
         <v>31</v>
+      </c>
+      <c r="L6">
+        <v>53.376390000000001</v>
       </c>
       <c r="N6" t="s">
         <v>31</v>
@@ -1305,6 +1355,13 @@
       <c r="F7" t="s">
         <v>31</v>
       </c>
+      <c r="G7">
+        <v>419788.1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>65626.652242359618</v>
+      </c>
       <c r="I7" t="s">
         <v>31</v>
       </c>
@@ -1313,6 +1370,9 @@
       </c>
       <c r="K7" t="s">
         <v>31</v>
+      </c>
+      <c r="L7">
+        <v>228.51249999999999</v>
       </c>
       <c r="N7" t="s">
         <v>31</v>
@@ -1352,6 +1412,13 @@
       <c r="F8" t="s">
         <v>31</v>
       </c>
+      <c r="G8">
+        <v>98751.56</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>30682.759693377342</v>
+      </c>
       <c r="I8" t="s">
         <v>31</v>
       </c>
@@ -1360,6 +1427,9 @@
       </c>
       <c r="K8" t="s">
         <v>31</v>
+      </c>
+      <c r="L8">
+        <v>1275.4590000000001</v>
       </c>
       <c r="N8" t="s">
         <v>31</v>
@@ -1399,6 +1469,13 @@
       <c r="F9" t="s">
         <v>31</v>
       </c>
+      <c r="G9">
+        <v>587023.19999999995</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>30682.762113444227</v>
+      </c>
       <c r="I9" t="s">
         <v>31</v>
       </c>
@@ -1407,6 +1484,9 @@
       </c>
       <c r="K9" t="s">
         <v>31</v>
+      </c>
+      <c r="L9">
+        <v>177.67670000000001</v>
       </c>
       <c r="N9" t="s">
         <v>31</v>
@@ -1446,6 +1526,13 @@
       <c r="F10" t="s">
         <v>31</v>
       </c>
+      <c r="G10">
+        <v>685774.7</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>30682.75908044969</v>
+      </c>
       <c r="I10" t="s">
         <v>31</v>
       </c>
@@ -1454,6 +1541,9 @@
       </c>
       <c r="K10" t="s">
         <v>31</v>
+      </c>
+      <c r="L10">
+        <v>1453.136</v>
       </c>
       <c r="N10" t="s">
         <v>31</v>
@@ -1493,6 +1583,13 @@
       <c r="F11" t="s">
         <v>31</v>
       </c>
+      <c r="G11">
+        <v>35092.379999999997</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>22212.939853160206</v>
+      </c>
       <c r="I11" t="s">
         <v>31</v>
       </c>
@@ -1501,6 +1598,9 @@
       </c>
       <c r="K11" t="s">
         <v>31</v>
+      </c>
+      <c r="L11">
+        <v>923.69060000000002</v>
       </c>
       <c r="N11" t="s">
         <v>31</v>
@@ -1540,6 +1640,13 @@
       <c r="F12" t="s">
         <v>31</v>
       </c>
+      <c r="G12">
+        <v>33447.42</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>22212.93789261657</v>
+      </c>
       <c r="I12" t="s">
         <v>31</v>
       </c>
@@ -1548,6 +1655,9 @@
       </c>
       <c r="K12" t="s">
         <v>31</v>
+      </c>
+      <c r="L12">
+        <v>115.6189</v>
       </c>
       <c r="N12" t="s">
         <v>31</v>
@@ -1587,6 +1697,9 @@
       <c r="F13" t="s">
         <v>31</v>
       </c>
+      <c r="G13">
+        <v>68539.8</v>
+      </c>
       <c r="I13" t="s">
         <v>31</v>
       </c>
@@ -1595,6 +1708,9 @@
       </c>
       <c r="K13" t="s">
         <v>31</v>
+      </c>
+      <c r="L13">
+        <v>1039.31</v>
       </c>
       <c r="N13" t="s">
         <v>31</v>
@@ -1634,6 +1750,10 @@
       <c r="F14" t="s">
         <v>31</v>
       </c>
+      <c r="G14">
+        <f>G2+G5+G8+G11</f>
+        <v>165459.53599999999</v>
+      </c>
       <c r="I14" t="s">
         <v>31</v>
       </c>
@@ -1642,6 +1762,10 @@
       </c>
       <c r="K14" t="s">
         <v>31</v>
+      </c>
+      <c r="L14">
+        <f>L2+L5+L8+L11</f>
+        <v>2405.1851200000001</v>
       </c>
       <c r="N14" t="s">
         <v>31</v>
@@ -1681,6 +1805,10 @@
       <c r="F15" t="s">
         <v>31</v>
       </c>
+      <c r="G15">
+        <f>G3+G6+G9+G12</f>
+        <v>1082848.6199999999</v>
+      </c>
       <c r="I15" t="s">
         <v>31</v>
       </c>
@@ -1689,6 +1817,10 @@
       </c>
       <c r="K15" t="s">
         <v>31</v>
+      </c>
+      <c r="L15">
+        <f>L3+L6+L9+L12</f>
+        <v>356.099851</v>
       </c>
       <c r="N15" t="s">
         <v>31</v>
@@ -1728,6 +1860,10 @@
       <c r="F16" t="s">
         <v>31</v>
       </c>
+      <c r="G16">
+        <f>G4+G7+G10+G13</f>
+        <v>1248308.1599999999</v>
+      </c>
       <c r="I16" t="s">
         <v>31</v>
       </c>
@@ -1736,6 +1872,10 @@
       </c>
       <c r="K16" t="s">
         <v>31</v>
+      </c>
+      <c r="L16">
+        <f>L4+L7+L10+L13</f>
+        <v>2761.2857800000002</v>
       </c>
       <c r="N16" t="s">
         <v>31</v>

--- a/df/icer-all.xlsx
+++ b/df/icer-all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gkang/git/economic-influenza/df/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0BF75EF2-E4F3-6E45-9EF0-3B5DBE5801F9}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9BD17DEE-9B2B-5A46-9FE5-79F80BBB8839}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="440" windowWidth="31360" windowHeight="28360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="440" windowWidth="37480" windowHeight="28360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="icer-all" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -273,6 +273,14 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Calibri"/>
@@ -622,7 +630,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -633,6 +641,8 @@
     <xf numFmtId="44" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -992,8 +1002,8 @@
   <dimension ref="A1:V207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="R1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S17" sqref="S17"/>
+      <pane xSplit="6" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1116,7 +1126,7 @@
         <v>4749.1559999999999</v>
       </c>
       <c r="I2" s="3">
-        <f>H2/E2*100000</f>
+        <f t="shared" ref="I2:I33" si="0">H2/E2*100000</f>
         <v>33185.562623201462</v>
       </c>
       <c r="J2" s="3" t="s">
@@ -1176,7 +1186,7 @@
         <v>69456.399999999994</v>
       </c>
       <c r="I3" s="3">
-        <f>H3/E3*100000</f>
+        <f t="shared" si="0"/>
         <v>33185.554562655409</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -1236,7 +1246,7 @@
         <v>74205.56</v>
       </c>
       <c r="I4" s="3">
-        <f>H4/E4*100000</f>
+        <f t="shared" si="0"/>
         <v>33185.556867375046</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -1296,7 +1306,7 @@
         <v>26866.44</v>
       </c>
       <c r="I5" s="3">
-        <f>H5/E5*100000</f>
+        <f t="shared" si="0"/>
         <v>65626.662562930054</v>
       </c>
       <c r="J5" s="3" t="s">
@@ -1356,7 +1366,7 @@
         <v>392921.59999999998</v>
       </c>
       <c r="I6" s="3">
-        <f>H6/E6*100000</f>
+        <f t="shared" si="0"/>
         <v>65626.641515345924</v>
       </c>
       <c r="J6" s="3" t="s">
@@ -1416,7 +1426,7 @@
         <v>419788.1</v>
       </c>
       <c r="I7" s="3">
-        <f>H7/E7*100000</f>
+        <f t="shared" si="0"/>
         <v>65626.652242359618</v>
       </c>
       <c r="J7" s="3" t="s">
@@ -1476,7 +1486,7 @@
         <v>98751.56</v>
       </c>
       <c r="I8" s="3">
-        <f>H8/E8*100000</f>
+        <f t="shared" si="0"/>
         <v>30682.759693377342</v>
       </c>
       <c r="J8" s="3" t="s">
@@ -1536,7 +1546,7 @@
         <v>587023.19999999995</v>
       </c>
       <c r="I9" s="3">
-        <f>H9/E9*100000</f>
+        <f t="shared" si="0"/>
         <v>30682.762113444227</v>
       </c>
       <c r="J9" s="3" t="s">
@@ -1596,7 +1606,7 @@
         <v>685774.7</v>
       </c>
       <c r="I10" s="3">
-        <f>H10/E10*100000</f>
+        <f t="shared" si="0"/>
         <v>30682.75908044969</v>
       </c>
       <c r="J10" s="3" t="s">
@@ -1656,7 +1666,7 @@
         <v>35092.379999999997</v>
       </c>
       <c r="I11" s="3">
-        <f>H11/E11*100000</f>
+        <f t="shared" si="0"/>
         <v>22212.939853160206</v>
       </c>
       <c r="J11" s="3" t="s">
@@ -1716,7 +1726,7 @@
         <v>33447.42</v>
       </c>
       <c r="I12" s="3">
-        <f>H12/E12*100000</f>
+        <f t="shared" si="0"/>
         <v>22212.93789261657</v>
       </c>
       <c r="J12" s="3" t="s">
@@ -1776,7 +1786,7 @@
         <v>68539.8</v>
       </c>
       <c r="I13" s="3">
-        <f>H13/E13*100000</f>
+        <f t="shared" si="0"/>
         <v>22212.938896414937</v>
       </c>
       <c r="J13" s="3" t="s">
@@ -1830,15 +1840,15 @@
         <v>31</v>
       </c>
       <c r="G14" s="8">
-        <f>G2+G5+G8+G11</f>
+        <f t="shared" ref="G14:H16" si="1">G2+G5+G8+G11</f>
         <v>509088655</v>
       </c>
       <c r="H14" s="3">
-        <f>H2+H5+H8+H11</f>
+        <f t="shared" si="1"/>
         <v>165459.53599999999</v>
       </c>
       <c r="I14" s="3">
-        <f>H14/E14*100000</f>
+        <f t="shared" si="0"/>
         <v>30922.509480253881</v>
       </c>
       <c r="J14" s="3" t="s">
@@ -1893,15 +1903,15 @@
         <v>31</v>
       </c>
       <c r="G15" s="8">
-        <f>G3+G6+G9+G12</f>
+        <f t="shared" si="1"/>
         <v>431513362</v>
       </c>
       <c r="H15" s="3">
-        <f>H3+H6+H9+H12</f>
+        <f t="shared" si="1"/>
         <v>1082848.6199999999</v>
       </c>
       <c r="I15" s="3">
-        <f>H15/E15*100000</f>
+        <f t="shared" si="0"/>
         <v>37706.294408176051</v>
       </c>
       <c r="J15" s="3" t="s">
@@ -1956,15 +1966,15 @@
         <v>31</v>
       </c>
       <c r="G16" s="8">
-        <f>G4+G7+G10+G13</f>
+        <f t="shared" si="1"/>
         <v>940602019</v>
       </c>
       <c r="H16" s="3">
-        <f>H4+H7+H10+H13</f>
+        <f t="shared" si="1"/>
         <v>1248308.1599999999</v>
       </c>
       <c r="I16" s="3">
-        <f>H16/E16*100000</f>
+        <f t="shared" si="0"/>
         <v>36640.84516137364</v>
       </c>
       <c r="J16" s="3" t="s">
@@ -1999,7 +2009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -2025,7 +2035,7 @@
         <v>4028.7280000000001</v>
       </c>
       <c r="I17" s="3">
-        <f>H17/E17*100000</f>
+        <f t="shared" si="0"/>
         <v>28151.445295931564</v>
       </c>
       <c r="J17" s="4">
@@ -2033,7 +2043,7 @@
         <v>720.42799999999988</v>
       </c>
       <c r="K17" s="3">
-        <f>J17/E17*100000</f>
+        <f t="shared" ref="K17:K48" si="2">J17/E17*100000</f>
         <v>5034.1173272698934</v>
       </c>
       <c r="L17" s="7">
@@ -2043,21 +2053,21 @@
         <v>26.2121</v>
       </c>
       <c r="N17" s="3">
-        <f>M17/E17*100000</f>
+        <f t="shared" ref="N17:N48" si="3">M17/E17*100000</f>
         <v>183.16165778416607</v>
       </c>
       <c r="O17" s="4">
         <v>4.6873149999999999</v>
       </c>
       <c r="P17" s="3">
-        <f>O17/E17*100000</f>
+        <f t="shared" ref="P17:P48" si="4">O17/E17*100000</f>
         <v>32.753437761819477</v>
       </c>
       <c r="Q17" s="7">
         <v>189181.4</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2083,15 +2093,15 @@
         <v>58920.15</v>
       </c>
       <c r="I18" s="3">
-        <f>H18/E18*100000</f>
+        <f t="shared" si="0"/>
         <v>28151.44252602843</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" ref="J18:J19" si="0">H3-H18</f>
+        <f t="shared" ref="J18" si="5">H3-H18</f>
         <v>10536.249999999993</v>
       </c>
       <c r="K18" s="3">
-        <f>J18/E18*100000</f>
+        <f t="shared" si="2"/>
         <v>5034.1120366269752</v>
       </c>
       <c r="L18" s="7">
@@ -2101,21 +2111,21 @@
         <v>7.9976929999999999</v>
       </c>
       <c r="N18" s="3">
-        <f>M18/E18*100000</f>
+        <f t="shared" si="3"/>
         <v>3.8212155744735865</v>
       </c>
       <c r="O18" s="4">
         <v>1.4301680000000001</v>
       </c>
       <c r="P18" s="3">
-        <f>O18/E18*100000</f>
+        <f t="shared" si="4"/>
         <v>0.68331958174860441</v>
       </c>
       <c r="Q18" s="7">
         <v>21061.69</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -2141,7 +2151,7 @@
         <v>62948.88</v>
       </c>
       <c r="I19" s="3">
-        <f>H19/E19*100000</f>
+        <f t="shared" si="0"/>
         <v>28151.443597724588</v>
       </c>
       <c r="J19" s="4">
@@ -2149,7 +2159,7 @@
         <v>11256.68</v>
       </c>
       <c r="K19" s="3">
-        <f>J19/E19*100000</f>
+        <f t="shared" si="2"/>
         <v>5034.1132696504601</v>
       </c>
       <c r="L19" s="8">
@@ -2160,14 +2170,14 @@
         <v>34.209789999999998</v>
       </c>
       <c r="N19" s="3">
-        <f>M19/E19*100000</f>
+        <f t="shared" si="3"/>
         <v>15.299000930199275</v>
       </c>
       <c r="O19" s="4">
         <v>6.117483</v>
       </c>
       <c r="P19" s="3">
-        <f>O19/E19*100000</f>
+        <f t="shared" si="4"/>
         <v>2.7358068584308253</v>
       </c>
       <c r="Q19" s="7">
@@ -2175,7 +2185,7 @@
         <v>149877.73566350737</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -2201,15 +2211,15 @@
         <v>23585.24</v>
       </c>
       <c r="I20" s="3">
-        <f>H20/E20*100000</f>
+        <f t="shared" si="0"/>
         <v>57611.674153543259</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" ref="J20:J31" si="1">H5-H20</f>
+        <f t="shared" ref="J20:J31" si="6">H5-H20</f>
         <v>3281.1999999999971</v>
       </c>
       <c r="K20" s="3">
-        <f>J20/E20*100000</f>
+        <f t="shared" si="2"/>
         <v>8014.9884093868013</v>
       </c>
       <c r="L20" s="7">
@@ -2219,21 +2229,21 @@
         <v>153.74680000000001</v>
       </c>
       <c r="N20" s="3">
-        <f>M20/E20*100000</f>
+        <f t="shared" si="3"/>
         <v>375.55736315381927</v>
       </c>
       <c r="O20" s="4">
         <v>21.38936</v>
       </c>
       <c r="P20" s="3">
-        <f>O20/E20*100000</f>
+        <f t="shared" si="4"/>
         <v>52.247797294953621</v>
       </c>
       <c r="Q20" s="7">
         <v>433058.6</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -2259,15 +2269,15 @@
         <v>344934.2</v>
       </c>
       <c r="I21" s="3">
-        <f>H21/E21*100000</f>
+        <f t="shared" si="0"/>
         <v>57611.678995969261</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>47987.399999999965</v>
       </c>
       <c r="K21" s="3">
-        <f>J21/E21*100000</f>
+        <f t="shared" si="2"/>
         <v>8014.9625193766615</v>
       </c>
       <c r="L21" s="7">
@@ -2277,21 +2287,21 @@
         <v>46.857529999999997</v>
       </c>
       <c r="N21" s="3">
-        <f>M21/E21*100000</f>
+        <f t="shared" si="3"/>
         <v>7.8262491133207419</v>
       </c>
       <c r="O21" s="4">
         <v>6.518853</v>
       </c>
       <c r="P21" s="3">
-        <f>O21/E21*100000</f>
+        <f t="shared" si="4"/>
         <v>1.0887933595970221</v>
       </c>
       <c r="Q21" s="7">
         <v>1025455</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -2317,15 +2327,15 @@
         <v>368519.4</v>
       </c>
       <c r="I22" s="3">
-        <f>H22/E22*100000</f>
+        <f t="shared" si="0"/>
         <v>57611.672432741725</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>51268.699999999953</v>
       </c>
       <c r="K22" s="3">
-        <f>J22/E22*100000</f>
+        <f t="shared" si="2"/>
         <v>8014.9798096179002</v>
       </c>
       <c r="L22" s="8">
@@ -2336,14 +2346,14 @@
         <v>200.60429999999999</v>
       </c>
       <c r="N22" s="3">
-        <f>M22/E22*100000</f>
+        <f t="shared" si="3"/>
         <v>31.361033422390921</v>
       </c>
       <c r="O22" s="4">
         <v>27.90821</v>
       </c>
       <c r="P22" s="3">
-        <f>O22/E22*100000</f>
+        <f t="shared" si="4"/>
         <v>4.3629688225481935</v>
       </c>
       <c r="Q22" s="7">
@@ -2351,7 +2361,7 @@
         <v>571431.73997902405</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -2377,15 +2387,15 @@
         <v>86484.83</v>
       </c>
       <c r="I23" s="3">
-        <f>H23/E23*100000</f>
+        <f t="shared" si="0"/>
         <v>26871.405940448854</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>12266.729999999996</v>
       </c>
       <c r="K23" s="3">
-        <f>J23/E23*100000</f>
+        <f t="shared" si="2"/>
         <v>3811.3537529284863</v>
       </c>
       <c r="L23" s="7">
@@ -2395,21 +2405,21 @@
         <v>1117.0239999999999</v>
       </c>
       <c r="N23" s="3">
-        <f>M23/E23*100000</f>
+        <f t="shared" si="3"/>
         <v>347.06670926246767</v>
       </c>
       <c r="O23" s="4">
         <v>158.43510000000001</v>
       </c>
       <c r="P23" s="3">
-        <f>O23/E23*100000</f>
+        <f t="shared" si="4"/>
         <v>49.226828419684807</v>
       </c>
       <c r="Q23" s="7">
         <v>166246.5</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -2435,15 +2445,15 @@
         <v>514104.3</v>
       </c>
       <c r="I24" s="3">
-        <f>H24/E24*100000</f>
+        <f t="shared" si="0"/>
         <v>26871.408043836709</v>
       </c>
       <c r="J24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>72918.899999999965</v>
       </c>
       <c r="K24" s="3">
-        <f>J24/E24*100000</f>
+        <f t="shared" si="2"/>
         <v>3811.354069607517</v>
       </c>
       <c r="L24" s="7">
@@ -2453,21 +2463,21 @@
         <v>155.6061</v>
       </c>
       <c r="N24" s="3">
-        <f>M24/E24*100000</f>
+        <f t="shared" si="3"/>
         <v>8.1332815290789426</v>
       </c>
       <c r="O24" s="4">
         <v>22.07067</v>
       </c>
       <c r="P24" s="3">
-        <f>O24/E24*100000</f>
+        <f t="shared" si="4"/>
         <v>1.1535985584459527</v>
       </c>
       <c r="Q24" s="7">
         <v>619594.4</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2493,15 +2503,15 @@
         <v>600589.1</v>
       </c>
       <c r="I25" s="3">
-        <f>H25/E25*100000</f>
+        <f t="shared" si="0"/>
         <v>26871.406398696403</v>
       </c>
       <c r="J25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>85185.599999999977</v>
       </c>
       <c r="K25" s="3">
-        <f>J25/E25*100000</f>
+        <f t="shared" si="2"/>
         <v>3811.3526817532847</v>
       </c>
       <c r="L25" s="8">
@@ -2512,14 +2522,14 @@
         <v>1272.6300000000001</v>
       </c>
       <c r="N25" s="3">
-        <f>M25/E25*100000</f>
+        <f t="shared" si="3"/>
         <v>56.939691255091063</v>
       </c>
       <c r="O25" s="4">
         <v>180.50579999999999</v>
       </c>
       <c r="P25" s="3">
-        <f>O25/E25*100000</f>
+        <f t="shared" si="4"/>
         <v>8.0761450867520121</v>
       </c>
       <c r="Q25" s="7">
@@ -2527,7 +2537,7 @@
         <v>221677.88514274888</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
@@ -2553,15 +2563,15 @@
         <v>29430.799999999999</v>
       </c>
       <c r="I26" s="3">
-        <f>H26/E26*100000</f>
+        <f t="shared" si="0"/>
         <v>18629.246298780174</v>
       </c>
       <c r="J26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5661.5799999999981</v>
       </c>
       <c r="K26" s="3">
-        <f>J26/E26*100000</f>
+        <f t="shared" si="2"/>
         <v>3583.6935543800309</v>
       </c>
       <c r="L26" s="7">
@@ -2571,21 +2581,21 @@
         <v>774.66840000000002</v>
       </c>
       <c r="N26" s="3">
-        <f>M26/E26*100000</f>
+        <f t="shared" si="3"/>
         <v>490.35324977513216</v>
       </c>
       <c r="O26" s="4">
         <v>149.0222</v>
       </c>
       <c r="P26" s="3">
-        <f>O26/E26*100000</f>
+        <f t="shared" si="4"/>
         <v>94.328773522502914</v>
       </c>
       <c r="Q26" s="7">
         <v>180755.1</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -2611,15 +2621,15 @@
         <v>28051.24</v>
       </c>
       <c r="I27" s="3">
-        <f>H27/E27*100000</f>
+        <f t="shared" si="0"/>
         <v>18629.253076347344</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5396.1799999999967</v>
       </c>
       <c r="K27" s="3">
-        <f>J27/E27*100000</f>
+        <f t="shared" si="2"/>
         <v>3583.6848162692254</v>
       </c>
       <c r="L27" s="7">
@@ -2629,21 +2639,21 @@
         <v>96.965739999999997</v>
       </c>
       <c r="N27" s="3">
-        <f>M27/E27*100000</f>
+        <f t="shared" si="3"/>
         <v>64.396415637786291</v>
       </c>
       <c r="O27" s="4">
         <v>18.653199999999998</v>
       </c>
       <c r="P27" s="3">
-        <f>O27/E27*100000</f>
+        <f t="shared" si="4"/>
         <v>12.387872460672764</v>
       </c>
       <c r="Q27" s="7">
         <v>108151.3</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -2669,15 +2679,15 @@
         <v>57482.04</v>
       </c>
       <c r="I28" s="3">
-        <f>H28/E28*100000</f>
+        <f t="shared" si="0"/>
         <v>18629.249606232865</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>11057.760000000002</v>
       </c>
       <c r="K28" s="3">
-        <f>J28/E28*100000</f>
+        <f t="shared" si="2"/>
         <v>3583.6892901820729</v>
       </c>
       <c r="L28" s="8">
@@ -2688,14 +2698,14 @@
         <v>871.63419999999996</v>
       </c>
       <c r="N28" s="3">
-        <f>M28/E28*100000</f>
+        <f t="shared" si="3"/>
         <v>282.48633968330103</v>
       </c>
       <c r="O28" s="4">
         <v>167.6754</v>
       </c>
       <c r="P28" s="3">
-        <f>O28/E28*100000</f>
+        <f t="shared" si="4"/>
         <v>54.341614866572897</v>
       </c>
       <c r="Q28" s="7">
@@ -2703,202 +2713,205 @@
         <v>172678.15076033815</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="29" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="1">
         <v>10</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="1">
         <v>535077.97</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="6">
         <f>F17+F20+F23+F26</f>
         <v>63425390.799999997</v>
       </c>
-      <c r="G29" s="8">
-        <f t="shared" ref="G29:H31" si="2">G17+G20+G23+G26</f>
+      <c r="G29" s="6">
+        <f t="shared" ref="G29:H31" si="7">G17+G20+G23+G26</f>
         <v>438968614</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="1">
+        <f t="shared" si="7"/>
+        <v>143529.598</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="0"/>
+        <v>26824.052950638204</v>
+      </c>
+      <c r="J29" s="10">
+        <f t="shared" si="6"/>
+        <v>21929.937999999995</v>
+      </c>
+      <c r="K29" s="1">
         <f t="shared" si="2"/>
-        <v>143529.598</v>
-      </c>
-      <c r="I29" s="3">
-        <f>H29/E29*100000</f>
-        <v>26824.052950638204</v>
-      </c>
-      <c r="J29" s="4">
-        <f t="shared" si="1"/>
-        <v>21929.937999999995</v>
-      </c>
-      <c r="K29" s="3">
-        <f>J29/E29*100000</f>
         <v>4098.4565296156743</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="6">
         <f>F29/J29</f>
         <v>2892.1828597965036</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="1">
         <f>M17+M20+M23+M26</f>
         <v>2071.6513</v>
       </c>
-      <c r="N29" s="3">
-        <f>M29/E29*100000</f>
+      <c r="N29" s="1">
+        <f t="shared" si="3"/>
         <v>387.16811682603941</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="1">
         <f>O17+O20+O23+O26</f>
         <v>333.533975</v>
       </c>
-      <c r="P29" s="3">
-        <f>O29/E29*100000</f>
+      <c r="P29" s="1">
+        <f t="shared" si="4"/>
         <v>62.333714654707236</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="Q29" s="11">
         <f>F29/O29</f>
         <v>190161.70931312168</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A30" s="3" t="s">
+      <c r="V29" s="6"/>
+    </row>
+    <row r="30" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="1">
         <v>10</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="1">
         <v>2871798.03</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="6">
         <f>F18+F21+F24+F27</f>
         <v>22407140.75</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="6">
+        <f t="shared" si="7"/>
+        <v>376527795</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="7"/>
+        <v>946009.89</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="0"/>
+        <v>32941.37958580604</v>
+      </c>
+      <c r="J30" s="10">
+        <f t="shared" si="6"/>
+        <v>136838.72999999986</v>
+      </c>
+      <c r="K30" s="1">
         <f t="shared" si="2"/>
-        <v>376527795</v>
-      </c>
-      <c r="H30" s="3">
-        <f t="shared" si="2"/>
-        <v>946009.89</v>
-      </c>
-      <c r="I30" s="3">
-        <f>H30/E30*100000</f>
-        <v>32941.37958580604</v>
-      </c>
-      <c r="J30" s="4">
-        <f t="shared" si="1"/>
-        <v>136838.72999999986</v>
-      </c>
-      <c r="K30" s="3">
-        <f>J30/E30*100000</f>
         <v>4764.9148223700076</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="6">
         <f>F30/J30</f>
         <v>163.74852901660242</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="1">
         <f>M18+M21+M24+M27</f>
         <v>307.42706299999998</v>
       </c>
-      <c r="N30" s="3">
-        <f>M30/E30*100000</f>
+      <c r="N30" s="1">
+        <f t="shared" si="3"/>
         <v>10.705037742504475</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="1">
         <f>O18+O21+O24+O27</f>
         <v>48.672891</v>
       </c>
-      <c r="P30" s="3">
-        <f>O30/E30*100000</f>
+      <c r="P30" s="1">
+        <f t="shared" si="4"/>
         <v>1.6948577334319017</v>
       </c>
-      <c r="Q30" s="7">
+      <c r="Q30" s="11">
         <f>F30/O30</f>
         <v>460361.82132678333</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
+      <c r="V30" s="6"/>
+    </row>
+    <row r="31" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="1">
         <v>10</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="1">
         <v>3406876</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="6">
         <f>F19+F22+F25+F28</f>
         <v>85832533.5</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="6">
+        <f t="shared" si="7"/>
+        <v>815496409</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="7"/>
+        <v>1089539.42</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="0"/>
+        <v>31980.600996337995</v>
+      </c>
+      <c r="J31" s="10">
+        <f t="shared" si="6"/>
+        <v>158768.74</v>
+      </c>
+      <c r="K31" s="1">
         <f t="shared" si="2"/>
-        <v>815496409</v>
-      </c>
-      <c r="H31" s="3">
-        <f t="shared" si="2"/>
-        <v>1089539.42</v>
-      </c>
-      <c r="I31" s="3">
-        <f>H31/E31*100000</f>
-        <v>31980.600996337995</v>
-      </c>
-      <c r="J31" s="4">
-        <f t="shared" si="1"/>
-        <v>158768.74</v>
-      </c>
-      <c r="K31" s="3">
-        <f>J31/E31*100000</f>
         <v>4660.2441650356513</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="6">
         <f>F31/J31</f>
         <v>540.61355843725914</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="1">
         <f>M19+M22+M25+M28</f>
         <v>2379.0782900000004</v>
       </c>
-      <c r="N31" s="3">
-        <f>M31/E31*100000</f>
+      <c r="N31" s="1">
+        <f t="shared" si="3"/>
         <v>69.831666606005044</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31" s="1">
         <f>O19+O22+O25+O28</f>
         <v>382.20689300000004</v>
       </c>
-      <c r="P31" s="3">
-        <f>O31/E31*100000</f>
+      <c r="P31" s="1">
+        <f t="shared" si="4"/>
         <v>11.218691053035098</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="Q31" s="11">
         <f>F31/O31</f>
         <v>224570.86743330921</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V31" s="6"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
@@ -2924,7 +2937,7 @@
         <v>3312.105</v>
       </c>
       <c r="I32" s="3">
-        <f>H32/E32*100000</f>
+        <f t="shared" si="0"/>
         <v>23143.916075218138</v>
       </c>
       <c r="J32" s="4">
@@ -2932,7 +2945,7 @@
         <v>1437.0509999999999</v>
       </c>
       <c r="K32" s="3">
-        <f>J32/E32*100000</f>
+        <f t="shared" si="2"/>
         <v>10041.64654798332</v>
       </c>
       <c r="L32" s="7">
@@ -2942,14 +2955,14 @@
         <v>21.54954</v>
       </c>
       <c r="N32" s="3">
-        <f>M32/E32*100000</f>
+        <f t="shared" si="3"/>
         <v>150.58119993766994</v>
       </c>
       <c r="O32" s="4">
         <v>9.3498789999999996</v>
       </c>
       <c r="P32" s="3">
-        <f>O32/E32*100000</f>
+        <f t="shared" si="4"/>
         <v>65.333923559018956</v>
       </c>
       <c r="Q32" s="7">
@@ -2982,7 +2995,7 @@
         <v>48439.54</v>
       </c>
       <c r="I33" s="3">
-        <f>H33/E33*100000</f>
+        <f t="shared" si="0"/>
         <v>23143.914709946515</v>
       </c>
       <c r="J33" s="4">
@@ -2990,7 +3003,7 @@
         <v>21016.859999999993</v>
       </c>
       <c r="K33" s="3">
-        <f>J33/E33*100000</f>
+        <f t="shared" si="2"/>
         <v>10041.63985270889</v>
       </c>
       <c r="L33" s="7">
@@ -3000,14 +3013,14 @@
         <v>6.5750770000000003</v>
       </c>
       <c r="N33" s="3">
-        <f>M33/E33*100000</f>
+        <f t="shared" si="3"/>
         <v>3.1415042607615811</v>
       </c>
       <c r="O33" s="4">
         <v>2.8527840000000002</v>
       </c>
       <c r="P33" s="3">
-        <f>O33/E33*100000</f>
+        <f t="shared" si="4"/>
         <v>1.3630308954606107</v>
       </c>
       <c r="Q33" s="7">
@@ -3040,7 +3053,7 @@
         <v>51751.64</v>
       </c>
       <c r="I34" s="3">
-        <f>H34/E34*100000</f>
+        <f t="shared" ref="I34:I65" si="8">H34/E34*100000</f>
         <v>23143.912561267931</v>
       </c>
       <c r="J34" s="4">
@@ -3048,7 +3061,7 @@
         <v>22453.919999999998</v>
       </c>
       <c r="K34" s="3">
-        <f>J34/E34*100000</f>
+        <f t="shared" si="2"/>
         <v>10041.644306107115</v>
       </c>
       <c r="L34" s="8">
@@ -3059,14 +3072,14 @@
         <v>28.124610000000001</v>
       </c>
       <c r="N34" s="3">
-        <f>M34/E34*100000</f>
+        <f t="shared" si="3"/>
         <v>12.57764033487174</v>
       </c>
       <c r="O34" s="4">
         <v>12.20266</v>
       </c>
       <c r="P34" s="3">
-        <f>O34/E34*100000</f>
+        <f t="shared" si="4"/>
         <v>5.4571661121247903</v>
       </c>
       <c r="Q34" s="7">
@@ -3100,15 +3113,15 @@
         <v>20091.189999999999</v>
       </c>
       <c r="I35" s="3">
-        <f>H35/E35*100000</f>
+        <f t="shared" si="8"/>
         <v>49076.756973298834</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" ref="J35:J46" si="3">H5-H35</f>
+        <f t="shared" ref="J35:J46" si="9">H5-H35</f>
         <v>6775.25</v>
       </c>
       <c r="K35" s="3">
-        <f>J35/E35*100000</f>
+        <f t="shared" si="2"/>
         <v>16549.905589631224</v>
       </c>
       <c r="L35" s="7">
@@ -3118,14 +3131,14 @@
         <v>130.96979999999999</v>
       </c>
       <c r="N35" s="3">
-        <f>M35/E35*100000</f>
+        <f t="shared" si="3"/>
         <v>319.91997713632463</v>
       </c>
       <c r="O35" s="4">
         <v>44.1663</v>
       </c>
       <c r="P35" s="3">
-        <f>O35/E35*100000</f>
+        <f t="shared" si="4"/>
         <v>107.88503675042685</v>
       </c>
       <c r="Q35" s="7">
@@ -3158,15 +3171,15 @@
         <v>293833.59999999998</v>
       </c>
       <c r="I36" s="3">
-        <f>H36/E36*100000</f>
+        <f t="shared" si="8"/>
         <v>49076.742872785682</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>99088</v>
       </c>
       <c r="K36" s="3">
-        <f>J36/E36*100000</f>
+        <f t="shared" si="2"/>
         <v>16549.898642560238</v>
       </c>
       <c r="L36" s="7">
@@ -3176,14 +3189,14 @@
         <v>39.915790000000001</v>
       </c>
       <c r="N36" s="3">
-        <f>M36/E36*100000</f>
+        <f t="shared" si="3"/>
         <v>6.6668242243028377</v>
       </c>
       <c r="O36" s="4">
         <v>13.460599999999999</v>
       </c>
       <c r="P36" s="3">
-        <f>O36/E36*100000</f>
+        <f t="shared" si="4"/>
         <v>2.2482194177705308</v>
       </c>
       <c r="Q36" s="7">
@@ -3216,15 +3229,15 @@
         <v>313924.8</v>
       </c>
       <c r="I37" s="3">
-        <f>H37/E37*100000</f>
+        <f t="shared" si="8"/>
         <v>49076.745338546505</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>105863.29999999999</v>
       </c>
       <c r="K37" s="3">
-        <f>J37/E37*100000</f>
+        <f t="shared" si="2"/>
         <v>16549.906903813109</v>
       </c>
       <c r="L37" s="8">
@@ -3235,14 +3248,14 @@
         <v>170.88560000000001</v>
       </c>
       <c r="N37" s="3">
-        <f>M37/E37*100000</f>
+        <f t="shared" si="3"/>
         <v>26.715025615130514</v>
       </c>
       <c r="O37" s="4">
         <v>57.626899999999999</v>
       </c>
       <c r="P37" s="3">
-        <f>O37/E37*100000</f>
+        <f t="shared" si="4"/>
         <v>9.0089750664805255</v>
       </c>
       <c r="Q37" s="7">
@@ -3276,15 +3289,15 @@
         <v>73767.81</v>
       </c>
       <c r="I38" s="3">
-        <f>H38/E38*100000</f>
+        <f t="shared" si="8"/>
         <v>22920.144120626734</v>
       </c>
       <c r="J38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>24983.75</v>
       </c>
       <c r="K38" s="3">
-        <f>J38/E38*100000</f>
+        <f t="shared" si="2"/>
         <v>7762.6155727506102</v>
       </c>
       <c r="L38" s="7">
@@ -3294,14 +3307,14 @@
         <v>952.77290000000005</v>
       </c>
       <c r="N38" s="3">
-        <f>M38/E38*100000</f>
+        <f t="shared" si="3"/>
         <v>296.03281136077487</v>
       </c>
       <c r="O38" s="4">
         <v>322.68599999999998</v>
       </c>
       <c r="P38" s="3">
-        <f>O38/E38*100000</f>
+        <f t="shared" si="4"/>
         <v>100.26066418006117</v>
       </c>
       <c r="Q38" s="7">
@@ -3334,15 +3347,15 @@
         <v>438508.6</v>
       </c>
       <c r="I39" s="3">
-        <f>H39/E39*100000</f>
+        <f t="shared" si="8"/>
         <v>22920.141927098401</v>
       </c>
       <c r="J39" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>148514.59999999998</v>
       </c>
       <c r="K39" s="3">
-        <f>J39/E39*100000</f>
+        <f t="shared" si="2"/>
         <v>7762.6201863458273</v>
       </c>
       <c r="L39" s="7">
@@ -3352,14 +3365,14 @@
         <v>132.7252</v>
       </c>
       <c r="N39" s="3">
-        <f>M39/E39*100000</f>
+        <f t="shared" si="3"/>
         <v>6.9373335467138402</v>
       </c>
       <c r="O39" s="4">
         <v>44.951509999999999</v>
       </c>
       <c r="P39" s="3">
-        <f>O39/E39*100000</f>
+        <f t="shared" si="4"/>
         <v>2.3495434047071897</v>
       </c>
       <c r="Q39" s="7">
@@ -3392,15 +3405,15 @@
         <v>512276.4</v>
       </c>
       <c r="I40" s="3">
-        <f>H40/E40*100000</f>
+        <f t="shared" si="8"/>
         <v>22920.141795549</v>
       </c>
       <c r="J40" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>173498.29999999993</v>
       </c>
       <c r="K40" s="3">
-        <f>J40/E40*100000</f>
+        <f t="shared" si="2"/>
         <v>7762.6172849006862</v>
       </c>
       <c r="L40" s="8">
@@ -3411,14 +3424,14 @@
         <v>1085.498</v>
       </c>
       <c r="N40" s="3">
-        <f>M40/E40*100000</f>
+        <f t="shared" si="3"/>
         <v>48.567078395149281</v>
       </c>
       <c r="O40" s="4">
         <v>367.63749999999999</v>
       </c>
       <c r="P40" s="3">
-        <f>O40/E40*100000</f>
+        <f t="shared" si="4"/>
         <v>16.448744524169268</v>
       </c>
       <c r="Q40" s="7">
@@ -3452,15 +3465,15 @@
         <v>23975.16</v>
       </c>
       <c r="I41" s="3">
-        <f>H41/E41*100000</f>
+        <f t="shared" si="8"/>
         <v>15175.909614847793</v>
       </c>
       <c r="J41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>11117.219999999998</v>
       </c>
       <c r="K41" s="3">
-        <f>J41/E41*100000</f>
+        <f t="shared" si="2"/>
         <v>7037.0302383124099</v>
       </c>
       <c r="L41" s="7">
@@ -3470,14 +3483,14 @@
         <v>631.06659999999999</v>
       </c>
       <c r="N41" s="3">
-        <f>M41/E41*100000</f>
+        <f t="shared" si="3"/>
         <v>399.45550655550608</v>
       </c>
       <c r="O41" s="4">
         <v>292.62400000000002</v>
       </c>
       <c r="P41" s="3">
-        <f>O41/E41*100000</f>
+        <f t="shared" si="4"/>
         <v>185.22651674212901</v>
       </c>
       <c r="Q41" s="7">
@@ -3510,15 +3523,15 @@
         <v>22851.32</v>
       </c>
       <c r="I42" s="3">
-        <f>H42/E42*100000</f>
+        <f t="shared" si="8"/>
         <v>15175.907496730895</v>
       </c>
       <c r="J42" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>10596.099999999999</v>
       </c>
       <c r="K42" s="3">
-        <f>J42/E42*100000</f>
+        <f t="shared" si="2"/>
         <v>7037.0303958856739</v>
       </c>
       <c r="L42" s="7">
@@ -3528,14 +3541,14 @@
         <v>78.991010000000003</v>
       </c>
       <c r="N42" s="3">
-        <f>M42/E42*100000</f>
+        <f t="shared" si="3"/>
         <v>52.45912537364778</v>
       </c>
       <c r="O42" s="4">
         <v>36.627929999999999</v>
       </c>
       <c r="P42" s="3">
-        <f>O42/E42*100000</f>
+        <f t="shared" si="4"/>
         <v>24.325162724811275</v>
       </c>
       <c r="Q42" s="7">
@@ -3568,15 +3581,15 @@
         <v>46826.48</v>
       </c>
       <c r="I43" s="3">
-        <f>H43/E43*100000</f>
+        <f t="shared" si="8"/>
         <v>15175.908581206777</v>
       </c>
       <c r="J43" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>21713.32</v>
       </c>
       <c r="K43" s="3">
-        <f>J43/E43*100000</f>
+        <f t="shared" si="2"/>
         <v>7037.0303152081624</v>
       </c>
       <c r="L43" s="8">
@@ -3587,14 +3600,14 @@
         <v>710.05759999999998</v>
       </c>
       <c r="N43" s="3">
-        <f>M43/E43*100000</f>
+        <f t="shared" si="3"/>
         <v>230.12127379617445</v>
       </c>
       <c r="O43" s="4">
         <v>329.25189999999998</v>
       </c>
       <c r="P43" s="3">
-        <f>O43/E43*100000</f>
+        <f t="shared" si="4"/>
         <v>106.70664834488167</v>
       </c>
       <c r="Q43" s="7">
@@ -3623,23 +3636,23 @@
         <v>134174401</v>
       </c>
       <c r="G44" s="8">
-        <f t="shared" ref="G44:H46" si="4">G32+G35+G38+G41</f>
+        <f t="shared" ref="G44:H46" si="10">G32+G35+G38+G41</f>
         <v>368219604</v>
       </c>
       <c r="H44" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>121146.265</v>
       </c>
       <c r="I44" s="3">
-        <f>H44/E44*100000</f>
+        <f t="shared" si="8"/>
         <v>22640.862041096556</v>
       </c>
       <c r="J44" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>44313.270999999993</v>
       </c>
       <c r="K44" s="3">
-        <f>J44/E44*100000</f>
+        <f t="shared" si="2"/>
         <v>8281.6474391573247</v>
       </c>
       <c r="L44" s="8">
@@ -3651,7 +3664,7 @@
         <v>1736.3588399999999</v>
       </c>
       <c r="N44" s="3">
-        <f>M44/E44*100000</f>
+        <f t="shared" si="3"/>
         <v>324.50576128185583</v>
       </c>
       <c r="O44" s="3">
@@ -3659,7 +3672,7 @@
         <v>668.82617900000002</v>
       </c>
       <c r="P44" s="3">
-        <f>O44/E44*100000</f>
+        <f t="shared" si="4"/>
         <v>124.99602235539618</v>
       </c>
       <c r="Q44" s="7">
@@ -3688,23 +3701,23 @@
         <v>79370144</v>
       </c>
       <c r="G45" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>319564792</v>
       </c>
       <c r="H45" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>803633.05999999994</v>
       </c>
       <c r="I45" s="3">
-        <f>H45/E45*100000</f>
+        <f t="shared" si="8"/>
         <v>27983.62042194172</v>
       </c>
       <c r="J45" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>279215.55999999994</v>
       </c>
       <c r="K45" s="3">
-        <f>J45/E45*100000</f>
+        <f t="shared" si="2"/>
         <v>9722.6739862343293</v>
       </c>
       <c r="L45" s="8">
@@ -3716,7 +3729,7 @@
         <v>258.20707700000003</v>
       </c>
       <c r="N45" s="3">
-        <f>M45/E45*100000</f>
+        <f t="shared" si="3"/>
         <v>8.9911294005588562</v>
       </c>
       <c r="O45" s="3">
@@ -3724,7 +3737,7 @@
         <v>97.89282399999999</v>
       </c>
       <c r="P45" s="3">
-        <f>O45/E45*100000</f>
+        <f t="shared" si="4"/>
         <v>3.4087642298438374</v>
       </c>
       <c r="Q45" s="7">
@@ -3753,23 +3766,23 @@
         <v>213544544</v>
       </c>
       <c r="G46" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>687784397</v>
       </c>
       <c r="H46" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>924779.32000000007</v>
       </c>
       <c r="I46" s="3">
-        <f>H46/E46*100000</f>
+        <f t="shared" si="8"/>
         <v>27144.496013356518</v>
       </c>
       <c r="J46" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>323528.83999999985</v>
       </c>
       <c r="K46" s="3">
-        <f>J46/E46*100000</f>
+        <f t="shared" si="2"/>
         <v>9496.3491480171233</v>
       </c>
       <c r="L46" s="8">
@@ -3781,7 +3794,7 @@
         <v>1994.5658100000001</v>
       </c>
       <c r="N46" s="3">
-        <f>M46/E46*100000</f>
+        <f t="shared" si="3"/>
         <v>58.545301032382753</v>
       </c>
       <c r="O46" s="3">
@@ -3789,7 +3802,7 @@
         <v>766.71895999999992</v>
       </c>
       <c r="P46" s="3">
-        <f>O46/E46*100000</f>
+        <f t="shared" si="4"/>
         <v>22.505044504114618</v>
       </c>
       <c r="Q46" s="7">
@@ -3823,7 +3836,7 @@
         <v>2609.1320000000001</v>
       </c>
       <c r="I47" s="3">
-        <f>H47/E47*100000</f>
+        <f t="shared" si="8"/>
         <v>18231.768629667855</v>
       </c>
       <c r="J47" s="3">
@@ -3831,7 +3844,7 @@
         <v>2140.0239999999999</v>
       </c>
       <c r="K47" s="3">
-        <f>J47/E47*100000</f>
+        <f t="shared" si="2"/>
         <v>14953.793993533603</v>
       </c>
       <c r="L47" s="7">
@@ -3841,14 +3854,14 @@
         <v>16.97578</v>
       </c>
       <c r="N47" s="3">
-        <f>M47/E47*100000</f>
+        <f t="shared" si="3"/>
         <v>118.62124770542195</v>
       </c>
       <c r="O47" s="4">
         <v>13.923629999999999</v>
       </c>
       <c r="P47" s="3">
-        <f>O47/E47*100000</f>
+        <f t="shared" si="4"/>
         <v>97.293812902184413</v>
       </c>
       <c r="Q47" s="7">
@@ -3881,15 +3894,15 @@
         <v>38158.550000000003</v>
       </c>
       <c r="I48" s="3">
-        <f>H48/E48*100000</f>
+        <f t="shared" si="8"/>
         <v>18231.763279651906</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" ref="J48:J61" si="5">H3-H48</f>
+        <f t="shared" ref="J48:J61" si="11">H3-H48</f>
         <v>31297.849999999991</v>
       </c>
       <c r="K48" s="3">
-        <f>J48/E48*100000</f>
+        <f t="shared" si="2"/>
         <v>14953.7912830035</v>
       </c>
       <c r="L48" s="7">
@@ -3899,14 +3912,14 @@
         <v>5.1795580000000001</v>
       </c>
       <c r="N48" s="3">
-        <f>M48/E48*100000</f>
+        <f t="shared" si="3"/>
         <v>2.4747396153477337</v>
       </c>
       <c r="O48" s="4">
         <v>4.2483029999999999</v>
       </c>
       <c r="P48" s="3">
-        <f>O48/E48*100000</f>
+        <f t="shared" si="4"/>
         <v>2.0297955408744577</v>
       </c>
       <c r="Q48" s="7">
@@ -3939,15 +3952,15 @@
         <v>40767.68</v>
       </c>
       <c r="I49" s="3">
-        <f>H49/E49*100000</f>
+        <f t="shared" si="8"/>
         <v>18231.762727630496</v>
       </c>
       <c r="J49" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>33437.879999999997</v>
       </c>
       <c r="K49" s="3">
-        <f>J49/E49*100000</f>
+        <f t="shared" ref="K49:K80" si="12">J49/E49*100000</f>
         <v>14953.794139744552</v>
       </c>
       <c r="L49" s="8">
@@ -3958,14 +3971,14 @@
         <v>22.155339999999999</v>
       </c>
       <c r="N49" s="3">
-        <f>M49/E49*100000</f>
+        <f t="shared" ref="N49:N80" si="13">M49/E49*100000</f>
         <v>9.9081159886945009</v>
       </c>
       <c r="O49" s="4">
         <v>18.171939999999999</v>
       </c>
       <c r="P49" s="3">
-        <f>O49/E49*100000</f>
+        <f t="shared" ref="P49:P80" si="14">O49/E49*100000</f>
         <v>8.1266949304139384</v>
       </c>
       <c r="Q49" s="7">
@@ -3999,15 +4012,15 @@
         <v>16450.48</v>
       </c>
       <c r="I50" s="3">
-        <f>H50/E50*100000</f>
+        <f t="shared" si="8"/>
         <v>40183.593358786267</v>
       </c>
       <c r="J50" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10415.959999999999</v>
       </c>
       <c r="K50" s="3">
-        <f>J50/E50*100000</f>
+        <f t="shared" si="12"/>
         <v>25443.069204143791</v>
       </c>
       <c r="L50" s="7">
@@ -4017,14 +4030,14 @@
         <v>107.23690000000001</v>
       </c>
       <c r="N50" s="3">
-        <f>M50/E50*100000</f>
+        <f t="shared" si="13"/>
         <v>261.94761384815683</v>
       </c>
       <c r="O50" s="4">
         <v>67.899270000000001</v>
       </c>
       <c r="P50" s="3">
-        <f>O50/E50*100000</f>
+        <f t="shared" si="14"/>
         <v>165.8575710276196</v>
       </c>
       <c r="Q50" s="7">
@@ -4057,15 +4070,15 @@
         <v>240588.2</v>
       </c>
       <c r="I51" s="3">
-        <f>H51/E51*100000</f>
+        <f t="shared" si="8"/>
         <v>40183.577472509394</v>
       </c>
       <c r="J51" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>152333.39999999997</v>
       </c>
       <c r="K51" s="3">
-        <f>J51/E51*100000</f>
+        <f t="shared" si="12"/>
         <v>25443.064042836522</v>
       </c>
       <c r="L51" s="7">
@@ -4075,14 +4088,14 @@
         <v>32.682670000000002</v>
       </c>
       <c r="N51" s="3">
-        <f>M51/E51*100000</f>
+        <f t="shared" si="13"/>
         <v>5.4587323981536038</v>
       </c>
       <c r="O51" s="4">
         <v>20.693709999999999</v>
       </c>
       <c r="P51" s="3">
-        <f>O51/E51*100000</f>
+        <f t="shared" si="14"/>
         <v>3.4563095736974732</v>
       </c>
       <c r="Q51" s="7">
@@ -4115,15 +4128,15 @@
         <v>257038.7</v>
       </c>
       <c r="I52" s="3">
-        <f>H52/E52*100000</f>
+        <f t="shared" si="8"/>
         <v>40183.581615887168</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>162749.39999999997</v>
       </c>
       <c r="K52" s="3">
-        <f>J52/E52*100000</f>
+        <f t="shared" si="12"/>
         <v>25443.070626472454</v>
       </c>
       <c r="L52" s="8">
@@ -4134,14 +4147,14 @@
         <v>139.9196</v>
       </c>
       <c r="N52" s="3">
-        <f>M52/E52*100000</f>
+        <f t="shared" si="13"/>
         <v>21.874023897032959</v>
       </c>
       <c r="O52" s="4">
         <v>88.592979999999997</v>
       </c>
       <c r="P52" s="3">
-        <f>O52/E52*100000</f>
+        <f t="shared" si="14"/>
         <v>13.849989291202684</v>
       </c>
       <c r="Q52" s="7">
@@ -4175,15 +4188,15 @@
         <v>60789.07</v>
       </c>
       <c r="I53" s="3">
-        <f>H53/E53*100000</f>
+        <f t="shared" si="8"/>
         <v>18887.564174114254</v>
       </c>
       <c r="J53" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>37962.49</v>
       </c>
       <c r="K53" s="3">
-        <f>J53/E53*100000</f>
+        <f t="shared" si="12"/>
         <v>11795.195519263092</v>
       </c>
       <c r="L53" s="7">
@@ -4193,14 +4206,14 @@
         <v>785.14160000000004</v>
       </c>
       <c r="N53" s="3">
-        <f>M53/E53*100000</f>
+        <f t="shared" si="13"/>
         <v>243.94866306996872</v>
       </c>
       <c r="O53" s="4">
         <v>490.31729999999999</v>
       </c>
       <c r="P53" s="3">
-        <f>O53/E53*100000</f>
+        <f t="shared" si="14"/>
         <v>152.34481247086737</v>
       </c>
       <c r="Q53" s="7">
@@ -4233,15 +4246,15 @@
         <v>361357.2</v>
       </c>
       <c r="I54" s="3">
-        <f>H54/E54*100000</f>
+        <f t="shared" si="8"/>
         <v>18887.561863960898</v>
       </c>
       <c r="J54" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>225665.99999999994</v>
       </c>
       <c r="K54" s="3">
-        <f>J54/E54*100000</f>
+        <f t="shared" si="12"/>
         <v>11795.20024948333</v>
       </c>
       <c r="L54" s="7">
@@ -4251,14 +4264,14 @@
         <v>109.37350000000001</v>
       </c>
       <c r="N54" s="3">
-        <f>M54/E54*100000</f>
+        <f t="shared" si="13"/>
         <v>5.7167776026821304</v>
       </c>
       <c r="O54" s="4">
         <v>68.303229999999999</v>
       </c>
       <c r="P54" s="3">
-        <f>O54/E54*100000</f>
+        <f t="shared" si="14"/>
         <v>3.5701003941068552</v>
       </c>
       <c r="Q54" s="7">
@@ -4291,15 +4304,15 @@
         <v>422146.3</v>
       </c>
       <c r="I55" s="3">
-        <f>H55/E55*100000</f>
+        <f t="shared" si="8"/>
         <v>18887.563538875434</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>263628.39999999997</v>
       </c>
       <c r="K55" s="3">
-        <f>J55/E55*100000</f>
+        <f t="shared" si="12"/>
         <v>11795.195541574254</v>
       </c>
       <c r="L55" s="8">
@@ -4310,14 +4323,14 @@
         <v>894.51509999999996</v>
       </c>
       <c r="N55" s="3">
-        <f>M55/E55*100000</f>
+        <f t="shared" si="13"/>
         <v>40.022169536327837</v>
       </c>
       <c r="O55" s="4">
         <v>558.62049999999999</v>
       </c>
       <c r="P55" s="3">
-        <f>O55/E55*100000</f>
+        <f t="shared" si="14"/>
         <v>24.993657857165545</v>
       </c>
       <c r="Q55" s="7">
@@ -4351,15 +4364,15 @@
         <v>18726.71</v>
       </c>
       <c r="I56" s="3">
-        <f>H56/E56*100000</f>
+        <f t="shared" si="8"/>
         <v>11853.721032246138</v>
       </c>
       <c r="J56" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>16365.669999999998</v>
       </c>
       <c r="K56" s="3">
-        <f>J56/E56*100000</f>
+        <f t="shared" si="12"/>
         <v>10359.218820914066</v>
       </c>
       <c r="L56" s="7">
@@ -4369,14 +4382,14 @@
         <v>492.91849999999999</v>
       </c>
       <c r="N56" s="3">
-        <f>M56/E56*100000</f>
+        <f t="shared" si="13"/>
         <v>312.00987202948187</v>
       </c>
       <c r="O56" s="4">
         <v>430.77210000000002</v>
       </c>
       <c r="P56" s="3">
-        <f>O56/E56*100000</f>
+        <f t="shared" si="14"/>
         <v>272.67215126815319</v>
       </c>
       <c r="Q56" s="7">
@@ -4409,15 +4422,15 @@
         <v>17848.89</v>
       </c>
       <c r="I57" s="3">
-        <f>H57/E57*100000</f>
+        <f t="shared" si="8"/>
         <v>11853.718015384891</v>
       </c>
       <c r="J57" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>15598.529999999999</v>
       </c>
       <c r="K57" s="3">
-        <f>J57/E57*100000</f>
+        <f t="shared" si="12"/>
         <v>10359.219877231677</v>
       </c>
       <c r="L57" s="7">
@@ -4427,14 +4440,14 @@
         <v>61.698929999999997</v>
       </c>
       <c r="N57" s="3">
-        <f>M57/E57*100000</f>
+        <f t="shared" si="13"/>
         <v>40.975193307313305</v>
       </c>
       <c r="O57" s="4">
         <v>53.920009999999998</v>
       </c>
       <c r="P57" s="3">
-        <f>O57/E57*100000</f>
+        <f t="shared" si="14"/>
         <v>35.809094791145753</v>
       </c>
       <c r="Q57" s="7">
@@ -4467,15 +4480,15 @@
         <v>36575.599999999999</v>
       </c>
       <c r="I58" s="3">
-        <f>H58/E58*100000</f>
+        <f t="shared" si="8"/>
         <v>11853.719560017889</v>
       </c>
       <c r="J58" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>31964.200000000004</v>
       </c>
       <c r="K58" s="3">
-        <f>J58/E58*100000</f>
+        <f t="shared" si="12"/>
         <v>10359.219336397047</v>
       </c>
       <c r="L58" s="8">
@@ -4486,14 +4499,14 @@
         <v>554.61749999999995</v>
       </c>
       <c r="N58" s="3">
-        <f>M58/E58*100000</f>
+        <f t="shared" si="13"/>
         <v>179.74497501280146</v>
       </c>
       <c r="O58" s="4">
         <v>484.69209999999998</v>
       </c>
       <c r="P58" s="3">
-        <f>O58/E58*100000</f>
+        <f t="shared" si="14"/>
         <v>157.08297953707245</v>
       </c>
       <c r="Q58" s="7">
@@ -4522,23 +4535,23 @@
         <v>204880149</v>
       </c>
       <c r="G59" s="8">
-        <f t="shared" ref="G59:H61" si="6">G47+G50+G53+G56</f>
+        <f t="shared" ref="G59:H61" si="15">G47+G50+G53+G56</f>
         <v>297513855</v>
       </c>
       <c r="H59" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>98575.391999999993</v>
       </c>
       <c r="I59" s="3">
-        <f>H59/E59*100000</f>
+        <f t="shared" si="8"/>
         <v>18422.62203394395</v>
       </c>
       <c r="J59" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>66884.144</v>
       </c>
       <c r="K59" s="3">
-        <f>J59/E59*100000</f>
+        <f t="shared" si="12"/>
         <v>12499.887446309927</v>
       </c>
       <c r="L59" s="8">
@@ -4550,7 +4563,7 @@
         <v>1402.27278</v>
       </c>
       <c r="N59" s="3">
-        <f>M59/E59*100000</f>
+        <f t="shared" si="13"/>
         <v>262.06886820625414</v>
       </c>
       <c r="O59" s="3">
@@ -4558,7 +4571,7 @@
         <v>1002.9123000000001</v>
       </c>
       <c r="P59" s="3">
-        <f>O59/E59*100000</f>
+        <f t="shared" si="14"/>
         <v>187.43292683120558</v>
       </c>
       <c r="Q59" s="7">
@@ -4587,23 +4600,23 @@
         <v>137468176</v>
       </c>
       <c r="G60" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>261466761</v>
       </c>
       <c r="H60" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>657952.84</v>
       </c>
       <c r="I60" s="3">
-        <f>H60/E60*100000</f>
+        <f t="shared" si="8"/>
         <v>22910.832625649513</v>
       </c>
       <c r="J60" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>424895.77999999991</v>
       </c>
       <c r="K60" s="3">
-        <f>J60/E60*100000</f>
+        <f t="shared" si="12"/>
         <v>14795.461782526536</v>
       </c>
       <c r="L60" s="8">
@@ -4615,7 +4628,7 @@
         <v>208.93465799999998</v>
       </c>
       <c r="N60" s="3">
-        <f>M60/E60*100000</f>
+        <f t="shared" si="13"/>
         <v>7.275395268656828</v>
       </c>
       <c r="O60" s="3">
@@ -4623,7 +4636,7 @@
         <v>147.16525300000001</v>
       </c>
       <c r="P60" s="3">
-        <f>O60/E60*100000</f>
+        <f t="shared" si="14"/>
         <v>5.1244987099597674</v>
       </c>
       <c r="Q60" s="7">
@@ -4652,23 +4665,23 @@
         <v>342348325</v>
       </c>
       <c r="G61" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>558980615</v>
       </c>
       <c r="H61" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>756528.27999999991</v>
       </c>
       <c r="I61" s="3">
-        <f>H61/E61*100000</f>
+        <f t="shared" si="8"/>
         <v>22205.923549903193</v>
       </c>
       <c r="J61" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>491779.88</v>
       </c>
       <c r="K61" s="3">
-        <f>J61/E61*100000</f>
+        <f t="shared" si="12"/>
         <v>14434.92161147045</v>
       </c>
       <c r="L61" s="8">
@@ -4680,7 +4693,7 @@
         <v>1611.2075399999999</v>
       </c>
       <c r="N61" s="3">
-        <f>M61/E61*100000</f>
+        <f t="shared" si="13"/>
         <v>47.292814296734015</v>
       </c>
       <c r="O61" s="3">
@@ -4688,7 +4701,7 @@
         <v>1150.0775199999998</v>
       </c>
       <c r="P61" s="3">
-        <f>O61/E61*100000</f>
+        <f t="shared" si="14"/>
         <v>33.757539751960444</v>
       </c>
       <c r="Q61" s="7">
@@ -4722,7 +4735,7 @@
         <v>1921.912</v>
       </c>
       <c r="I62" s="3">
-        <f>H62/E62*100000</f>
+        <f t="shared" si="8"/>
         <v>13429.698041564096</v>
       </c>
       <c r="J62" s="3">
@@ -4730,7 +4743,7 @@
         <v>2827.2439999999997</v>
       </c>
       <c r="K62" s="3">
-        <f>J62/E62*100000</f>
+        <f t="shared" si="12"/>
         <v>19755.864581637365</v>
       </c>
       <c r="L62" s="7">
@@ -4740,14 +4753,14 @@
         <v>12.504530000000001</v>
       </c>
       <c r="N62" s="3">
-        <f>M62/E62*100000</f>
+        <f t="shared" si="13"/>
         <v>87.377602123135432</v>
       </c>
       <c r="O62" s="4">
         <v>18.394880000000001</v>
       </c>
       <c r="P62" s="3">
-        <f>O62/E62*100000</f>
+        <f t="shared" si="14"/>
         <v>128.53745848447096</v>
       </c>
       <c r="Q62" s="7">
@@ -4780,15 +4793,15 @@
         <v>28107.97</v>
       </c>
       <c r="I63" s="3">
-        <f>H63/E63*100000</f>
+        <f t="shared" si="8"/>
         <v>13429.699380913515</v>
       </c>
       <c r="J63" s="3">
-        <f t="shared" ref="J63:J76" si="7">H3-H63</f>
+        <f t="shared" ref="J63:J76" si="16">H3-H63</f>
         <v>41348.429999999993</v>
       </c>
       <c r="K63" s="3">
-        <f>J63/E63*100000</f>
+        <f t="shared" si="12"/>
         <v>19755.855181741892</v>
       </c>
       <c r="L63" s="7">
@@ -4798,14 +4811,14 @@
         <v>3.8153139999999999</v>
       </c>
       <c r="N63" s="3">
-        <f>M63/E63*100000</f>
+        <f t="shared" si="13"/>
         <v>1.822917843721573</v>
       </c>
       <c r="O63" s="4">
         <v>5.6125470000000002</v>
       </c>
       <c r="P63" s="3">
-        <f>O63/E63*100000</f>
+        <f t="shared" si="14"/>
         <v>2.681617312500618</v>
       </c>
       <c r="Q63" s="7">
@@ -4838,15 +4851,15 @@
         <v>30029.88</v>
       </c>
       <c r="I64" s="3">
-        <f>H64/E64*100000</f>
+        <f t="shared" si="8"/>
         <v>13429.698400772782</v>
       </c>
       <c r="J64" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>44175.679999999993</v>
       </c>
       <c r="K64" s="3">
-        <f>J64/E64*100000</f>
+        <f t="shared" si="12"/>
         <v>19755.858466602265</v>
       </c>
       <c r="L64" s="8">
@@ -4857,14 +4870,14 @@
         <v>16.319849999999999</v>
       </c>
       <c r="N64" s="3">
-        <f>M64/E64*100000</f>
+        <f t="shared" si="13"/>
         <v>7.2984195556509599</v>
       </c>
       <c r="O64" s="4">
         <v>24.007429999999999</v>
       </c>
       <c r="P64" s="3">
-        <f>O64/E64*100000</f>
+        <f t="shared" si="14"/>
         <v>10.736391363457479</v>
       </c>
       <c r="Q64" s="7">
@@ -4898,15 +4911,15 @@
         <v>12587.88</v>
       </c>
       <c r="I65" s="3">
-        <f>H65/E65*100000</f>
+        <f t="shared" si="8"/>
         <v>30748.418962194322</v>
       </c>
       <c r="J65" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>14278.56</v>
       </c>
       <c r="K65" s="3">
-        <f>J65/E65*100000</f>
+        <f t="shared" si="12"/>
         <v>34878.243600735739</v>
       </c>
       <c r="L65" s="7">
@@ -4916,14 +4929,14 @@
         <v>82.05753</v>
       </c>
       <c r="N65" s="3">
-        <f>M65/E65*100000</f>
+        <f t="shared" si="13"/>
         <v>200.4419577754816</v>
       </c>
       <c r="O65" s="4">
         <v>93.078620000000001</v>
       </c>
       <c r="P65" s="3">
-        <f>O65/E65*100000</f>
+        <f t="shared" si="14"/>
         <v>227.3631782462877</v>
       </c>
       <c r="Q65" s="7">
@@ -4956,15 +4969,15 @@
         <v>184097.8</v>
       </c>
       <c r="I66" s="3">
-        <f>H66/E66*100000</f>
+        <f t="shared" ref="I66:I97" si="17">H66/E66*100000</f>
         <v>30748.42493862351</v>
       </c>
       <c r="J66" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>208823.8</v>
       </c>
       <c r="K66" s="3">
-        <f>J66/E66*100000</f>
+        <f t="shared" si="12"/>
         <v>34878.216576722414</v>
       </c>
       <c r="L66" s="7">
@@ -4974,14 +4987,14 @@
         <v>25.00874</v>
       </c>
       <c r="N66" s="3">
-        <f>M66/E66*100000</f>
+        <f t="shared" si="13"/>
         <v>4.177015503170332</v>
       </c>
       <c r="O66" s="4">
         <v>28.367650000000001</v>
       </c>
       <c r="P66" s="3">
-        <f>O66/E66*100000</f>
+        <f t="shared" si="14"/>
         <v>4.7380281389030356</v>
       </c>
       <c r="Q66" s="7">
@@ -5014,15 +5027,15 @@
         <v>196685.7</v>
       </c>
       <c r="I67" s="3">
-        <f>H67/E67*100000</f>
+        <f t="shared" si="17"/>
         <v>30748.427682788228</v>
       </c>
       <c r="J67" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>223102.39999999997</v>
       </c>
       <c r="K67" s="3">
-        <f>J67/E67*100000</f>
+        <f t="shared" si="12"/>
         <v>34878.22455957139</v>
       </c>
       <c r="L67" s="8">
@@ -5033,14 +5046,14 @@
         <v>107.0663</v>
       </c>
       <c r="N67" s="3">
-        <f>M67/E67*100000</f>
+        <f t="shared" si="13"/>
         <v>16.737975271276504</v>
       </c>
       <c r="O67" s="4">
         <v>121.44629999999999</v>
       </c>
       <c r="P67" s="3">
-        <f>O67/E67*100000</f>
+        <f t="shared" si="14"/>
         <v>18.986041043615291</v>
       </c>
       <c r="Q67" s="7">
@@ -5074,15 +5087,15 @@
         <v>47337.42</v>
       </c>
       <c r="I68" s="3">
-        <f>H68/E68*100000</f>
+        <f t="shared" si="17"/>
         <v>14708.047977819031</v>
       </c>
       <c r="J68" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>51414.14</v>
       </c>
       <c r="K68" s="3">
-        <f>J68/E68*100000</f>
+        <f t="shared" si="12"/>
         <v>15974.711715558315</v>
       </c>
       <c r="L68" s="7">
@@ -5092,14 +5105,14 @@
         <v>611.40229999999997</v>
       </c>
       <c r="N68" s="3">
-        <f>M68/E68*100000</f>
+        <f t="shared" si="13"/>
         <v>189.96671897515546</v>
       </c>
       <c r="O68" s="4">
         <v>664.0566</v>
       </c>
       <c r="P68" s="3">
-        <f>O68/E68*100000</f>
+        <f t="shared" si="14"/>
         <v>206.32675656568063</v>
       </c>
       <c r="Q68" s="7">
@@ -5132,15 +5145,15 @@
         <v>281394.7</v>
       </c>
       <c r="I69" s="3">
-        <f>H69/E69*100000</f>
+        <f t="shared" si="17"/>
         <v>14708.050107873089</v>
       </c>
       <c r="J69" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>305628.49999999994</v>
       </c>
       <c r="K69" s="3">
-        <f>J69/E69*100000</f>
+        <f t="shared" si="12"/>
         <v>15974.71200557114</v>
       </c>
       <c r="L69" s="7">
@@ -5150,14 +5163,14 @@
         <v>85.17089</v>
       </c>
       <c r="N69" s="3">
-        <f>M69/E69*100000</f>
+        <f t="shared" si="13"/>
         <v>4.4517459563102895</v>
       </c>
       <c r="O69" s="4">
         <v>92.505840000000006</v>
       </c>
       <c r="P69" s="3">
-        <f>O69/E69*100000</f>
+        <f t="shared" si="14"/>
         <v>4.8351320404786966</v>
       </c>
       <c r="Q69" s="7">
@@ -5190,15 +5203,15 @@
         <v>328732.09999999998</v>
       </c>
       <c r="I70" s="3">
-        <f>H70/E70*100000</f>
+        <f t="shared" si="17"/>
         <v>14708.04890631033</v>
       </c>
       <c r="J70" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>357042.6</v>
       </c>
       <c r="K70" s="3">
-        <f>J70/E70*100000</f>
+        <f t="shared" si="12"/>
         <v>15974.710174139358</v>
       </c>
       <c r="L70" s="8">
@@ -5209,14 +5222,14 @@
         <v>696.57320000000004</v>
       </c>
       <c r="N70" s="3">
-        <f>M70/E70*100000</f>
+        <f t="shared" si="13"/>
         <v>31.165902850452053</v>
       </c>
       <c r="O70" s="4">
         <v>756.56240000000003</v>
       </c>
       <c r="P70" s="3">
-        <f>O70/E70*100000</f>
+        <f t="shared" si="14"/>
         <v>33.84992454304134</v>
       </c>
       <c r="Q70" s="7">
@@ -5250,15 +5263,15 @@
         <v>13786.36</v>
       </c>
       <c r="I71" s="3">
-        <f>H71/E71*100000</f>
+        <f t="shared" si="17"/>
         <v>8726.5550377037343</v>
       </c>
       <c r="J71" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>21306.019999999997</v>
       </c>
       <c r="K71" s="3">
-        <f>J71/E71*100000</f>
+        <f t="shared" si="12"/>
         <v>13486.384815456469</v>
       </c>
       <c r="L71" s="7">
@@ -5268,14 +5281,14 @@
         <v>362.8802</v>
       </c>
       <c r="N71" s="3">
-        <f>M71/E71*100000</f>
+        <f t="shared" si="13"/>
         <v>229.69761687587865</v>
       </c>
       <c r="O71" s="4">
         <v>560.81039999999996</v>
       </c>
       <c r="P71" s="3">
-        <f>O71/E71*100000</f>
+        <f t="shared" si="14"/>
         <v>354.98440642175638</v>
       </c>
       <c r="Q71" s="7">
@@ -5308,15 +5321,15 @@
         <v>13140.12</v>
       </c>
       <c r="I72" s="3">
-        <f>H72/E72*100000</f>
+        <f t="shared" si="17"/>
         <v>8726.5525849685528</v>
       </c>
       <c r="J72" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>20307.299999999996</v>
       </c>
       <c r="K72" s="3">
-        <f>J72/E72*100000</f>
+        <f t="shared" si="12"/>
         <v>13486.385307648014</v>
       </c>
       <c r="L72" s="7">
@@ -5326,14 +5339,14 @@
         <v>45.421939999999999</v>
       </c>
       <c r="N72" s="3">
-        <f>M72/E72*100000</f>
+        <f t="shared" si="13"/>
         <v>30.165397874698741</v>
       </c>
       <c r="O72" s="4">
         <v>70.19699</v>
       </c>
       <c r="P72" s="3">
-        <f>O72/E72*100000</f>
+        <f t="shared" si="14"/>
         <v>46.618883582608952</v>
       </c>
       <c r="Q72" s="7">
@@ -5366,15 +5379,15 @@
         <v>26926.48</v>
       </c>
       <c r="I73" s="3">
-        <f>H73/E73*100000</f>
+        <f t="shared" si="17"/>
         <v>8726.5538407689965</v>
       </c>
       <c r="J73" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>41613.320000000007</v>
       </c>
       <c r="K73" s="3">
-        <f>J73/E73*100000</f>
+        <f t="shared" si="12"/>
         <v>13486.385055645942</v>
       </c>
       <c r="L73" s="8">
@@ -5385,14 +5398,14 @@
         <v>408.3021</v>
       </c>
       <c r="N73" s="3">
-        <f>M73/E73*100000</f>
+        <f t="shared" si="13"/>
         <v>132.32588362641707</v>
       </c>
       <c r="O73" s="4">
         <v>631.00739999999996</v>
       </c>
       <c r="P73" s="3">
-        <f>O73/E73*100000</f>
+        <f t="shared" si="14"/>
         <v>204.50203851463903</v>
       </c>
       <c r="Q73" s="7">
@@ -5421,23 +5434,23 @@
         <v>275740460</v>
       </c>
       <c r="G74" s="8">
-        <f t="shared" ref="G74:H76" si="8">G62+G65+G68+G71</f>
+        <f t="shared" ref="G74:H76" si="18">G62+G65+G68+G71</f>
         <v>226653545</v>
       </c>
       <c r="H74" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>75633.572</v>
       </c>
       <c r="I74" s="3">
-        <f>H74/E74*100000</f>
+        <f t="shared" si="17"/>
         <v>14135.05624236408</v>
       </c>
       <c r="J74" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>89825.963999999993</v>
       </c>
       <c r="K74" s="3">
-        <f>J74/E74*100000</f>
+        <f t="shared" si="12"/>
         <v>16787.453237889797</v>
       </c>
       <c r="L74" s="8">
@@ -5449,7 +5462,7 @@
         <v>1068.84456</v>
       </c>
       <c r="N74" s="3">
-        <f>M74/E74*100000</f>
+        <f t="shared" si="13"/>
         <v>199.75491796083477</v>
       </c>
       <c r="O74" s="3">
@@ -5457,7 +5470,7 @@
         <v>1336.3404999999998</v>
       </c>
       <c r="P74" s="3">
-        <f>O74/E74*100000</f>
+        <f t="shared" si="14"/>
         <v>249.74687333885188</v>
       </c>
       <c r="Q74" s="7">
@@ -5486,23 +5499,23 @@
         <v>197508022</v>
       </c>
       <c r="G75" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>201426914</v>
       </c>
       <c r="H75" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>506740.58999999997</v>
       </c>
       <c r="I75" s="3">
-        <f>H75/E75*100000</f>
+        <f t="shared" si="17"/>
         <v>17645.411853701982</v>
       </c>
       <c r="J75" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>576108.02999999991</v>
       </c>
       <c r="K75" s="3">
-        <f>J75/E75*100000</f>
+        <f t="shared" si="12"/>
         <v>20060.882554474068</v>
       </c>
       <c r="L75" s="8">
@@ -5514,7 +5527,7 @@
         <v>159.41688400000001</v>
       </c>
       <c r="N75" s="3">
-        <f>M75/E75*100000</f>
+        <f t="shared" si="13"/>
         <v>5.5511175345433337</v>
       </c>
       <c r="O75" s="3">
@@ -5522,7 +5535,7 @@
         <v>196.68302700000001</v>
       </c>
       <c r="P75" s="3">
-        <f>O75/E75*100000</f>
+        <f t="shared" si="14"/>
         <v>6.8487764440732635</v>
       </c>
       <c r="Q75" s="7">
@@ -5551,23 +5564,23 @@
         <v>473248482</v>
       </c>
       <c r="G76" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>428080459</v>
       </c>
       <c r="H76" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>582374.15999999992</v>
       </c>
       <c r="I76" s="3">
-        <f>H76/E76*100000</f>
+        <f t="shared" si="17"/>
         <v>17094.081498710253</v>
       </c>
       <c r="J76" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="16"/>
         <v>665934</v>
       </c>
       <c r="K76" s="3">
-        <f>J76/E76*100000</f>
+        <f t="shared" si="12"/>
         <v>19546.76366266339</v>
       </c>
       <c r="L76" s="8">
@@ -5579,7 +5592,7 @@
         <v>1228.26145</v>
       </c>
       <c r="N76" s="3">
-        <f>M76/E76*100000</f>
+        <f t="shared" si="13"/>
         <v>36.052426034877698</v>
       </c>
       <c r="O76" s="3">
@@ -5587,7 +5600,7 @@
         <v>1533.0235299999999</v>
       </c>
       <c r="P76" s="3">
-        <f>O76/E76*100000</f>
+        <f t="shared" si="14"/>
         <v>44.997925665624457</v>
       </c>
       <c r="Q76" s="7">
@@ -5621,7 +5634,7 @@
         <v>1259.1130000000001</v>
       </c>
       <c r="I77" s="3">
-        <f>H77/E77*100000</f>
+        <f t="shared" si="17"/>
         <v>8798.2734850544093</v>
       </c>
       <c r="J77" s="3">
@@ -5629,7 +5642,7 @@
         <v>3490.0429999999997</v>
       </c>
       <c r="K77" s="3">
-        <f>J77/E77*100000</f>
+        <f t="shared" si="12"/>
         <v>24387.289138147047</v>
       </c>
       <c r="L77" s="7">
@@ -5639,14 +5652,14 @@
         <v>8.1921619999999997</v>
       </c>
       <c r="N77" s="3">
-        <f>M77/E77*100000</f>
+        <f t="shared" si="13"/>
         <v>57.244172453044563</v>
       </c>
       <c r="O77" s="4">
         <v>22.707249999999998</v>
       </c>
       <c r="P77" s="3">
-        <f>O77/E77*100000</f>
+        <f t="shared" si="14"/>
         <v>158.67090212991346</v>
       </c>
       <c r="Q77" s="7">
@@ -5679,15 +5692,15 @@
         <v>18414.53</v>
       </c>
       <c r="I78" s="3">
-        <f>H78/E78*100000</f>
+        <f t="shared" si="17"/>
         <v>8798.2733061410454</v>
       </c>
       <c r="J78" s="3">
-        <f t="shared" ref="J78:J91" si="9">H3-H78</f>
+        <f t="shared" ref="J78:J91" si="19">H3-H78</f>
         <v>51041.869999999995</v>
       </c>
       <c r="K78" s="3">
-        <f>J78/E78*100000</f>
+        <f t="shared" si="12"/>
         <v>24387.281256514361</v>
       </c>
       <c r="L78" s="7">
@@ -5697,14 +5710,14 @@
         <v>2.4995479999999999</v>
       </c>
       <c r="N78" s="3">
-        <f>M78/E78*100000</f>
+        <f t="shared" si="13"/>
         <v>1.1942583625983523</v>
       </c>
       <c r="O78" s="4">
         <v>6.9283130000000002</v>
       </c>
       <c r="P78" s="3">
-        <f>O78/E78*100000</f>
+        <f t="shared" si="14"/>
         <v>3.3102767936238386</v>
       </c>
       <c r="Q78" s="7">
@@ -5737,15 +5750,15 @@
         <v>19673.64</v>
       </c>
       <c r="I79" s="3">
-        <f>H79/E79*100000</f>
+        <f t="shared" si="17"/>
         <v>8798.2719759579268</v>
       </c>
       <c r="J79" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>54531.92</v>
       </c>
       <c r="K79" s="3">
-        <f>J79/E79*100000</f>
+        <f t="shared" si="12"/>
         <v>24387.284891417123</v>
       </c>
       <c r="L79" s="8">
@@ -5756,14 +5769,14 @@
         <v>10.69171</v>
       </c>
       <c r="N79" s="3">
-        <f>M79/E79*100000</f>
+        <f t="shared" si="13"/>
         <v>4.7814523630639334</v>
       </c>
       <c r="O79" s="4">
         <v>29.635570000000001</v>
       </c>
       <c r="P79" s="3">
-        <f>O79/E79*100000</f>
+        <f t="shared" si="14"/>
         <v>13.253358556044507</v>
       </c>
       <c r="Q79" s="7">
@@ -5797,15 +5810,15 @@
         <v>8556.1679999999997</v>
       </c>
       <c r="I80" s="3">
-        <f>H80/E80*100000</f>
+        <f t="shared" si="17"/>
         <v>20900.154622932558</v>
       </c>
       <c r="J80" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>18310.271999999997</v>
       </c>
       <c r="K80" s="3">
-        <f>J80/E80*100000</f>
+        <f t="shared" si="12"/>
         <v>44726.5079399975</v>
       </c>
       <c r="L80" s="7">
@@ -5815,14 +5828,14 @@
         <v>55.775700000000001</v>
       </c>
       <c r="N80" s="3">
-        <f>M80/E80*100000</f>
+        <f t="shared" si="13"/>
         <v>136.24332226790071</v>
       </c>
       <c r="O80" s="4">
         <v>119.3605</v>
       </c>
       <c r="P80" s="3">
-        <f>O80/E80*100000</f>
+        <f t="shared" si="14"/>
         <v>291.56193588888641</v>
       </c>
       <c r="Q80" s="7">
@@ -5855,15 +5868,15 @@
         <v>125134</v>
       </c>
       <c r="I81" s="3">
-        <f>H81/E81*100000</f>
+        <f t="shared" si="17"/>
         <v>20900.159623144405</v>
       </c>
       <c r="J81" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>267787.59999999998</v>
       </c>
       <c r="K81" s="3">
-        <f>J81/E81*100000</f>
+        <f t="shared" ref="K81:K112" si="20">J81/E81*100000</f>
         <v>44726.481892201511</v>
       </c>
       <c r="L81" s="7">
@@ -5873,14 +5886,14 @@
         <v>16.998799999999999</v>
       </c>
       <c r="N81" s="3">
-        <f>M81/E81*100000</f>
+        <f t="shared" ref="N81:N112" si="21">M81/E81*100000</f>
         <v>2.8391774689685225</v>
       </c>
       <c r="O81" s="4">
         <v>36.377580000000002</v>
       </c>
       <c r="P81" s="3">
-        <f>O81/E81*100000</f>
+        <f t="shared" ref="P81:P112" si="22">O81/E81*100000</f>
         <v>6.0758645028825544</v>
       </c>
       <c r="Q81" s="7">
@@ -5913,15 +5926,15 @@
         <v>133690.1</v>
       </c>
       <c r="I82" s="3">
-        <f>H82/E82*100000</f>
+        <f t="shared" si="17"/>
         <v>20900.148672499967</v>
       </c>
       <c r="J82" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>286098</v>
       </c>
       <c r="K82" s="3">
-        <f>J82/E82*100000</f>
+        <f t="shared" si="20"/>
         <v>44726.503569859662</v>
       </c>
       <c r="L82" s="8">
@@ -5932,14 +5945,14 @@
         <v>72.774500000000003</v>
       </c>
       <c r="N82" s="3">
-        <f>M82/E82*100000</f>
+        <f t="shared" si="21"/>
         <v>11.377041901882404</v>
       </c>
       <c r="O82" s="4">
         <v>155.738</v>
       </c>
       <c r="P82" s="3">
-        <f>O82/E82*100000</f>
+        <f t="shared" si="22"/>
         <v>24.346958779728638</v>
       </c>
       <c r="Q82" s="7">
@@ -5973,15 +5986,15 @@
         <v>33305.82</v>
       </c>
       <c r="I83" s="3">
-        <f>H83/E83*100000</f>
+        <f t="shared" si="17"/>
         <v>10348.337499183619</v>
       </c>
       <c r="J83" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>65445.74</v>
       </c>
       <c r="K83" s="3">
-        <f>J83/E83*100000</f>
+        <f t="shared" si="20"/>
         <v>20334.422194193729</v>
       </c>
       <c r="L83" s="7">
@@ -5991,14 +6004,14 @@
         <v>430.17250000000001</v>
       </c>
       <c r="N83" s="3">
-        <f>M83/E83*100000</f>
+        <f t="shared" si="21"/>
         <v>133.65742722645967</v>
       </c>
       <c r="O83" s="4">
         <v>845.28639999999996</v>
       </c>
       <c r="P83" s="3">
-        <f>O83/E83*100000</f>
+        <f t="shared" si="22"/>
         <v>262.63604831437641</v>
       </c>
       <c r="Q83" s="7">
@@ -6031,15 +6044,15 @@
         <v>197984.6</v>
       </c>
       <c r="I84" s="3">
-        <f>H84/E84*100000</f>
+        <f t="shared" si="17"/>
         <v>10348.337823659118</v>
       </c>
       <c r="J84" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>389038.6</v>
       </c>
       <c r="K84" s="3">
-        <f>J84/E84*100000</f>
+        <f t="shared" si="20"/>
         <v>20334.424289785115</v>
       </c>
       <c r="L84" s="7">
@@ -6049,14 +6062,14 @@
         <v>59.924810000000001</v>
       </c>
       <c r="N84" s="3">
-        <f>M84/E84*100000</f>
+        <f t="shared" si="21"/>
         <v>3.1321738049251611</v>
       </c>
       <c r="O84" s="4">
         <v>117.75190000000001</v>
       </c>
       <c r="P84" s="3">
-        <f>O84/E84*100000</f>
+        <f t="shared" si="22"/>
         <v>6.1547031464958692</v>
       </c>
       <c r="Q84" s="7">
@@ -6089,15 +6102,15 @@
         <v>231290.4</v>
       </c>
       <c r="I85" s="3">
-        <f>H85/E85*100000</f>
+        <f t="shared" si="17"/>
         <v>10348.336882099677</v>
       </c>
       <c r="J85" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>454484.29999999993</v>
       </c>
       <c r="K85" s="3">
-        <f>J85/E85*100000</f>
+        <f t="shared" si="20"/>
         <v>20334.42219835001</v>
       </c>
       <c r="L85" s="8">
@@ -6108,14 +6121,14 @@
         <v>490.09730000000002</v>
       </c>
       <c r="N85" s="3">
-        <f>M85/E85*100000</f>
+        <f t="shared" si="21"/>
         <v>21.92781008380577</v>
       </c>
       <c r="O85" s="4">
         <v>963.03830000000005</v>
       </c>
       <c r="P85" s="3">
-        <f>O85/E85*100000</f>
+        <f t="shared" si="22"/>
         <v>43.088017309687622</v>
       </c>
       <c r="Q85" s="7">
@@ -6149,15 +6162,15 @@
         <v>9124.9869999999992</v>
       </c>
       <c r="I86" s="3">
-        <f>H86/E86*100000</f>
+        <f t="shared" si="17"/>
         <v>5775.9772176144443</v>
       </c>
       <c r="J86" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>25967.392999999996</v>
       </c>
       <c r="K86" s="3">
-        <f>J86/E86*100000</f>
+        <f t="shared" si="20"/>
         <v>16436.962635545759</v>
       </c>
       <c r="L86" s="7">
@@ -6167,14 +6180,14 @@
         <v>240.18510000000001</v>
       </c>
       <c r="N86" s="3">
-        <f>M86/E86*100000</f>
+        <f t="shared" si="21"/>
         <v>152.03349501872685</v>
       </c>
       <c r="O86" s="4">
         <v>683.50549999999998</v>
       </c>
       <c r="P86" s="3">
-        <f>O86/E86*100000</f>
+        <f t="shared" si="22"/>
         <v>432.6485282789082</v>
       </c>
       <c r="Q86" s="7">
@@ -6207,15 +6220,15 @@
         <v>8697.2530000000006</v>
       </c>
       <c r="I87" s="3">
-        <f>H87/E87*100000</f>
+        <f t="shared" si="17"/>
         <v>5775.977361643234</v>
       </c>
       <c r="J87" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>24750.166999999998</v>
       </c>
       <c r="K87" s="3">
-        <f>J87/E87*100000</f>
+        <f t="shared" si="20"/>
         <v>16436.960530973334</v>
       </c>
       <c r="L87" s="7">
@@ -6225,14 +6238,14 @@
         <v>30.064119999999999</v>
       </c>
       <c r="N87" s="3">
-        <f>M87/E87*100000</f>
+        <f t="shared" si="21"/>
         <v>19.966037151928955</v>
       </c>
       <c r="O87" s="4">
         <v>85.554820000000007</v>
       </c>
       <c r="P87" s="3">
-        <f>O87/E87*100000</f>
+        <f t="shared" si="22"/>
         <v>56.818250946530107</v>
       </c>
       <c r="Q87" s="7">
@@ -6265,15 +6278,15 @@
         <v>17822.240000000002</v>
       </c>
       <c r="I88" s="3">
-        <f>H88/E88*100000</f>
+        <f t="shared" si="17"/>
         <v>5775.9772879004922</v>
       </c>
       <c r="J88" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>50717.56</v>
       </c>
       <c r="K88" s="3">
-        <f>J88/E88*100000</f>
+        <f t="shared" si="20"/>
         <v>16436.961608514444</v>
       </c>
       <c r="L88" s="8">
@@ -6284,14 +6297,14 @@
         <v>270.24919999999997</v>
       </c>
       <c r="N88" s="3">
-        <f>M88/E88*100000</f>
+        <f t="shared" si="21"/>
         <v>87.58457081002598</v>
       </c>
       <c r="O88" s="4">
         <v>769.06039999999996</v>
       </c>
       <c r="P88" s="3">
-        <f>O88/E88*100000</f>
+        <f t="shared" si="22"/>
         <v>249.24338373984793</v>
       </c>
       <c r="Q88" s="7">
@@ -6320,23 +6333,23 @@
         <v>346993181</v>
       </c>
       <c r="G89" s="8">
-        <f t="shared" ref="G89:H91" si="10">G77+G80+G83+G86</f>
+        <f t="shared" ref="G89:H91" si="23">G77+G80+G83+G86</f>
         <v>155400825</v>
       </c>
       <c r="H89" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>52246.087999999996</v>
       </c>
       <c r="I89" s="3">
-        <f>H89/E89*100000</f>
+        <f t="shared" si="17"/>
         <v>9764.2009070192144</v>
       </c>
       <c r="J89" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>113213.448</v>
       </c>
       <c r="K89" s="3">
-        <f>J89/E89*100000</f>
+        <f t="shared" si="20"/>
         <v>21158.308573234666</v>
       </c>
       <c r="L89" s="8">
@@ -6348,7 +6361,7 @@
         <v>734.32546200000002</v>
       </c>
       <c r="N89" s="3">
-        <f>M89/E89*100000</f>
+        <f t="shared" si="21"/>
         <v>137.23709499757578</v>
       </c>
       <c r="O89" s="3">
@@ -6356,7 +6369,7 @@
         <v>1670.8596499999999</v>
       </c>
       <c r="P89" s="3">
-        <f>O89/E89*100000</f>
+        <f t="shared" si="22"/>
         <v>312.26470602032077</v>
       </c>
       <c r="Q89" s="7">
@@ -6385,23 +6398,23 @@
         <v>259505923</v>
       </c>
       <c r="G90" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>139429013</v>
       </c>
       <c r="H90" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>350230.38300000003</v>
       </c>
       <c r="I90" s="3">
-        <f>H90/E90*100000</f>
+        <f t="shared" si="17"/>
         <v>12195.508853385489</v>
       </c>
       <c r="J90" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>732618.23699999985</v>
       </c>
       <c r="K90" s="3">
-        <f>J90/E90*100000</f>
+        <f t="shared" si="20"/>
         <v>25510.78555479056</v>
       </c>
       <c r="L90" s="8">
@@ -6413,7 +6426,7 @@
         <v>109.487278</v>
       </c>
       <c r="N90" s="3">
-        <f>M90/E90*100000</f>
+        <f t="shared" si="21"/>
         <v>3.8124992376291869</v>
       </c>
       <c r="O90" s="3">
@@ -6421,7 +6434,7 @@
         <v>246.61261300000001</v>
       </c>
       <c r="P90" s="3">
-        <f>O90/E90*100000</f>
+        <f t="shared" si="22"/>
         <v>8.5873940445596038</v>
       </c>
       <c r="Q90" s="7">
@@ -6450,23 +6463,23 @@
         <v>606499104</v>
       </c>
       <c r="G91" s="8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>294829839</v>
       </c>
       <c r="H91" s="3">
-        <f t="shared" si="10"/>
+        <f t="shared" si="23"/>
         <v>402476.38</v>
       </c>
       <c r="I91" s="3">
-        <f>H91/E91*100000</f>
+        <f t="shared" si="17"/>
         <v>11813.649219989222</v>
       </c>
       <c r="J91" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>845831.77999999991</v>
       </c>
       <c r="K91" s="3">
-        <f>J91/E91*100000</f>
+        <f t="shared" si="20"/>
         <v>24827.195941384423</v>
       </c>
       <c r="L91" s="8">
@@ -6478,7 +6491,7 @@
         <v>843.81271000000004</v>
       </c>
       <c r="N91" s="3">
-        <f>M91/E91*100000</f>
+        <f t="shared" si="21"/>
         <v>24.767931383472717</v>
       </c>
       <c r="O91" s="3">
@@ -6486,7 +6499,7 @@
         <v>1917.4722700000002</v>
       </c>
       <c r="P91" s="3">
-        <f>O91/E91*100000</f>
+        <f t="shared" si="22"/>
         <v>56.282420317029448</v>
       </c>
       <c r="Q91" s="7">
@@ -6520,7 +6533,7 @@
         <v>569.37469999999996</v>
       </c>
       <c r="I92" s="3">
-        <f>H92/E92*100000</f>
+        <f t="shared" si="17"/>
         <v>3978.6058328925274</v>
       </c>
       <c r="J92" s="3">
@@ -6528,7 +6541,7 @@
         <v>4179.7812999999996</v>
       </c>
       <c r="K92" s="3">
-        <f>J92/E92*100000</f>
+        <f t="shared" si="20"/>
         <v>29206.95679030893</v>
       </c>
       <c r="L92" s="7">
@@ -6538,14 +6551,14 @@
         <v>3.7045210000000002</v>
       </c>
       <c r="N92" s="3">
-        <f>M92/E92*100000</f>
+        <f t="shared" si="21"/>
         <v>25.885991876128077</v>
       </c>
       <c r="O92" s="4">
         <v>27.194900000000001</v>
       </c>
       <c r="P92" s="3">
-        <f>O92/E92*100000</f>
+        <f t="shared" si="22"/>
         <v>190.0291455959125</v>
       </c>
       <c r="Q92" s="7">
@@ -6578,15 +6591,15 @@
         <v>8327.1049999999996</v>
       </c>
       <c r="I93" s="3">
-        <f>H93/E93*100000</f>
+        <f t="shared" si="17"/>
         <v>3978.6052448220853</v>
       </c>
       <c r="J93" s="3">
-        <f t="shared" ref="J93:J106" si="11">H3-H93</f>
+        <f t="shared" ref="J93:J106" si="24">H3-H93</f>
         <v>61129.294999999998</v>
       </c>
       <c r="K93" s="3">
-        <f>J93/E93*100000</f>
+        <f t="shared" si="20"/>
         <v>29206.949317833325</v>
       </c>
       <c r="L93" s="7">
@@ -6596,14 +6609,14 @@
         <v>1.1303030000000001</v>
       </c>
       <c r="N93" s="3">
-        <f>M93/E93*100000</f>
+        <f t="shared" si="21"/>
         <v>0.54004716453535018</v>
       </c>
       <c r="O93" s="4">
         <v>8.2975580000000004</v>
       </c>
       <c r="P93" s="3">
-        <f>O93/E93*100000</f>
+        <f t="shared" si="22"/>
         <v>3.9644879916868416</v>
       </c>
       <c r="Q93" s="7">
@@ -6636,15 +6649,15 @@
         <v>8896.48</v>
       </c>
       <c r="I94" s="3">
-        <f>H94/E94*100000</f>
+        <f t="shared" si="17"/>
         <v>3978.6054166219456</v>
       </c>
       <c r="J94" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>65309.08</v>
       </c>
       <c r="K94" s="3">
-        <f>J94/E94*100000</f>
+        <f t="shared" si="20"/>
         <v>29206.951450753106</v>
       </c>
       <c r="L94" s="8">
@@ -6655,14 +6668,14 @@
         <v>4.8348240000000002</v>
       </c>
       <c r="N94" s="3">
-        <f>M94/E94*100000</f>
+        <f t="shared" si="21"/>
         <v>2.1621873993774821</v>
       </c>
       <c r="O94" s="4">
         <v>35.492449999999998</v>
       </c>
       <c r="P94" s="3">
-        <f>O94/E94*100000</f>
+        <f t="shared" si="22"/>
         <v>15.872620836463812</v>
       </c>
       <c r="Q94" s="7">
@@ -6696,15 +6709,15 @@
         <v>4026.7420000000002</v>
       </c>
       <c r="I95" s="3">
-        <f>H95/E95*100000</f>
+        <f t="shared" si="17"/>
         <v>9836.1241184905102</v>
       </c>
       <c r="J95" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>22839.697999999997</v>
       </c>
       <c r="K95" s="3">
-        <f>J95/E95*100000</f>
+        <f t="shared" si="20"/>
         <v>55790.538444439553</v>
       </c>
       <c r="L95" s="7">
@@ -6714,14 +6727,14 @@
         <v>26.249410000000001</v>
       </c>
       <c r="N95" s="3">
-        <f>M95/E95*100000</f>
+        <f t="shared" si="21"/>
         <v>64.119443162026755</v>
       </c>
       <c r="O95" s="4">
         <v>148.88669999999999</v>
       </c>
       <c r="P95" s="3">
-        <f>O95/E95*100000</f>
+        <f t="shared" si="22"/>
         <v>363.68559515172831</v>
       </c>
       <c r="Q95" s="7">
@@ -6754,15 +6767,15 @@
         <v>58891.1</v>
       </c>
       <c r="I96" s="3">
-        <f>H96/E96*100000</f>
+        <f t="shared" si="17"/>
         <v>9836.1227994194978</v>
       </c>
       <c r="J96" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>334030.5</v>
       </c>
       <c r="K96" s="3">
-        <f>J96/E96*100000</f>
+        <f t="shared" si="20"/>
         <v>55790.518715926431</v>
       </c>
       <c r="L96" s="7">
@@ -6772,14 +6785,14 @@
         <v>8.0000529999999994</v>
       </c>
       <c r="N96" s="3">
-        <f>M96/E96*100000</f>
+        <f t="shared" si="21"/>
         <v>1.3361866854221496</v>
       </c>
       <c r="O96" s="4">
         <v>45.376330000000003</v>
       </c>
       <c r="P96" s="3">
-        <f>O96/E96*100000</f>
+        <f t="shared" si="22"/>
         <v>7.5788557874956153</v>
       </c>
       <c r="Q96" s="7">
@@ -6812,15 +6825,15 @@
         <v>62917.84</v>
       </c>
       <c r="I97" s="3">
-        <f>H97/E97*100000</f>
+        <f t="shared" si="17"/>
         <v>9836.1225711744191</v>
       </c>
       <c r="J97" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>356870.26</v>
       </c>
       <c r="K97" s="3">
-        <f>J97/E97*100000</f>
+        <f t="shared" si="20"/>
         <v>55790.529671185206</v>
       </c>
       <c r="L97" s="8">
@@ -6831,14 +6844,14 @@
         <v>34.249459999999999</v>
       </c>
       <c r="N97" s="3">
-        <f>M97/E97*100000</f>
+        <f t="shared" si="21"/>
         <v>5.3543142383231119</v>
       </c>
       <c r="O97" s="4">
         <v>194.26310000000001</v>
       </c>
       <c r="P97" s="3">
-        <f>O97/E97*100000</f>
+        <f t="shared" si="22"/>
         <v>30.369695823256382</v>
       </c>
       <c r="Q97" s="7">
@@ -6872,15 +6885,15 @@
         <v>16488.5</v>
       </c>
       <c r="I98" s="3">
-        <f>H98/E98*100000</f>
+        <f t="shared" ref="I98:I129" si="25">H98/E98*100000</f>
         <v>5123.0854804142064</v>
       </c>
       <c r="J98" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>82263.06</v>
       </c>
       <c r="K98" s="3">
-        <f>J98/E98*100000</f>
+        <f t="shared" si="20"/>
         <v>25559.674212963142</v>
       </c>
       <c r="L98" s="7">
@@ -6890,14 +6903,14 @@
         <v>212.96279999999999</v>
       </c>
       <c r="N98" s="3">
-        <f>M98/E98*100000</f>
+        <f t="shared" si="21"/>
         <v>66.168943721281778</v>
       </c>
       <c r="O98" s="4">
         <v>1062.4960000000001</v>
       </c>
       <c r="P98" s="3">
-        <f>O98/E98*100000</f>
+        <f t="shared" si="22"/>
         <v>330.12450074889614</v>
       </c>
       <c r="Q98" s="7">
@@ -6930,15 +6943,15 @@
         <v>98014.98</v>
       </c>
       <c r="I99" s="3">
-        <f>H99/E99*100000</f>
+        <f t="shared" si="25"/>
         <v>5123.0859613282646</v>
       </c>
       <c r="J99" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>489008.22</v>
       </c>
       <c r="K99" s="3">
-        <f>J99/E99*100000</f>
+        <f t="shared" si="20"/>
         <v>25559.676152115961</v>
       </c>
       <c r="L99" s="7">
@@ -6948,14 +6961,14 @@
         <v>29.666599999999999</v>
       </c>
       <c r="N99" s="3">
-        <f>M99/E99*100000</f>
+        <f t="shared" si="21"/>
         <v>1.5506256490624299</v>
       </c>
       <c r="O99" s="4">
         <v>148.01009999999999</v>
       </c>
       <c r="P99" s="3">
-        <f>O99/E99*100000</f>
+        <f t="shared" si="22"/>
         <v>7.7362507796746218</v>
       </c>
       <c r="Q99" s="7">
@@ -6988,15 +7001,15 @@
         <v>114503.5</v>
       </c>
       <c r="I100" s="3">
-        <f>H100/E100*100000</f>
+        <f t="shared" si="25"/>
         <v>5123.0867869116073</v>
       </c>
       <c r="J100" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>571271.19999999995</v>
       </c>
       <c r="K100" s="3">
-        <f>J100/E100*100000</f>
+        <f t="shared" si="20"/>
         <v>25559.672293538082</v>
       </c>
       <c r="L100" s="8">
@@ -7007,14 +7020,14 @@
         <v>242.6294</v>
       </c>
       <c r="N100" s="3">
-        <f>M100/E100*100000</f>
+        <f t="shared" si="21"/>
         <v>10.855663567107477</v>
       </c>
       <c r="O100" s="4">
         <v>1210.5060000000001</v>
       </c>
       <c r="P100" s="3">
-        <f>O100/E100*100000</f>
+        <f t="shared" si="22"/>
         <v>54.160154878036238</v>
       </c>
       <c r="Q100" s="7">
@@ -7048,15 +7061,15 @@
         <v>4214.2520000000004</v>
       </c>
       <c r="I101" s="3">
-        <f>H101/E101*100000</f>
+        <f t="shared" si="25"/>
         <v>2667.5570651537491</v>
       </c>
       <c r="J101" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>30878.127999999997</v>
       </c>
       <c r="K101" s="3">
-        <f>J101/E101*100000</f>
+        <f t="shared" si="20"/>
         <v>19545.382788006453</v>
       </c>
       <c r="L101" s="7">
@@ -7066,14 +7079,14 @@
         <v>110.92619999999999</v>
       </c>
       <c r="N101" s="3">
-        <f>M101/E101*100000</f>
+        <f t="shared" si="21"/>
         <v>70.21458814533581</v>
       </c>
       <c r="O101" s="4">
         <v>812.76440000000002</v>
       </c>
       <c r="P101" s="3">
-        <f>O101/E101*100000</f>
+        <f t="shared" si="22"/>
         <v>514.46743515229923</v>
       </c>
       <c r="Q101" s="7">
@@ -7106,15 +7119,15 @@
         <v>4016.7080000000001</v>
       </c>
       <c r="I102" s="3">
-        <f>H102/E102*100000</f>
+        <f t="shared" si="25"/>
         <v>2667.5565809493264</v>
       </c>
       <c r="J102" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>29430.712</v>
       </c>
       <c r="K102" s="3">
-        <f>J102/E102*100000</f>
+        <f t="shared" si="20"/>
         <v>19545.381311667243</v>
       </c>
       <c r="L102" s="7">
@@ -7124,14 +7137,14 @@
         <v>13.8847</v>
       </c>
       <c r="N102" s="3">
-        <f>M102/E102*100000</f>
+        <f t="shared" si="21"/>
         <v>9.2210394331644494</v>
       </c>
       <c r="O102" s="4">
         <v>101.7342</v>
       </c>
       <c r="P102" s="3">
-        <f>O102/E102*100000</f>
+        <f t="shared" si="22"/>
         <v>67.56322210068916</v>
       </c>
       <c r="Q102" s="7">
@@ -7164,15 +7177,15 @@
         <v>8230.9599999999991</v>
       </c>
       <c r="I103" s="3">
-        <f>H103/E103*100000</f>
+        <f t="shared" si="25"/>
         <v>2667.5568288619966</v>
       </c>
       <c r="J103" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>60308.840000000004</v>
       </c>
       <c r="K103" s="3">
-        <f>J103/E103*100000</f>
+        <f t="shared" si="20"/>
         <v>19545.382067552942</v>
       </c>
       <c r="L103" s="8">
@@ -7183,14 +7196,14 @@
         <v>124.8109</v>
       </c>
       <c r="N103" s="3">
-        <f>M103/E103*100000</f>
+        <f t="shared" si="21"/>
         <v>40.449737164487715</v>
       </c>
       <c r="O103" s="4">
         <v>914.49860000000001</v>
       </c>
       <c r="P103" s="3">
-        <f>O103/E103*100000</f>
+        <f t="shared" si="22"/>
         <v>296.37818497656843</v>
       </c>
       <c r="Q103" s="7">
@@ -7219,23 +7232,23 @@
         <v>427766259</v>
       </c>
       <c r="G104" s="8">
-        <f t="shared" ref="G104:H106" si="12">G92+G95+G98+G101</f>
+        <f t="shared" ref="G104:H106" si="26">G92+G95+G98+G101</f>
         <v>74627746.200000003</v>
       </c>
       <c r="H104" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>25298.868699999999</v>
       </c>
       <c r="I104" s="3">
-        <f>H104/E104*100000</f>
+        <f t="shared" si="25"/>
         <v>4728.0714434944875</v>
       </c>
       <c r="J104" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>140160.6673</v>
       </c>
       <c r="K104" s="3">
-        <f>J104/E104*100000</f>
+        <f t="shared" si="20"/>
         <v>26194.438036759395</v>
       </c>
       <c r="L104" s="8">
@@ -7247,7 +7260,7 @@
         <v>353.84293100000002</v>
       </c>
       <c r="N104" s="3">
-        <f>M104/E104*100000</f>
+        <f t="shared" si="21"/>
         <v>66.129228045026792</v>
       </c>
       <c r="O104" s="3">
@@ -7255,7 +7268,7 @@
         <v>2051.3420000000001</v>
       </c>
       <c r="P104" s="3">
-        <f>O104/E104*100000</f>
+        <f t="shared" si="22"/>
         <v>383.37253914602394</v>
       </c>
       <c r="Q104" s="7">
@@ -7284,23 +7297,23 @@
         <v>331376169</v>
       </c>
       <c r="G105" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>67558766</v>
       </c>
       <c r="H105" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>169249.89300000001</v>
       </c>
       <c r="I105" s="3">
-        <f>H105/E105*100000</f>
+        <f t="shared" si="25"/>
         <v>5893.5165785318131</v>
       </c>
       <c r="J105" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>913598.72699999984</v>
       </c>
       <c r="K105" s="3">
-        <f>J105/E105*100000</f>
+        <f t="shared" si="20"/>
         <v>31812.777829644234</v>
       </c>
       <c r="L105" s="8">
@@ -7312,7 +7325,7 @@
         <v>52.681655999999997</v>
       </c>
       <c r="N105" s="3">
-        <f>M105/E105*100000</f>
+        <f t="shared" si="21"/>
         <v>1.8344485040265872</v>
       </c>
       <c r="O105" s="3">
@@ -7320,7 +7333,7 @@
         <v>303.41818799999999</v>
       </c>
       <c r="P105" s="3">
-        <f>O105/E105*100000</f>
+        <f t="shared" si="22"/>
         <v>10.565443141556859</v>
       </c>
       <c r="Q105" s="7">
@@ -7349,23 +7362,23 @@
         <v>759142429</v>
       </c>
       <c r="G106" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>142186513</v>
       </c>
       <c r="H106" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>194548.78</v>
       </c>
       <c r="I106" s="3">
-        <f>H106/E106*100000</f>
+        <f t="shared" si="25"/>
         <v>5710.4743465861393</v>
       </c>
       <c r="J106" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1053759.3799999999</v>
       </c>
       <c r="K106" s="3">
-        <f>J106/E106*100000</f>
+        <f t="shared" si="20"/>
         <v>30930.370814787504</v>
       </c>
       <c r="L106" s="8">
@@ -7377,7 +7390,7 @@
         <v>406.524584</v>
       </c>
       <c r="N106" s="3">
-        <f>M106/E106*100000</f>
+        <f t="shared" si="21"/>
         <v>11.932473738404333</v>
       </c>
       <c r="O106" s="3">
@@ -7385,7 +7398,7 @@
         <v>2354.7601500000001</v>
       </c>
       <c r="P106" s="3">
-        <f>O106/E106*100000</f>
+        <f t="shared" si="22"/>
         <v>69.117870741406506</v>
       </c>
       <c r="Q106" s="7">
@@ -7419,7 +7432,7 @@
         <v>3652.7280000000001</v>
       </c>
       <c r="I107" s="3">
-        <f>H107/E107*100000</f>
+        <f t="shared" si="25"/>
         <v>25524.079181547506</v>
       </c>
       <c r="J107" s="3">
@@ -7427,7 +7440,7 @@
         <v>1096.4279999999999</v>
       </c>
       <c r="K107" s="3">
-        <f>J107/E107*100000</f>
+        <f t="shared" si="20"/>
         <v>7661.4834416539543</v>
       </c>
       <c r="L107" s="7">
@@ -7437,14 +7450,14 @@
         <v>23.765730000000001</v>
       </c>
       <c r="N107" s="3">
-        <f>M107/E107*100000</f>
+        <f t="shared" si="21"/>
         <v>166.06721724893805</v>
       </c>
       <c r="O107" s="2">
         <v>7.1336830000000004</v>
       </c>
       <c r="P107" s="3">
-        <f>O107/E107*100000</f>
+        <f t="shared" si="22"/>
         <v>49.84786432169583</v>
       </c>
       <c r="Q107" s="9">
@@ -7477,15 +7490,15 @@
         <v>53421.15</v>
       </c>
       <c r="I108" s="3">
-        <f>H108/E108*100000</f>
+        <f t="shared" si="25"/>
         <v>25524.076803934542</v>
       </c>
       <c r="J108" s="3">
-        <f t="shared" ref="J108:J121" si="13">H3-H108</f>
+        <f t="shared" ref="J108:J121" si="27">H3-H108</f>
         <v>16035.249999999993</v>
       </c>
       <c r="K108" s="3">
-        <f>J108/E108*100000</f>
+        <f t="shared" si="20"/>
         <v>7661.4777587208655</v>
       </c>
       <c r="L108" s="7">
@@ -7495,14 +7508,14 @@
         <v>7.251271</v>
       </c>
       <c r="N108" s="3">
-        <f>M108/E108*100000</f>
+        <f t="shared" si="21"/>
         <v>3.464582809058645</v>
       </c>
       <c r="O108" s="2">
         <v>2.17659</v>
       </c>
       <c r="P108" s="3">
-        <f>O108/E108*100000</f>
+        <f t="shared" si="22"/>
         <v>1.0399523471635463</v>
       </c>
       <c r="Q108" s="9">
@@ -7535,15 +7548,15 @@
         <v>57073.88</v>
       </c>
       <c r="I109" s="3">
-        <f>H109/E109*100000</f>
+        <f t="shared" si="25"/>
         <v>25524.077850524129</v>
       </c>
       <c r="J109" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>17131.68</v>
       </c>
       <c r="K109" s="3">
-        <f>J109/E109*100000</f>
+        <f t="shared" si="20"/>
         <v>7661.479016850918</v>
       </c>
       <c r="L109" s="8">
@@ -7554,14 +7567,14 @@
         <v>31.016999999999999</v>
       </c>
       <c r="N109" s="3">
-        <f>M109/E109*100000</f>
+        <f t="shared" si="21"/>
         <v>13.871149511645379</v>
       </c>
       <c r="O109" s="2">
         <v>9.3102730000000005</v>
       </c>
       <c r="P109" s="3">
-        <f>O109/E109*100000</f>
+        <f t="shared" si="22"/>
         <v>4.1636582769847239</v>
       </c>
       <c r="Q109" s="7">
@@ -7595,15 +7608,15 @@
         <v>22008.59</v>
       </c>
       <c r="I110" s="3">
-        <f>H110/E110*100000</f>
+        <f t="shared" si="25"/>
         <v>53760.390636640986</v>
       </c>
       <c r="J110" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>4857.8499999999985</v>
       </c>
       <c r="K110" s="3">
-        <f>J110/E110*100000</f>
+        <f t="shared" si="20"/>
         <v>11866.27192628907</v>
       </c>
       <c r="L110" s="7">
@@ -7613,14 +7626,14 @@
         <v>143.46899999999999</v>
       </c>
       <c r="N110" s="3">
-        <f>M110/E110*100000</f>
+        <f t="shared" si="21"/>
         <v>350.45177743091426</v>
       </c>
       <c r="O110" s="2">
         <v>31.667179999999998</v>
       </c>
       <c r="P110" s="3">
-        <f>O110/E110*100000</f>
+        <f t="shared" si="22"/>
         <v>77.353431871865709</v>
       </c>
       <c r="Q110" s="9">
@@ -7653,15 +7666,15 @@
         <v>321875.59999999998</v>
       </c>
       <c r="I111" s="3">
-        <f>H111/E111*100000</f>
+        <f t="shared" si="25"/>
         <v>53760.380222764223</v>
       </c>
       <c r="J111" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>71046</v>
       </c>
       <c r="K111" s="3">
-        <f>J111/E111*100000</f>
+        <f t="shared" si="20"/>
         <v>11866.261292581692</v>
       </c>
       <c r="L111" s="7">
@@ -7671,14 +7684,14 @@
         <v>43.725149999999999</v>
       </c>
       <c r="N111" s="3">
-        <f>M111/E111*100000</f>
+        <f t="shared" si="21"/>
         <v>7.3030720231586352</v>
       </c>
       <c r="O111" s="2">
         <v>9.6512329999999995</v>
       </c>
       <c r="P111" s="3">
-        <f>O111/E111*100000</f>
+        <f t="shared" si="22"/>
         <v>1.611970449759129</v>
       </c>
       <c r="Q111" s="9">
@@ -7711,15 +7724,15 @@
         <v>343884.2</v>
       </c>
       <c r="I112" s="3">
-        <f>H112/E112*100000</f>
+        <f t="shared" si="25"/>
         <v>53760.382452580357</v>
       </c>
       <c r="J112" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>75903.899999999965</v>
       </c>
       <c r="K112" s="3">
-        <f>J112/E112*100000</f>
+        <f t="shared" si="20"/>
         <v>11866.269789779268</v>
       </c>
       <c r="L112" s="8">
@@ -7730,14 +7743,14 @@
         <v>187.19409999999999</v>
       </c>
       <c r="N112" s="3">
-        <f>M112/E112*100000</f>
+        <f t="shared" si="21"/>
         <v>29.264579206798597</v>
       </c>
       <c r="O112" s="2">
         <v>41.318420000000003</v>
       </c>
       <c r="P112" s="3">
-        <f>O112/E112*100000</f>
+        <f t="shared" si="22"/>
         <v>6.4594246014685899</v>
       </c>
       <c r="Q112" s="7">
@@ -7771,15 +7784,15 @@
         <v>76201.13</v>
       </c>
       <c r="I113" s="3">
-        <f>H113/E113*100000</f>
+        <f t="shared" si="25"/>
         <v>23676.192661197529</v>
       </c>
       <c r="J113" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>22550.429999999993</v>
       </c>
       <c r="K113" s="3">
-        <f>J113/E113*100000</f>
+        <f t="shared" ref="K113:K144" si="28">J113/E113*100000</f>
         <v>7006.567032179817</v>
       </c>
       <c r="L113" s="7">
@@ -7789,14 +7802,14 @@
         <v>984.20119999999997</v>
       </c>
       <c r="N113" s="3">
-        <f>M113/E113*100000</f>
+        <f t="shared" ref="N113:N144" si="29">M113/E113*100000</f>
         <v>305.79779103776809</v>
       </c>
       <c r="O113" s="2">
         <v>291.2577</v>
       </c>
       <c r="P113" s="3">
-        <f>O113/E113*100000</f>
+        <f t="shared" ref="P113:P144" si="30">O113/E113*100000</f>
         <v>90.49568450306802</v>
       </c>
       <c r="Q113" s="9">
@@ -7829,15 +7842,15 @@
         <v>452973.4</v>
       </c>
       <c r="I114" s="3">
-        <f>H114/E114*100000</f>
+        <f t="shared" si="25"/>
         <v>23676.193847054121</v>
       </c>
       <c r="J114" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>134049.79999999993</v>
       </c>
       <c r="K114" s="3">
-        <f>J114/E114*100000</f>
+        <f t="shared" si="28"/>
         <v>7006.5682663901089</v>
       </c>
       <c r="L114" s="7">
@@ -7847,14 +7860,14 @@
         <v>137.10329999999999</v>
       </c>
       <c r="N114" s="3">
-        <f>M114/E114*100000</f>
+        <f t="shared" si="29"/>
         <v>7.1661698189580552</v>
       </c>
       <c r="O114" s="2">
         <v>40.573410000000003</v>
       </c>
       <c r="P114" s="3">
-        <f>O114/E114*100000</f>
+        <f t="shared" si="30"/>
         <v>2.1207071324629747</v>
       </c>
       <c r="Q114" s="9">
@@ -7887,15 +7900,15 @@
         <v>529174.5</v>
       </c>
       <c r="I115" s="3">
-        <f>H115/E115*100000</f>
+        <f t="shared" si="25"/>
         <v>23676.192334038315</v>
       </c>
       <c r="J115" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>156600.19999999995</v>
       </c>
       <c r="K115" s="3">
-        <f>J115/E115*100000</f>
+        <f t="shared" si="28"/>
         <v>7006.5667464113749</v>
       </c>
       <c r="L115" s="8">
@@ -7906,14 +7919,14 @@
         <v>1121.3050000000001</v>
       </c>
       <c r="N115" s="3">
-        <f>M115/E115*100000</f>
+        <f t="shared" si="29"/>
         <v>50.169146179792932</v>
       </c>
       <c r="O115" s="2">
         <v>331.83109999999999</v>
       </c>
       <c r="P115" s="3">
-        <f>O115/E115*100000</f>
+        <f t="shared" si="30"/>
         <v>14.846703584574657</v>
       </c>
       <c r="Q115" s="7">
@@ -7947,15 +7960,15 @@
         <v>26602.17</v>
       </c>
       <c r="I116" s="3">
-        <f>H116/E116*100000</f>
+        <f t="shared" si="25"/>
         <v>16838.766768556103</v>
       </c>
       <c r="J116" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>8490.2099999999991</v>
       </c>
       <c r="K116" s="3">
-        <f>J116/E116*100000</f>
+        <f t="shared" si="28"/>
         <v>5374.1730846041019</v>
       </c>
       <c r="L116" s="7">
@@ -7965,14 +7978,14 @@
         <v>700.21400000000006</v>
       </c>
       <c r="N116" s="3">
-        <f>M116/E116*100000</f>
+        <f t="shared" si="29"/>
         <v>443.22475324673684</v>
       </c>
       <c r="O116" s="2">
         <v>223.47659999999999</v>
       </c>
       <c r="P116" s="3">
-        <f>O116/E116*100000</f>
+        <f t="shared" si="30"/>
         <v>141.45727005089827</v>
       </c>
       <c r="Q116" s="9">
@@ -8005,15 +8018,15 @@
         <v>25355.19</v>
       </c>
       <c r="I117" s="3">
-        <f>H117/E117*100000</f>
+        <f t="shared" si="25"/>
         <v>16838.765463090804</v>
       </c>
       <c r="J117" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>8092.23</v>
       </c>
       <c r="K117" s="3">
-        <f>J117/E117*100000</f>
+        <f t="shared" si="28"/>
         <v>5374.1724295257618</v>
       </c>
       <c r="L117" s="7">
@@ -8023,14 +8036,14 @@
         <v>87.646230000000003</v>
       </c>
       <c r="N117" s="3">
-        <f>M117/E117*100000</f>
+        <f t="shared" si="29"/>
         <v>58.207187983766374</v>
       </c>
       <c r="O117" s="2">
         <v>27.972709999999999</v>
       </c>
       <c r="P117" s="3">
-        <f>O117/E117*100000</f>
+        <f t="shared" si="30"/>
         <v>18.577100114692684</v>
       </c>
       <c r="Q117" s="9">
@@ -8063,15 +8076,15 @@
         <v>51957.36</v>
       </c>
       <c r="I118" s="3">
-        <f>H118/E118*100000</f>
+        <f t="shared" si="25"/>
         <v>16838.766131489054</v>
       </c>
       <c r="J118" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>16582.440000000002</v>
       </c>
       <c r="K118" s="3">
-        <f>J118/E118*100000</f>
+        <f t="shared" si="28"/>
         <v>5374.1727649258819</v>
       </c>
       <c r="L118" s="8">
@@ -8082,14 +8095,14 @@
         <v>787.86019999999996</v>
       </c>
       <c r="N118" s="3">
-        <f>M118/E118*100000</f>
+        <f t="shared" si="29"/>
         <v>255.33617666694755</v>
       </c>
       <c r="O118" s="2">
         <v>251.44929999999999</v>
       </c>
       <c r="P118" s="3">
-        <f>O118/E118*100000</f>
+        <f t="shared" si="30"/>
         <v>81.491745474108583</v>
       </c>
       <c r="Q118" s="7">
@@ -8118,23 +8131,23 @@
         <v>104220949</v>
       </c>
       <c r="G119" s="8">
-        <f t="shared" ref="G119:H121" si="14">G107+G110+G113+G116</f>
+        <f t="shared" ref="G119:H121" si="31">G107+G110+G113+G116</f>
         <v>394147954</v>
       </c>
       <c r="H119" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>128464.618</v>
       </c>
       <c r="I119" s="3">
-        <f>H119/E119*100000</f>
+        <f t="shared" si="25"/>
         <v>24008.579160902478</v>
       </c>
       <c r="J119" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>36994.917999999991</v>
       </c>
       <c r="K119" s="3">
-        <f>J119/E119*100000</f>
+        <f t="shared" si="28"/>
         <v>6913.9303193514006</v>
       </c>
       <c r="L119" s="8">
@@ -8146,7 +8159,7 @@
         <v>1851.64993</v>
       </c>
       <c r="N119" s="3">
-        <f>M119/E119*100000</f>
+        <f t="shared" si="29"/>
         <v>346.05235756575814</v>
       </c>
       <c r="O119" s="3">
@@ -8154,7 +8167,7 @@
         <v>553.53516300000001</v>
       </c>
       <c r="P119" s="3">
-        <f>O119/E119*100000</f>
+        <f t="shared" si="30"/>
         <v>103.44943990125402</v>
       </c>
       <c r="Q119" s="7">
@@ -8183,23 +8196,23 @@
         <v>35450345.899999999</v>
       </c>
       <c r="G120" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>338529416</v>
       </c>
       <c r="H120" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>853625.34</v>
       </c>
       <c r="I120" s="3">
-        <f>H120/E120*100000</f>
+        <f t="shared" si="25"/>
         <v>29724.421114670102</v>
       </c>
       <c r="J120" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>229223.27999999991</v>
       </c>
       <c r="K120" s="3">
-        <f>J120/E120*100000</f>
+        <f t="shared" si="28"/>
         <v>7981.8732935059479</v>
       </c>
       <c r="L120" s="8">
@@ -8211,7 +8224,7 @@
         <v>275.72595100000001</v>
       </c>
       <c r="N120" s="3">
-        <f>M120/E120*100000</f>
+        <f t="shared" si="29"/>
         <v>9.60116094933041</v>
       </c>
       <c r="O120" s="3">
@@ -8219,7 +8232,7 @@
         <v>80.373942999999997</v>
       </c>
       <c r="P120" s="3">
-        <f>O120/E120*100000</f>
+        <f t="shared" si="30"/>
         <v>2.7987324373225508</v>
       </c>
       <c r="Q120" s="7">
@@ -8248,23 +8261,23 @@
         <v>139671296</v>
       </c>
       <c r="G121" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>732677369</v>
       </c>
       <c r="H121" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>982089.94000000006</v>
       </c>
       <c r="I121" s="3">
-        <f>H121/E121*100000</f>
+        <f t="shared" si="25"/>
         <v>28826.700472808519</v>
       </c>
       <c r="J121" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>266218.21999999986</v>
       </c>
       <c r="K121" s="3">
-        <f>J121/E121*100000</f>
+        <f t="shared" si="28"/>
         <v>7814.1446885651212</v>
       </c>
       <c r="L121" s="8">
@@ -8276,7 +8289,7 @@
         <v>2127.3762999999999</v>
       </c>
       <c r="N121" s="3">
-        <f>M121/E121*100000</f>
+        <f t="shared" si="29"/>
         <v>62.443608161846811</v>
       </c>
       <c r="O121" s="3">
@@ -8284,7 +8297,7 @@
         <v>633.90909299999998</v>
       </c>
       <c r="P121" s="3">
-        <f>O121/E121*100000</f>
+        <f t="shared" si="30"/>
         <v>18.606755661198118</v>
       </c>
       <c r="Q121" s="7">
@@ -8318,7 +8331,7 @@
         <v>2549.42</v>
       </c>
       <c r="I122" s="3">
-        <f>H122/E122*100000</f>
+        <f t="shared" si="25"/>
         <v>17814.520530140991</v>
       </c>
       <c r="J122" s="3">
@@ -8326,7 +8339,7 @@
         <v>2199.7359999999999</v>
       </c>
       <c r="K122" s="3">
-        <f>J122/E122*100000</f>
+        <f t="shared" si="28"/>
         <v>15371.042093060469</v>
       </c>
       <c r="L122" s="7">
@@ -8336,14 +8349,14 @@
         <v>16.58728</v>
       </c>
       <c r="N122" s="3">
-        <f>M122/E122*100000</f>
+        <f t="shared" si="29"/>
         <v>115.90653564308629</v>
       </c>
       <c r="O122" s="4">
         <v>14.312139999999999</v>
       </c>
       <c r="P122" s="3">
-        <f>O122/E122*100000</f>
+        <f t="shared" si="30"/>
         <v>100.00859484127842</v>
       </c>
       <c r="Q122" s="7">
@@ -8376,15 +8389,15 @@
         <v>37285.26</v>
       </c>
       <c r="I123" s="3">
-        <f>H123/E123*100000</f>
+        <f t="shared" si="25"/>
         <v>17814.514286844602</v>
       </c>
       <c r="J123" s="3">
-        <f t="shared" ref="J123:J136" si="15">H3-H123</f>
+        <f t="shared" ref="J123:J136" si="32">H3-H123</f>
         <v>32171.139999999992</v>
       </c>
       <c r="K123" s="3">
-        <f>J123/E123*100000</f>
+        <f t="shared" si="28"/>
         <v>15371.040275810807</v>
       </c>
       <c r="L123" s="7">
@@ -8394,14 +8407,14 @@
         <v>5.0610200000000001</v>
       </c>
       <c r="N123" s="3">
-        <f>M123/E123*100000</f>
+        <f t="shared" si="29"/>
         <v>2.4181033764014588</v>
       </c>
       <c r="O123" s="4">
         <v>4.366841</v>
       </c>
       <c r="P123" s="3">
-        <f>O123/E123*100000</f>
+        <f t="shared" si="30"/>
         <v>2.0864317798207326</v>
       </c>
       <c r="Q123" s="7">
@@ -8434,15 +8447,15 @@
         <v>39834.68</v>
       </c>
       <c r="I124" s="3">
-        <f>H124/E124*100000</f>
+        <f t="shared" si="25"/>
         <v>17814.514686415514</v>
       </c>
       <c r="J124" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>34370.879999999997</v>
       </c>
       <c r="K124" s="3">
-        <f>J124/E124*100000</f>
+        <f t="shared" si="28"/>
         <v>15371.042180959535</v>
       </c>
       <c r="L124" s="8">
@@ -8453,14 +8466,14 @@
         <v>21.648299999999999</v>
       </c>
       <c r="N124" s="3">
-        <f>M124/E124*100000</f>
+        <f t="shared" si="29"/>
         <v>9.6813620264033471</v>
       </c>
       <c r="O124" s="4">
         <v>18.678979999999999</v>
       </c>
       <c r="P124" s="3">
-        <f>O124/E124*100000</f>
+        <f t="shared" si="30"/>
         <v>8.3534488927050905</v>
       </c>
       <c r="Q124" s="7">
@@ -8494,15 +8507,15 @@
         <v>16570.05</v>
       </c>
       <c r="I125" s="3">
-        <f>H125/E125*100000</f>
+        <f t="shared" si="25"/>
         <v>40475.667040399814</v>
       </c>
       <c r="J125" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>10296.39</v>
       </c>
       <c r="K125" s="3">
-        <f>J125/E125*100000</f>
+        <f t="shared" si="28"/>
         <v>25150.995522530244</v>
       </c>
       <c r="L125" s="7">
@@ -8512,14 +8525,14 @@
         <v>108.0164</v>
       </c>
       <c r="N125" s="3">
-        <f>M125/E125*100000</f>
+        <f t="shared" si="29"/>
         <v>263.85169877596286</v>
       </c>
       <c r="O125" s="4">
         <v>67.119789999999995</v>
       </c>
       <c r="P125" s="3">
-        <f>O125/E125*100000</f>
+        <f t="shared" si="30"/>
         <v>163.95353495382074</v>
       </c>
       <c r="Q125" s="7">
@@ -8552,15 +8565,15 @@
         <v>242337</v>
       </c>
       <c r="I126" s="3">
-        <f>H126/E126*100000</f>
+        <f t="shared" si="25"/>
         <v>40475.665946856534</v>
       </c>
       <c r="J126" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>150584.59999999998</v>
       </c>
       <c r="K126" s="3">
-        <f>J126/E126*100000</f>
+        <f t="shared" si="28"/>
         <v>25150.975568489386</v>
       </c>
       <c r="L126" s="7">
@@ -8570,14 +8583,14 @@
         <v>32.920229999999997</v>
       </c>
       <c r="N126" s="3">
-        <f>M126/E126*100000</f>
+        <f t="shared" si="29"/>
         <v>5.4984101989117837</v>
       </c>
       <c r="O126" s="4">
         <v>20.456150000000001</v>
       </c>
       <c r="P126" s="3">
-        <f>O126/E126*100000</f>
+        <f t="shared" si="30"/>
         <v>3.4166317729392923</v>
       </c>
       <c r="Q126" s="7">
@@ -8610,15 +8623,15 @@
         <v>258907</v>
       </c>
       <c r="I127" s="3">
-        <f>H127/E127*100000</f>
+        <f t="shared" si="25"/>
         <v>40475.658200202917</v>
       </c>
       <c r="J127" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>160881.09999999998</v>
       </c>
       <c r="K127" s="3">
-        <f>J127/E127*100000</f>
+        <f t="shared" si="28"/>
         <v>25150.994042156701</v>
       </c>
       <c r="L127" s="8">
@@ -8629,14 +8642,14 @@
         <v>140.9366</v>
       </c>
       <c r="N127" s="3">
-        <f>M127/E127*100000</f>
+        <f t="shared" si="29"/>
         <v>22.033014362295027</v>
       </c>
       <c r="O127" s="4">
         <v>87.575940000000003</v>
       </c>
       <c r="P127" s="3">
-        <f>O127/E127*100000</f>
+        <f t="shared" si="30"/>
         <v>13.690992572628314</v>
       </c>
       <c r="Q127" s="7">
@@ -8670,15 +8683,15 @@
         <v>53543.39</v>
       </c>
       <c r="I128" s="3">
-        <f>H128/E128*100000</f>
+        <f t="shared" si="25"/>
         <v>16636.283705683065</v>
       </c>
       <c r="J128" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>45208.17</v>
       </c>
       <c r="K128" s="3">
-        <f>J128/E128*100000</f>
+        <f t="shared" si="28"/>
         <v>14046.475987694279</v>
       </c>
       <c r="L128" s="7">
@@ -8688,14 +8701,14 @@
         <v>691.55769999999995</v>
       </c>
       <c r="N128" s="3">
-        <f>M128/E128*100000</f>
+        <f t="shared" si="29"/>
         <v>214.87152935310331</v>
       </c>
       <c r="O128" s="4">
         <v>583.90120000000002</v>
       </c>
       <c r="P128" s="3">
-        <f>O128/E128*100000</f>
+        <f t="shared" si="30"/>
         <v>181.42194618773277</v>
       </c>
       <c r="Q128" s="7">
@@ -8728,15 +8741,15 @@
         <v>318285.7</v>
       </c>
       <c r="I129" s="3">
-        <f>H129/E129*100000</f>
+        <f t="shared" si="25"/>
         <v>16636.283569731277</v>
       </c>
       <c r="J129" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>268737.49999999994</v>
       </c>
       <c r="K129" s="3">
-        <f>J129/E129*100000</f>
+        <f t="shared" si="28"/>
         <v>14046.478543712954</v>
       </c>
       <c r="L129" s="7">
@@ -8746,14 +8759,14 @@
         <v>96.336860000000001</v>
       </c>
       <c r="N129" s="3">
-        <f>M129/E129*100000</f>
+        <f t="shared" si="29"/>
         <v>5.035373317674976</v>
       </c>
       <c r="O129" s="4">
         <v>81.339870000000005</v>
       </c>
       <c r="P129" s="3">
-        <f>O129/E129*100000</f>
+        <f t="shared" si="30"/>
         <v>4.2515046791140101</v>
       </c>
       <c r="Q129" s="7">
@@ -8786,15 +8799,15 @@
         <v>371829.1</v>
       </c>
       <c r="I130" s="3">
-        <f>H130/E130*100000</f>
+        <f t="shared" ref="I130:I161" si="33">H130/E130*100000</f>
         <v>16636.284036725814</v>
       </c>
       <c r="J130" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>313945.59999999998</v>
       </c>
       <c r="K130" s="3">
-        <f>J130/E130*100000</f>
+        <f t="shared" si="28"/>
         <v>14046.475043723871</v>
       </c>
       <c r="L130" s="8">
@@ -8805,14 +8818,14 @@
         <v>787.89449999999999</v>
       </c>
       <c r="N130" s="3">
-        <f>M130/E130*100000</f>
+        <f t="shared" si="29"/>
         <v>35.251777477809213</v>
       </c>
       <c r="O130" s="4">
         <v>665.24109999999996</v>
       </c>
       <c r="P130" s="3">
-        <f>O130/E130*100000</f>
+        <f t="shared" si="30"/>
         <v>29.764049915684172</v>
       </c>
       <c r="Q130" s="7">
@@ -8846,15 +8859,15 @@
         <v>18383.75</v>
       </c>
       <c r="I131" s="3">
-        <f>H131/E131*100000</f>
+        <f t="shared" si="33"/>
         <v>11636.632597319815</v>
       </c>
       <c r="J131" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>16708.629999999997</v>
       </c>
       <c r="K131" s="3">
-        <f>J131/E131*100000</f>
+        <f t="shared" si="28"/>
         <v>10576.307255840389</v>
       </c>
       <c r="L131" s="7">
@@ -8864,14 +8877,14 @@
         <v>483.8913</v>
       </c>
       <c r="N131" s="3">
-        <f>M131/E131*100000</f>
+        <f t="shared" si="29"/>
         <v>306.29579248735769</v>
       </c>
       <c r="O131" s="4">
         <v>439.79930000000002</v>
       </c>
       <c r="P131" s="3">
-        <f>O131/E131*100000</f>
+        <f t="shared" si="30"/>
         <v>278.38623081027743</v>
       </c>
       <c r="Q131" s="7">
@@ -8904,15 +8917,15 @@
         <v>17522.009999999998</v>
       </c>
       <c r="I132" s="3">
-        <f>H132/E132*100000</f>
+        <f t="shared" si="33"/>
         <v>11636.632059626912</v>
       </c>
       <c r="J132" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>15925.41</v>
       </c>
       <c r="K132" s="3">
-        <f>J132/E132*100000</f>
+        <f t="shared" si="28"/>
         <v>10576.305832989654</v>
       </c>
       <c r="L132" s="7">
@@ -8922,14 +8935,14 @@
         <v>60.568980000000003</v>
       </c>
       <c r="N132" s="3">
-        <f>M132/E132*100000</f>
+        <f t="shared" si="29"/>
         <v>40.224776409036487</v>
       </c>
       <c r="O132" s="4">
         <v>55.049959999999999</v>
       </c>
       <c r="P132" s="3">
-        <f>O132/E132*100000</f>
+        <f t="shared" si="30"/>
         <v>36.559511689422571</v>
       </c>
       <c r="Q132" s="7">
@@ -8962,15 +8975,15 @@
         <v>35905.760000000002</v>
       </c>
       <c r="I133" s="3">
-        <f>H133/E133*100000</f>
+        <f t="shared" si="33"/>
         <v>11636.632334925687</v>
       </c>
       <c r="J133" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>32634.04</v>
       </c>
       <c r="K133" s="3">
-        <f>J133/E133*100000</f>
+        <f t="shared" si="28"/>
         <v>10576.306561489249</v>
       </c>
       <c r="L133" s="8">
@@ -8981,14 +8994,14 @@
         <v>544.46029999999996</v>
       </c>
       <c r="N133" s="3">
-        <f>M133/E133*100000</f>
+        <f t="shared" si="29"/>
         <v>176.45314657211932</v>
       </c>
       <c r="O133" s="4">
         <v>494.84930000000003</v>
       </c>
       <c r="P133" s="3">
-        <f>O133/E133*100000</f>
+        <f t="shared" si="30"/>
         <v>160.37480797775461</v>
       </c>
       <c r="Q133" s="7">
@@ -9017,23 +9030,23 @@
         <v>219744291</v>
       </c>
       <c r="G134" s="8">
-        <f t="shared" ref="G134:H136" si="16">G122+G125+G128+G131</f>
+        <f t="shared" ref="G134:H136" si="34">G122+G125+G128+G131</f>
         <v>278624611</v>
       </c>
       <c r="H134" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>91046.61</v>
       </c>
       <c r="I134" s="3">
-        <f>H134/E134*100000</f>
+        <f t="shared" si="33"/>
         <v>17015.578122194045</v>
       </c>
       <c r="J134" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>74412.925999999992</v>
       </c>
       <c r="K134" s="3">
-        <f>J134/E134*100000</f>
+        <f t="shared" si="28"/>
         <v>13906.931358059835</v>
       </c>
       <c r="L134" s="8">
@@ -9045,7 +9058,7 @@
         <v>1300.05268</v>
       </c>
       <c r="N134" s="3">
-        <f>M134/E134*100000</f>
+        <f t="shared" si="29"/>
         <v>242.96509161085442</v>
       </c>
       <c r="O134" s="3">
@@ -9053,7 +9066,7 @@
         <v>1105.1324300000001</v>
       </c>
       <c r="P134" s="3">
-        <f>O134/E134*100000</f>
+        <f t="shared" si="30"/>
         <v>206.53670903326483</v>
       </c>
       <c r="Q134" s="7">
@@ -9082,23 +9095,23 @@
         <v>131243910</v>
       </c>
       <c r="G135" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>242735851</v>
       </c>
       <c r="H135" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>615429.97</v>
       </c>
       <c r="I135" s="3">
-        <f>H135/E135*100000</f>
+        <f t="shared" si="33"/>
         <v>21430.12717367175</v>
       </c>
       <c r="J135" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>467418.64999999991</v>
       </c>
       <c r="K135" s="3">
-        <f>J135/E135*100000</f>
+        <f t="shared" si="28"/>
         <v>16276.167234504299</v>
       </c>
       <c r="L135" s="8">
@@ -9110,7 +9123,7 @@
         <v>194.88709</v>
       </c>
       <c r="N135" s="3">
-        <f>M135/E135*100000</f>
+        <f t="shared" si="29"/>
         <v>6.7862394208829517</v>
       </c>
       <c r="O135" s="3">
@@ -9118,7 +9131,7 @@
         <v>161.21282100000002</v>
       </c>
       <c r="P135" s="3">
-        <f>O135/E135*100000</f>
+        <f t="shared" si="30"/>
         <v>5.6136545577336445</v>
       </c>
       <c r="Q135" s="7">
@@ -9147,23 +9160,23 @@
         <v>350988203</v>
       </c>
       <c r="G136" s="8">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>521360463</v>
       </c>
       <c r="H136" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="34"/>
         <v>706476.54</v>
       </c>
       <c r="I136" s="3">
-        <f>H136/E136*100000</f>
+        <f t="shared" si="33"/>
         <v>20736.784667243541</v>
       </c>
       <c r="J136" s="3">
-        <f t="shared" si="15"/>
+        <f t="shared" si="32"/>
         <v>541831.61999999988</v>
       </c>
       <c r="K136" s="3">
-        <f>J136/E136*100000</f>
+        <f t="shared" si="28"/>
         <v>15904.060494130104</v>
       </c>
       <c r="L136" s="8">
@@ -9175,7 +9188,7 @@
         <v>1494.9396999999999</v>
       </c>
       <c r="N136" s="3">
-        <f>M136/E136*100000</f>
+        <f t="shared" si="29"/>
         <v>43.880073709756388</v>
       </c>
       <c r="O136" s="3">
@@ -9183,7 +9196,7 @@
         <v>1266.3453199999999</v>
       </c>
       <c r="P136" s="3">
-        <f>O136/E136*100000</f>
+        <f t="shared" si="30"/>
         <v>37.170279164841922</v>
       </c>
       <c r="Q136" s="7">
@@ -9217,7 +9230,7 @@
         <v>1445.396</v>
       </c>
       <c r="I137" s="3">
-        <f>H137/E137*100000</f>
+        <f t="shared" si="33"/>
         <v>10099.958702835807</v>
       </c>
       <c r="J137" s="3">
@@ -9225,7 +9238,7 @@
         <v>3303.76</v>
       </c>
       <c r="K137" s="3">
-        <f>J137/E137*100000</f>
+        <f t="shared" si="28"/>
         <v>23085.603920365651</v>
       </c>
       <c r="L137" s="7">
@@ -9235,14 +9248,14 @@
         <v>9.4041779999999999</v>
       </c>
       <c r="N137" s="3">
-        <f>M137/E137*100000</f>
+        <f t="shared" si="29"/>
         <v>65.713347369244858</v>
       </c>
       <c r="O137" s="4">
         <v>21.495239999999999</v>
       </c>
       <c r="P137" s="3">
-        <f>O137/E137*100000</f>
+        <f t="shared" si="30"/>
         <v>150.20176913976817</v>
       </c>
       <c r="Q137" s="7">
@@ -9275,15 +9288,15 @@
         <v>21138.92</v>
       </c>
       <c r="I138" s="3">
-        <f>H138/E138*100000</f>
+        <f t="shared" si="33"/>
         <v>10099.958867082192</v>
       </c>
       <c r="J138" s="3">
-        <f t="shared" ref="J138:J151" si="17">H3-H138</f>
+        <f t="shared" ref="J138:J151" si="35">H3-H138</f>
         <v>48317.479999999996</v>
       </c>
       <c r="K138" s="3">
-        <f>J138/E138*100000</f>
+        <f t="shared" si="28"/>
         <v>23085.595695573214</v>
       </c>
       <c r="L138" s="7">
@@ -9293,14 +9306,14 @@
         <v>2.869351</v>
       </c>
       <c r="N138" s="3">
-        <f>M138/E138*100000</f>
+        <f t="shared" si="29"/>
         <v>1.3709464379079519</v>
       </c>
       <c r="O138" s="4">
         <v>6.5585100000000001</v>
       </c>
       <c r="P138" s="3">
-        <f>O138/E138*100000</f>
+        <f t="shared" si="30"/>
         <v>3.1335887183142392</v>
       </c>
       <c r="Q138" s="7">
@@ -9333,15 +9346,15 @@
         <v>22584.32</v>
       </c>
       <c r="I139" s="3">
-        <f>H139/E139*100000</f>
+        <f t="shared" si="33"/>
         <v>10099.960645415191</v>
       </c>
       <c r="J139" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>51621.24</v>
       </c>
       <c r="K139" s="3">
-        <f>J139/E139*100000</f>
+        <f t="shared" si="28"/>
         <v>23085.596221959859</v>
       </c>
       <c r="L139" s="8">
@@ -9352,14 +9365,14 @@
         <v>12.273529999999999</v>
       </c>
       <c r="N139" s="3">
-        <f>M139/E139*100000</f>
+        <f t="shared" si="29"/>
         <v>5.4888599692318696</v>
       </c>
       <c r="O139" s="4">
         <v>28.053750000000001</v>
       </c>
       <c r="P139" s="3">
-        <f>O139/E139*100000</f>
+        <f t="shared" si="30"/>
         <v>12.545950949876572</v>
       </c>
       <c r="Q139" s="7">
@@ -9393,15 +9406,15 @@
         <v>10271.530000000001</v>
       </c>
       <c r="I140" s="3">
-        <f>H140/E140*100000</f>
+        <f t="shared" si="33"/>
         <v>25090.269991670393</v>
       </c>
       <c r="J140" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>16594.909999999996</v>
       </c>
       <c r="K140" s="3">
-        <f>J140/E140*100000</f>
+        <f t="shared" si="28"/>
         <v>40536.392571259668</v>
       </c>
       <c r="L140" s="7">
@@ -9411,14 +9424,14 @@
         <v>66.957729999999998</v>
       </c>
       <c r="N140" s="3">
-        <f>M140/E140*100000</f>
+        <f t="shared" si="29"/>
         <v>163.55767093406416</v>
       </c>
       <c r="O140" s="4">
         <v>108.1784</v>
       </c>
       <c r="P140" s="3">
-        <f>O140/E140*100000</f>
+        <f t="shared" si="30"/>
         <v>264.247416233698</v>
       </c>
       <c r="Q140" s="7">
@@ -9451,15 +9464,15 @@
         <v>150221.1</v>
       </c>
       <c r="I141" s="3">
-        <f>H141/E141*100000</f>
+        <f t="shared" si="33"/>
         <v>25090.262988191364</v>
       </c>
       <c r="J141" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>242700.49999999997</v>
       </c>
       <c r="K141" s="3">
-        <f>J141/E141*100000</f>
+        <f t="shared" si="28"/>
         <v>40536.378527154557</v>
       </c>
       <c r="L141" s="7">
@@ -9469,14 +9482,14 @@
         <v>20.406759999999998</v>
       </c>
       <c r="N141" s="3">
-        <f>M141/E141*100000</f>
+        <f t="shared" si="29"/>
         <v>3.4083825450413019</v>
       </c>
       <c r="O141" s="4">
         <v>32.969619999999999</v>
       </c>
       <c r="P141" s="3">
-        <f>O141/E141*100000</f>
+        <f t="shared" si="30"/>
         <v>5.5066594268097742</v>
       </c>
       <c r="Q141" s="7">
@@ -9509,15 +9522,15 @@
         <v>160492.6</v>
       </c>
       <c r="I142" s="3">
-        <f>H142/E142*100000</f>
+        <f t="shared" si="33"/>
         <v>25090.25874642975</v>
       </c>
       <c r="J142" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>259295.49999999997</v>
       </c>
       <c r="K142" s="3">
-        <f>J142/E142*100000</f>
+        <f t="shared" si="28"/>
         <v>40536.393495929871</v>
       </c>
       <c r="L142" s="8">
@@ -9528,14 +9541,14 @@
         <v>87.364490000000004</v>
       </c>
       <c r="N142" s="3">
-        <f>M142/E142*100000</f>
+        <f t="shared" si="29"/>
         <v>13.657936000475253</v>
       </c>
       <c r="O142" s="4">
         <v>141.148</v>
       </c>
       <c r="P142" s="3">
-        <f>O142/E142*100000</f>
+        <f t="shared" si="30"/>
         <v>22.066063117807712</v>
       </c>
       <c r="Q142" s="7">
@@ -9569,15 +9582,15 @@
         <v>30788.880000000001</v>
       </c>
       <c r="I143" s="3">
-        <f>H143/E143*100000</f>
+        <f t="shared" si="33"/>
         <v>9566.3076742102294</v>
       </c>
       <c r="J143" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>67962.679999999993</v>
       </c>
       <c r="K143" s="3">
-        <f>J143/E143*100000</f>
+        <f t="shared" si="28"/>
         <v>21116.452019167114</v>
       </c>
       <c r="L143" s="7">
@@ -9587,14 +9600,14 @@
         <v>397.66410000000002</v>
       </c>
       <c r="N143" s="3">
-        <f>M143/E143*100000</f>
+        <f t="shared" si="29"/>
         <v>123.55685337004478</v>
       </c>
       <c r="O143" s="4">
         <v>877.79480000000001</v>
       </c>
       <c r="P143" s="3">
-        <f>O143/E143*100000</f>
+        <f t="shared" si="30"/>
         <v>272.73662217079129</v>
       </c>
       <c r="Q143" s="7">
@@ -9627,15 +9640,15 @@
         <v>183022.8</v>
       </c>
       <c r="I144" s="3">
-        <f>H144/E144*100000</f>
+        <f t="shared" si="33"/>
         <v>9566.3085100154149</v>
       </c>
       <c r="J144" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>404000.39999999997</v>
       </c>
       <c r="K144" s="3">
-        <f>J144/E144*100000</f>
+        <f t="shared" si="28"/>
         <v>21116.453603428814</v>
       </c>
       <c r="L144" s="7">
@@ -9645,14 +9658,14 @@
         <v>55.396270000000001</v>
       </c>
       <c r="N144" s="3">
-        <f>M144/E144*100000</f>
+        <f t="shared" si="29"/>
         <v>2.8954742749215487</v>
       </c>
       <c r="O144" s="4">
         <v>122.2805</v>
       </c>
       <c r="P144" s="3">
-        <f>O144/E144*100000</f>
+        <f t="shared" si="30"/>
         <v>6.3914058126033471</v>
       </c>
       <c r="Q144" s="7">
@@ -9685,15 +9698,15 @@
         <v>213811.7</v>
       </c>
       <c r="I145" s="3">
-        <f>H145/E145*100000</f>
+        <f t="shared" si="33"/>
         <v>9566.3092844944349</v>
       </c>
       <c r="J145" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>471962.99999999994</v>
       </c>
       <c r="K145" s="3">
-        <f>J145/E145*100000</f>
+        <f t="shared" ref="K145:K176" si="36">J145/E145*100000</f>
         <v>21116.449795955254</v>
       </c>
       <c r="L145" s="8">
@@ -9704,14 +9717,14 @@
         <v>453.06040000000002</v>
       </c>
       <c r="N145" s="3">
-        <f>M145/E145*100000</f>
+        <f t="shared" ref="N145:N176" si="37">M145/E145*100000</f>
         <v>20.270714422815786</v>
       </c>
       <c r="O145" s="4">
         <v>1000.075</v>
       </c>
       <c r="P145" s="3">
-        <f>O145/E145*100000</f>
+        <f t="shared" ref="P145:P176" si="38">O145/E145*100000</f>
         <v>44.745104022327929</v>
       </c>
       <c r="Q145" s="7">
@@ -9745,15 +9758,15 @@
         <v>10367.26</v>
       </c>
       <c r="I146" s="3">
-        <f>H146/E146*100000</f>
+        <f t="shared" si="33"/>
         <v>6562.3170278582902</v>
       </c>
       <c r="J146" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>24725.119999999995</v>
       </c>
       <c r="K146" s="3">
-        <f>J146/E146*100000</f>
+        <f t="shared" si="36"/>
         <v>15650.622825301913</v>
       </c>
       <c r="L146" s="7">
@@ -9763,14 +9776,14 @@
         <v>272.88389999999998</v>
       </c>
       <c r="N146" s="3">
-        <f>M146/E146*100000</f>
+        <f t="shared" si="37"/>
         <v>172.73133533820686</v>
       </c>
       <c r="O146" s="4">
         <v>650.80679999999995</v>
       </c>
       <c r="P146" s="3">
-        <f>O146/E146*100000</f>
+        <f t="shared" si="38"/>
         <v>411.95075125789879</v>
       </c>
       <c r="Q146" s="7">
@@ -9803,15 +9816,15 @@
         <v>9881.2970000000005</v>
       </c>
       <c r="I147" s="3">
-        <f>H147/E147*100000</f>
+        <f t="shared" si="33"/>
         <v>6562.3189041037667</v>
       </c>
       <c r="J147" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>23566.123</v>
       </c>
       <c r="K147" s="3">
-        <f>J147/E147*100000</f>
+        <f t="shared" si="36"/>
         <v>15650.618988512802</v>
       </c>
       <c r="L147" s="7">
@@ -9821,14 +9834,14 @@
         <v>34.157040000000002</v>
       </c>
       <c r="N147" s="3">
-        <f>M147/E147*100000</f>
+        <f t="shared" si="37"/>
         <v>22.684207275646969</v>
       </c>
       <c r="O147" s="4">
         <v>81.461889999999997</v>
       </c>
       <c r="P147" s="3">
-        <f>O147/E147*100000</f>
+        <f t="shared" si="38"/>
         <v>54.10007418166073</v>
       </c>
       <c r="Q147" s="7">
@@ -9861,15 +9874,15 @@
         <v>20248.560000000001</v>
       </c>
       <c r="I148" s="3">
-        <f>H148/E148*100000</f>
+        <f t="shared" si="33"/>
         <v>6562.3189157305933</v>
       </c>
       <c r="J148" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>48291.240000000005</v>
       </c>
       <c r="K148" s="3">
-        <f>J148/E148*100000</f>
+        <f t="shared" si="36"/>
         <v>15650.619980684347</v>
       </c>
       <c r="L148" s="8">
@@ -9880,14 +9893,14 @@
         <v>307.04090000000002</v>
       </c>
       <c r="N148" s="3">
-        <f>M148/E148*100000</f>
+        <f t="shared" si="37"/>
         <v>99.508325825290555</v>
       </c>
       <c r="O148" s="4">
         <v>732.26859999999999</v>
       </c>
       <c r="P148" s="3">
-        <f>O148/E148*100000</f>
+        <f t="shared" si="38"/>
         <v>237.31959631576558</v>
       </c>
       <c r="Q148" s="7">
@@ -9916,23 +9929,23 @@
         <v>337022512</v>
       </c>
       <c r="G149" s="8">
-        <f t="shared" ref="G149:H151" si="18">G137+G140+G143+G146</f>
+        <f t="shared" ref="G149:H151" si="39">G137+G140+G143+G146</f>
         <v>161346391</v>
       </c>
       <c r="H149" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>52873.066000000006</v>
       </c>
       <c r="I149" s="3">
-        <f>H149/E149*100000</f>
+        <f t="shared" si="33"/>
         <v>9881.375979653958</v>
       </c>
       <c r="J149" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>112586.46999999999</v>
       </c>
       <c r="K149" s="3">
-        <f>J149/E149*100000</f>
+        <f t="shared" si="36"/>
         <v>21041.133500599921</v>
       </c>
       <c r="L149" s="8">
@@ -9944,7 +9957,7 @@
         <v>746.90990800000009</v>
       </c>
       <c r="N149" s="3">
-        <f>M149/E149*100000</f>
+        <f t="shared" si="37"/>
         <v>139.58898513425999</v>
       </c>
       <c r="O149" s="3">
@@ -9952,7 +9965,7 @@
         <v>1658.2752399999999</v>
       </c>
       <c r="P149" s="3">
-        <f>O149/E149*100000</f>
+        <f t="shared" si="38"/>
         <v>309.91282261162797</v>
       </c>
       <c r="Q149" s="7">
@@ -9981,23 +9994,23 @@
         <v>231164704</v>
       </c>
       <c r="G150" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>142815057</v>
       </c>
       <c r="H150" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>364264.11700000003</v>
       </c>
       <c r="I150" s="3">
-        <f>H150/E150*100000</f>
+        <f t="shared" si="33"/>
         <v>12684.182982046272</v>
       </c>
       <c r="J150" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>718584.50299999979</v>
       </c>
       <c r="K150" s="3">
-        <f>J150/E150*100000</f>
+        <f t="shared" si="36"/>
         <v>25022.111426129777</v>
       </c>
       <c r="L150" s="8">
@@ -10009,7 +10022,7 @@
         <v>112.829421</v>
       </c>
       <c r="N150" s="3">
-        <f>M150/E150*100000</f>
+        <f t="shared" si="37"/>
         <v>3.9288773033944873</v>
       </c>
       <c r="O150" s="3">
@@ -10017,7 +10030,7 @@
         <v>243.27051999999998</v>
       </c>
       <c r="P150" s="3">
-        <f>O150/E150*100000</f>
+        <f t="shared" si="38"/>
         <v>8.4710177198638164</v>
       </c>
       <c r="Q150" s="7">
@@ -10046,23 +10059,23 @@
         <v>568187217</v>
       </c>
       <c r="G151" s="8">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>304161448</v>
       </c>
       <c r="H151" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="39"/>
         <v>417137.18</v>
       </c>
       <c r="I151" s="3">
-        <f>H151/E151*100000</f>
+        <f t="shared" si="33"/>
         <v>12243.978941411428</v>
       </c>
       <c r="J151" s="3">
-        <f t="shared" si="17"/>
+        <f t="shared" si="35"/>
         <v>831170.98</v>
       </c>
       <c r="K151" s="3">
-        <f>J151/E151*100000</f>
+        <f t="shared" si="36"/>
         <v>24396.866219962219</v>
       </c>
       <c r="L151" s="8">
@@ -10074,7 +10087,7 @@
         <v>859.73932000000013</v>
       </c>
       <c r="N151" s="3">
-        <f>M151/E151*100000</f>
+        <f t="shared" si="37"/>
         <v>25.235415671130976</v>
       </c>
       <c r="O151" s="3">
@@ -10082,7 +10095,7 @@
         <v>1901.5453499999999</v>
       </c>
       <c r="P151" s="3">
-        <f>O151/E151*100000</f>
+        <f t="shared" si="38"/>
         <v>55.814926930126006</v>
       </c>
       <c r="Q151" s="7">
@@ -10116,7 +10129,7 @@
         <v>330.089</v>
       </c>
       <c r="I152" s="3">
-        <f>H152/E152*100000</f>
+        <f t="shared" si="33"/>
         <v>2306.5549290715962</v>
       </c>
       <c r="J152" s="3">
@@ -10124,7 +10137,7 @@
         <v>4419.067</v>
       </c>
       <c r="K152" s="3">
-        <f>J152/E152*100000</f>
+        <f t="shared" si="36"/>
         <v>30879.007694129861</v>
       </c>
       <c r="L152" s="7">
@@ -10134,14 +10147,14 @@
         <v>2.1476570000000001</v>
       </c>
       <c r="N152" s="3">
-        <f>M152/E152*100000</f>
+        <f t="shared" si="37"/>
         <v>15.00713092319077</v>
       </c>
       <c r="O152" s="4">
         <v>28.751760000000001</v>
       </c>
       <c r="P152" s="3">
-        <f>O152/E152*100000</f>
+        <f t="shared" si="38"/>
         <v>200.90797859814643</v>
       </c>
       <c r="Q152" s="7">
@@ -10174,15 +10187,15 @@
         <v>4827.5510000000004</v>
       </c>
       <c r="I153" s="3">
-        <f>H153/E153*100000</f>
+        <f t="shared" si="33"/>
         <v>2306.5542860629362</v>
       </c>
       <c r="J153" s="3">
-        <f t="shared" ref="J153:J166" si="19">H3-H153</f>
+        <f t="shared" ref="J153:J166" si="40">H3-H153</f>
         <v>64628.848999999995</v>
       </c>
       <c r="K153" s="3">
-        <f>J153/E153*100000</f>
+        <f t="shared" si="36"/>
         <v>30879.000276592473</v>
       </c>
       <c r="L153" s="7">
@@ -10192,14 +10205,14 @@
         <v>0.65528129999999996</v>
       </c>
       <c r="N153" s="3">
-        <f>M153/E153*100000</f>
+        <f t="shared" si="37"/>
         <v>0.31308667502257198</v>
       </c>
       <c r="O153" s="4">
         <v>8.7725799999999996</v>
       </c>
       <c r="P153" s="3">
-        <f>O153/E153*100000</f>
+        <f t="shared" si="38"/>
         <v>4.1914486245365383</v>
       </c>
       <c r="Q153" s="7">
@@ -10232,15 +10245,15 @@
         <v>5157.6400000000003</v>
       </c>
       <c r="I154" s="3">
-        <f>H154/E154*100000</f>
+        <f t="shared" si="33"/>
         <v>2306.5543272154846</v>
       </c>
       <c r="J154" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>69047.92</v>
       </c>
       <c r="K154" s="3">
-        <f>J154/E154*100000</f>
+        <f t="shared" si="36"/>
         <v>30879.002540159567</v>
       </c>
       <c r="L154" s="8">
@@ -10251,14 +10264,14 @@
         <v>2.8029380000000002</v>
       </c>
       <c r="N154" s="3">
-        <f>M154/E154*100000</f>
+        <f t="shared" si="37"/>
         <v>1.2535052413151588</v>
       </c>
       <c r="O154" s="4">
         <v>37.524340000000002</v>
       </c>
       <c r="P154" s="3">
-        <f>O154/E154*100000</f>
+        <f t="shared" si="38"/>
         <v>16.781304783370899</v>
       </c>
       <c r="Q154" s="7">
@@ -10292,15 +10305,15 @@
         <v>2564.9920000000002</v>
       </c>
       <c r="I155" s="3">
-        <f>H155/E155*100000</f>
+        <f t="shared" si="33"/>
         <v>6265.5068725374531</v>
       </c>
       <c r="J155" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>24301.447999999997</v>
       </c>
       <c r="K155" s="3">
-        <f>J155/E155*100000</f>
+        <f t="shared" si="36"/>
         <v>59361.155690392596</v>
       </c>
       <c r="L155" s="7">
@@ -10310,14 +10323,14 @@
         <v>16.720600000000001</v>
       </c>
       <c r="N155" s="3">
-        <f>M155/E155*100000</f>
+        <f t="shared" si="37"/>
         <v>40.84341557905433</v>
       </c>
       <c r="O155" s="4">
         <v>158.41560000000001</v>
       </c>
       <c r="P155" s="3">
-        <f>O155/E155*100000</f>
+        <f t="shared" si="38"/>
         <v>386.96184257773285</v>
       </c>
       <c r="Q155" s="7">
@@ -10350,15 +10363,15 @@
         <v>37513.01</v>
       </c>
       <c r="I156" s="3">
-        <f>H156/E156*100000</f>
+        <f t="shared" si="33"/>
         <v>6265.5065525325836</v>
       </c>
       <c r="J156" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>355408.58999999997</v>
       </c>
       <c r="K156" s="3">
-        <f>J156/E156*100000</f>
+        <f t="shared" si="36"/>
         <v>59361.134962813332</v>
       </c>
       <c r="L156" s="7">
@@ -10368,14 +10381,14 @@
         <v>5.0959490000000001</v>
       </c>
       <c r="N156" s="3">
-        <f>M156/E156*100000</f>
+        <f t="shared" si="37"/>
         <v>0.85113676164274388</v>
       </c>
       <c r="O156" s="4">
         <v>48.280439999999999</v>
       </c>
       <c r="P156" s="3">
-        <f>O156/E156*100000</f>
+        <f t="shared" si="38"/>
         <v>8.0639067134083948</v>
       </c>
       <c r="Q156" s="7">
@@ -10408,15 +10421,15 @@
         <v>40078</v>
       </c>
       <c r="I157" s="3">
-        <f>H157/E157*100000</f>
+        <f t="shared" si="33"/>
         <v>6265.5062603472779</v>
       </c>
       <c r="J157" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>379710.1</v>
       </c>
       <c r="K157" s="3">
-        <f>J157/E157*100000</f>
+        <f t="shared" si="36"/>
         <v>59361.145982012342</v>
       </c>
       <c r="L157" s="8">
@@ -10427,14 +10440,14 @@
         <v>21.81654</v>
       </c>
       <c r="N157" s="3">
-        <f>M157/E157*100000</f>
+        <f t="shared" si="37"/>
         <v>3.4106409488776088</v>
       </c>
       <c r="O157" s="4">
         <v>206.696</v>
       </c>
       <c r="P157" s="3">
-        <f>O157/E157*100000</f>
+        <f t="shared" si="38"/>
         <v>32.313365986045731</v>
       </c>
       <c r="Q157" s="7">
@@ -10468,15 +10481,15 @@
         <v>7045.9660000000003</v>
       </c>
       <c r="I158" s="3">
-        <f>H158/E158*100000</f>
+        <f t="shared" si="33"/>
         <v>2189.2280140760026</v>
       </c>
       <c r="J158" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>91705.593999999997</v>
       </c>
       <c r="K158" s="3">
-        <f>J158/E158*100000</f>
+        <f t="shared" si="36"/>
         <v>28493.531679301344</v>
       </c>
       <c r="L158" s="7">
@@ -10486,14 +10499,14 @@
         <v>91.004540000000006</v>
       </c>
       <c r="N158" s="3">
-        <f>M158/E158*100000</f>
+        <f t="shared" si="37"/>
         <v>28.275709587031805</v>
       </c>
       <c r="O158" s="4">
         <v>1184.454</v>
       </c>
       <c r="P158" s="3">
-        <f>O158/E158*100000</f>
+        <f t="shared" si="38"/>
         <v>368.01765409943471</v>
       </c>
       <c r="Q158" s="7">
@@ -10526,15 +10539,15 @@
         <v>41884.35</v>
       </c>
       <c r="I159" s="3">
-        <f>H159/E159*100000</f>
+        <f t="shared" si="33"/>
         <v>2189.2278658258101</v>
       </c>
       <c r="J159" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>545138.85</v>
       </c>
       <c r="K159" s="3">
-        <f>J159/E159*100000</f>
+        <f t="shared" si="36"/>
         <v>28493.53424761842</v>
       </c>
       <c r="L159" s="7">
@@ -10544,14 +10557,14 @@
         <v>12.67731</v>
       </c>
       <c r="N159" s="3">
-        <f>M159/E159*100000</f>
+        <f t="shared" si="37"/>
         <v>0.6626226816391374</v>
       </c>
       <c r="O159" s="4">
         <v>164.99940000000001</v>
       </c>
       <c r="P159" s="3">
-        <f>O159/E159*100000</f>
+        <f t="shared" si="38"/>
         <v>8.6242542697818934</v>
       </c>
       <c r="Q159" s="7">
@@ -10584,15 +10597,15 @@
         <v>48930.32</v>
       </c>
       <c r="I160" s="3">
-        <f>H160/E160*100000</f>
+        <f t="shared" si="33"/>
         <v>2189.2280661408317</v>
       </c>
       <c r="J160" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>636844.38</v>
       </c>
       <c r="K160" s="3">
-        <f>J160/E160*100000</f>
+        <f t="shared" si="36"/>
         <v>28493.531014308861</v>
       </c>
       <c r="L160" s="8">
@@ -10603,14 +10616,14 @@
         <v>103.6818</v>
       </c>
       <c r="N160" s="3">
-        <f>M160/E160*100000</f>
+        <f t="shared" si="37"/>
         <v>4.6389050083465726</v>
       </c>
       <c r="O160" s="4">
         <v>1349.454</v>
       </c>
       <c r="P160" s="3">
-        <f>O160/E160*100000</f>
+        <f t="shared" si="38"/>
         <v>60.376931333496493</v>
       </c>
       <c r="Q160" s="7">
@@ -10644,15 +10657,15 @@
         <v>2344.3249999999998</v>
       </c>
       <c r="I161" s="3">
-        <f>H161/E161*100000</f>
+        <f t="shared" si="33"/>
         <v>1483.9218719636513</v>
       </c>
       <c r="J161" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>32748.054999999997</v>
       </c>
       <c r="K161" s="3">
-        <f>J161/E161*100000</f>
+        <f t="shared" si="36"/>
         <v>20729.01798119655</v>
       </c>
       <c r="L161" s="7">
@@ -10662,14 +10675,14 @@
         <v>61.706589999999998</v>
       </c>
       <c r="N161" s="3">
-        <f>M161/E161*100000</f>
+        <f t="shared" si="37"/>
         <v>39.059327757582047</v>
       </c>
       <c r="O161" s="4">
         <v>861.98400000000004</v>
       </c>
       <c r="P161" s="3">
-        <f>O161/E161*100000</f>
+        <f t="shared" si="38"/>
         <v>545.62268921020598</v>
       </c>
       <c r="Q161" s="7">
@@ -10702,15 +10715,15 @@
         <v>2234.4349999999999</v>
       </c>
       <c r="I162" s="3">
-        <f>H162/E162*100000</f>
+        <f t="shared" ref="I162:I193" si="41">H162/E162*100000</f>
         <v>1483.9221046074315</v>
       </c>
       <c r="J162" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>31212.984999999997</v>
       </c>
       <c r="K162" s="3">
-        <f>J162/E162*100000</f>
+        <f t="shared" si="36"/>
         <v>20729.015788009136</v>
       </c>
       <c r="L162" s="7">
@@ -10720,14 +10733,14 @@
         <v>7.7238530000000001</v>
       </c>
       <c r="N162" s="3">
-        <f>M162/E162*100000</f>
+        <f t="shared" si="37"/>
         <v>5.1295276879562062</v>
       </c>
       <c r="O162" s="4">
         <v>107.8951</v>
       </c>
       <c r="P162" s="3">
-        <f>O162/E162*100000</f>
+        <f t="shared" si="38"/>
         <v>71.654769043999636</v>
       </c>
       <c r="Q162" s="7">
@@ -10760,15 +10773,15 @@
         <v>4578.76</v>
       </c>
       <c r="I163" s="3">
-        <f>H163/E163*100000</f>
+        <f t="shared" si="41"/>
         <v>1483.9219854938131</v>
       </c>
       <c r="J163" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>63961.04</v>
       </c>
       <c r="K163" s="3">
-        <f>J163/E163*100000</f>
+        <f t="shared" si="36"/>
         <v>20729.016910921124</v>
       </c>
       <c r="L163" s="8">
@@ -10779,14 +10792,14 @@
         <v>69.430449999999993</v>
       </c>
       <c r="N163" s="3">
-        <f>M163/E163*100000</f>
+        <f t="shared" si="37"/>
         <v>22.501588032071766</v>
       </c>
       <c r="O163" s="4">
         <v>969.87909999999999</v>
       </c>
       <c r="P163" s="3">
-        <f>O163/E163*100000</f>
+        <f t="shared" si="38"/>
         <v>314.32635031339328</v>
       </c>
       <c r="Q163" s="7">
@@ -10815,23 +10828,23 @@
         <v>460950319</v>
       </c>
       <c r="G164" s="8">
-        <f t="shared" ref="G164:H166" si="20">G152+G155+G158+G161</f>
+        <f t="shared" ref="G164:H166" si="42">G152+G155+G158+G161</f>
         <v>37418584.600000001</v>
       </c>
       <c r="H164" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="42"/>
         <v>12285.371999999999</v>
       </c>
       <c r="I164" s="3">
-        <f>H164/E164*100000</f>
+        <f t="shared" si="41"/>
         <v>2295.9966002711717</v>
       </c>
       <c r="J164" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>153174.16399999999</v>
       </c>
       <c r="K164" s="3">
-        <f>J164/E164*100000</f>
+        <f t="shared" si="36"/>
         <v>28626.512879982707</v>
       </c>
       <c r="L164" s="8">
@@ -10843,7 +10856,7 @@
         <v>171.579387</v>
       </c>
       <c r="N164" s="3">
-        <f>M164/E164*100000</f>
+        <f t="shared" si="37"/>
         <v>32.066240178043586</v>
       </c>
       <c r="O164" s="3">
@@ -10851,7 +10864,7 @@
         <v>2233.60536</v>
       </c>
       <c r="P164" s="3">
-        <f>O164/E164*100000</f>
+        <f t="shared" si="38"/>
         <v>417.43549262549539</v>
       </c>
       <c r="Q164" s="7">
@@ -10880,23 +10893,23 @@
         <v>340315655</v>
       </c>
       <c r="G165" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="42"/>
         <v>33664107</v>
       </c>
       <c r="H165" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="42"/>
         <v>86459.34599999999</v>
       </c>
       <c r="I165" s="3">
-        <f>H165/E165*100000</f>
+        <f t="shared" si="41"/>
         <v>3010.6346301797553</v>
       </c>
       <c r="J165" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>996389.27399999986</v>
       </c>
       <c r="K165" s="3">
-        <f>J165/E165*100000</f>
+        <f t="shared" si="36"/>
         <v>34695.659777996298</v>
       </c>
       <c r="L165" s="8">
@@ -10908,7 +10921,7 @@
         <v>26.1523933</v>
       </c>
       <c r="N165" s="3">
-        <f>M165/E165*100000</f>
+        <f t="shared" si="37"/>
         <v>0.91066269378282161</v>
       </c>
       <c r="O165" s="3">
@@ -10916,7 +10929,7 @@
         <v>329.94752</v>
       </c>
       <c r="P165" s="3">
-        <f>O165/E165*100000</f>
+        <f t="shared" si="38"/>
         <v>11.489231364922972</v>
       </c>
       <c r="Q165" s="7">
@@ -10945,23 +10958,23 @@
         <v>801265973</v>
       </c>
       <c r="G166" s="8">
-        <f t="shared" si="20"/>
+        <f t="shared" si="42"/>
         <v>71082692</v>
       </c>
       <c r="H166" s="3">
-        <f t="shared" si="20"/>
+        <f t="shared" si="42"/>
         <v>98744.719999999987</v>
       </c>
       <c r="I166" s="3">
-        <f>H166/E166*100000</f>
+        <f t="shared" si="41"/>
         <v>2898.3948931513792</v>
       </c>
       <c r="J166" s="3">
-        <f t="shared" si="19"/>
+        <f t="shared" si="40"/>
         <v>1149563.44</v>
       </c>
       <c r="K166" s="3">
-        <f>J166/E166*100000</f>
+        <f t="shared" si="36"/>
         <v>33742.450268222259</v>
       </c>
       <c r="L166" s="8">
@@ -10973,7 +10986,7 @@
         <v>197.73172799999998</v>
       </c>
       <c r="N166" s="3">
-        <f>M166/E166*100000</f>
+        <f t="shared" si="37"/>
         <v>5.803901521511202</v>
       </c>
       <c r="O166" s="3">
@@ -10981,7 +10994,7 @@
         <v>2563.5534400000001</v>
       </c>
       <c r="P166" s="3">
-        <f>O166/E166*100000</f>
+        <f t="shared" si="38"/>
         <v>75.24645569724288</v>
       </c>
       <c r="Q166" s="7">
@@ -11015,7 +11028,7 @@
         <v>47.321599999999997</v>
       </c>
       <c r="I167" s="3">
-        <f>H167/E167*100000</f>
+        <f t="shared" si="41"/>
         <v>330.6680008469063</v>
       </c>
       <c r="J167" s="3">
@@ -11023,7 +11036,7 @@
         <v>4701.8343999999997</v>
       </c>
       <c r="K167" s="3">
-        <f>J167/E167*100000</f>
+        <f t="shared" si="36"/>
         <v>32854.89462235455</v>
       </c>
       <c r="L167" s="7">
@@ -11033,14 +11046,14 @@
         <v>0.30788840000000001</v>
       </c>
       <c r="N167" s="3">
-        <f>M167/E167*100000</f>
+        <f t="shared" si="37"/>
         <v>2.1514243329040572</v>
       </c>
       <c r="O167" s="4">
         <v>30.591529999999999</v>
       </c>
       <c r="P167" s="3">
-        <f>O167/E167*100000</f>
+        <f t="shared" si="38"/>
         <v>213.76369497117932</v>
       </c>
       <c r="Q167" s="7">
@@ -11073,15 +11086,15 @@
         <v>692.07839999999999</v>
       </c>
       <c r="I168" s="3">
-        <f>H168/E168*100000</f>
+        <f t="shared" si="41"/>
         <v>330.66795147510175</v>
       </c>
       <c r="J168" s="3">
-        <f t="shared" ref="J168:J181" si="21">H3-H168</f>
+        <f t="shared" ref="J168:J181" si="43">H3-H168</f>
         <v>68764.321599999996</v>
       </c>
       <c r="K168" s="3">
-        <f>J168/E168*100000</f>
+        <f t="shared" si="36"/>
         <v>32854.886611180307</v>
       </c>
       <c r="L168" s="7">
@@ -11091,14 +11104,14 @@
         <v>9.3941220000000006E-2</v>
       </c>
       <c r="N168" s="3">
-        <f>M168/E168*100000</f>
+        <f t="shared" si="37"/>
         <v>4.4884150085412085E-2</v>
       </c>
       <c r="O168" s="4">
         <v>9.3339200000000009</v>
       </c>
       <c r="P168" s="3">
-        <f>O168/E168*100000</f>
+        <f t="shared" si="38"/>
         <v>4.4596511112505199</v>
       </c>
       <c r="Q168" s="7">
@@ -11131,15 +11144,15 @@
         <v>739.4</v>
       </c>
       <c r="I169" s="3">
-        <f>H169/E169*100000</f>
+        <f t="shared" si="41"/>
         <v>330.66795463489677</v>
       </c>
       <c r="J169" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>73466.16</v>
       </c>
       <c r="K169" s="3">
-        <f>J169/E169*100000</f>
+        <f t="shared" si="36"/>
         <v>32854.888912740156</v>
       </c>
       <c r="L169" s="8">
@@ -11150,14 +11163,14 @@
         <v>0.40182960000000001</v>
       </c>
       <c r="N169" s="3">
-        <f>M169/E169*100000</f>
+        <f t="shared" si="37"/>
         <v>0.17970269400021466</v>
       </c>
       <c r="O169" s="4">
         <v>39.925449999999998</v>
       </c>
       <c r="P169" s="3">
-        <f>O169/E169*100000</f>
+        <f t="shared" si="38"/>
         <v>17.855108046223748</v>
       </c>
       <c r="Q169" s="7">
@@ -11191,15 +11204,15 @@
         <v>326.62270000000001</v>
       </c>
       <c r="I170" s="3">
-        <f>H170/E170*100000</f>
+        <f t="shared" si="41"/>
         <v>797.84138569505819</v>
       </c>
       <c r="J170" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>26539.817299999999</v>
       </c>
       <c r="K170" s="3">
-        <f>J170/E170*100000</f>
+        <f t="shared" si="36"/>
         <v>64828.821177235004</v>
       </c>
       <c r="L170" s="7">
@@ -11209,14 +11222,14 @@
         <v>2.1291790000000002</v>
       </c>
       <c r="N170" s="3">
-        <f>M170/E170*100000</f>
+        <f t="shared" si="37"/>
         <v>5.2009463021180657</v>
       </c>
       <c r="O170" s="4">
         <v>173.00700000000001</v>
       </c>
       <c r="P170" s="3">
-        <f>O170/E170*100000</f>
+        <f t="shared" si="38"/>
         <v>422.6042605579616</v>
       </c>
       <c r="Q170" s="7">
@@ -11249,15 +11262,15 @@
         <v>4776.857</v>
       </c>
       <c r="I171" s="3">
-        <f>H171/E171*100000</f>
+        <f t="shared" si="41"/>
         <v>797.84130449705697</v>
       </c>
       <c r="J171" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>388144.74299999996</v>
       </c>
       <c r="K171" s="3">
-        <f>J171/E171*100000</f>
+        <f t="shared" si="36"/>
         <v>64828.800210848858</v>
       </c>
       <c r="L171" s="7">
@@ -11267,14 +11280,14 @@
         <v>0.64891149999999997</v>
       </c>
       <c r="N171" s="3">
-        <f>M171/E171*100000</f>
+        <f t="shared" si="37"/>
         <v>0.10838264525463959</v>
       </c>
       <c r="O171" s="4">
         <v>52.727469999999997</v>
       </c>
       <c r="P171" s="3">
-        <f>O171/E171*100000</f>
+        <f t="shared" si="38"/>
         <v>8.8066595771297802</v>
       </c>
       <c r="Q171" s="7">
@@ -11307,15 +11320,15 @@
         <v>5103.4799999999996</v>
       </c>
       <c r="I172" s="3">
-        <f>H172/E172*100000</f>
+        <f t="shared" si="41"/>
         <v>797.84135659357059</v>
       </c>
       <c r="J172" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>414684.62</v>
       </c>
       <c r="K172" s="3">
-        <f>J172/E172*100000</f>
+        <f t="shared" si="36"/>
         <v>64828.810885766055</v>
       </c>
       <c r="L172" s="8">
@@ -11326,14 +11339,14 @@
         <v>2.7780900000000002</v>
       </c>
       <c r="N172" s="3">
-        <f>M172/E172*100000</f>
+        <f t="shared" si="37"/>
         <v>0.43430660928210413</v>
       </c>
       <c r="O172" s="4">
         <v>225.73439999999999</v>
       </c>
       <c r="P172" s="3">
-        <f>O172/E172*100000</f>
+        <f t="shared" si="38"/>
         <v>35.289692509000865</v>
       </c>
       <c r="Q172" s="7">
@@ -11367,15 +11380,15 @@
         <v>995.18399999999997</v>
       </c>
       <c r="I173" s="3">
-        <f>H173/E173*100000</f>
+        <f t="shared" si="41"/>
         <v>309.21021928862734</v>
       </c>
       <c r="J173" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>97756.376000000004</v>
       </c>
       <c r="K173" s="3">
-        <f>J173/E173*100000</f>
+        <f t="shared" si="36"/>
         <v>30373.549474088719</v>
       </c>
       <c r="L173" s="7">
@@ -11385,14 +11398,14 @@
         <v>12.853630000000001</v>
       </c>
       <c r="N173" s="3">
-        <f>M173/E173*100000</f>
+        <f t="shared" si="37"/>
         <v>3.9937074460148869</v>
       </c>
       <c r="O173" s="4">
         <v>1262.605</v>
       </c>
       <c r="P173" s="3">
-        <f>O173/E173*100000</f>
+        <f t="shared" si="38"/>
         <v>392.29968420404396</v>
       </c>
       <c r="Q173" s="7">
@@ -11425,15 +11438,15 @@
         <v>5915.8159999999998</v>
       </c>
       <c r="I174" s="3">
-        <f>H174/E174*100000</f>
+        <f t="shared" si="41"/>
         <v>309.21022377805031</v>
       </c>
       <c r="J174" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>581107.38399999996</v>
       </c>
       <c r="K174" s="3">
-        <f>J174/E174*100000</f>
+        <f t="shared" si="36"/>
         <v>30373.551889666178</v>
       </c>
       <c r="L174" s="7">
@@ -11443,14 +11456,14 @@
         <v>1.790564</v>
       </c>
       <c r="N174" s="3">
-        <f>M174/E174*100000</f>
+        <f t="shared" si="37"/>
         <v>9.3589911371300419E-2</v>
       </c>
       <c r="O174" s="4">
         <v>175.8862</v>
       </c>
       <c r="P174" s="3">
-        <f>O174/E174*100000</f>
+        <f t="shared" si="38"/>
         <v>9.1932898625432102</v>
       </c>
       <c r="Q174" s="7">
@@ -11483,15 +11496,15 @@
         <v>6911</v>
       </c>
       <c r="I175" s="3">
-        <f>H175/E175*100000</f>
+        <f t="shared" si="41"/>
         <v>309.2102231315734</v>
       </c>
       <c r="J175" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>678863.7</v>
       </c>
       <c r="K175" s="3">
-        <f>J175/E175*100000</f>
+        <f t="shared" si="36"/>
         <v>30373.548857318117</v>
       </c>
       <c r="L175" s="8">
@@ -11502,14 +11515,14 @@
         <v>14.6442</v>
       </c>
       <c r="N175" s="3">
-        <f>M175/E175*100000</f>
+        <f t="shared" si="37"/>
         <v>0.65520711179039026</v>
       </c>
       <c r="O175" s="4">
         <v>1438.491</v>
       </c>
       <c r="P175" s="3">
-        <f>O175/E175*100000</f>
+        <f t="shared" si="38"/>
         <v>64.360602385003645</v>
       </c>
       <c r="Q175" s="7">
@@ -11543,15 +11556,15 @@
         <v>360.2022</v>
       </c>
       <c r="I176" s="3">
-        <f>H176/E176*100000</f>
+        <f t="shared" si="41"/>
         <v>228.00248383198812</v>
       </c>
       <c r="J176" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>34732.177799999998</v>
       </c>
       <c r="K176" s="3">
-        <f>J176/E176*100000</f>
+        <f t="shared" si="36"/>
         <v>21984.937369328218</v>
       </c>
       <c r="L176" s="7">
@@ -11561,14 +11574,14 @@
         <v>9.4811309999999995</v>
       </c>
       <c r="N176" s="3">
-        <f>M176/E176*100000</f>
+        <f t="shared" si="37"/>
         <v>6.0014109229106909</v>
       </c>
       <c r="O176" s="4">
         <v>914.20950000000005</v>
       </c>
       <c r="P176" s="3">
-        <f>O176/E176*100000</f>
+        <f t="shared" si="38"/>
         <v>578.68063199725032</v>
       </c>
       <c r="Q176" s="7">
@@ -11601,15 +11614,15 @@
         <v>343.31779999999998</v>
       </c>
       <c r="I177" s="3">
-        <f>H177/E177*100000</f>
+        <f t="shared" si="41"/>
         <v>228.00254754566291</v>
       </c>
       <c r="J177" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>33104.102200000001</v>
       </c>
       <c r="K177" s="3">
-        <f>J177/E177*100000</f>
+        <f t="shared" ref="K177:K208" si="44">J177/E177*100000</f>
         <v>21984.93534507091</v>
       </c>
       <c r="L177" s="7">
@@ -11619,14 +11632,14 @@
         <v>1.1867589999999999</v>
       </c>
       <c r="N177" s="3">
-        <f>M177/E177*100000</f>
+        <f t="shared" ref="N177:N208" si="45">M177/E177*100000</f>
         <v>0.78814461505562294</v>
       </c>
       <c r="O177" s="4">
         <v>114.43219999999999</v>
       </c>
       <c r="P177" s="3">
-        <f>O177/E177*100000</f>
+        <f t="shared" ref="P177:P208" si="46">O177/E177*100000</f>
         <v>75.996156101591026</v>
       </c>
       <c r="Q177" s="7">
@@ -11659,15 +11672,15 @@
         <v>703.52</v>
       </c>
       <c r="I178" s="3">
-        <f>H178/E178*100000</f>
+        <f t="shared" si="41"/>
         <v>228.00251492426059</v>
       </c>
       <c r="J178" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>67836.28</v>
       </c>
       <c r="K178" s="3">
-        <f>J178/E178*100000</f>
+        <f t="shared" si="44"/>
         <v>21984.936381490676</v>
       </c>
       <c r="L178" s="8">
@@ -11678,14 +11691,14 @@
         <v>10.66789</v>
       </c>
       <c r="N178" s="3">
-        <f>M178/E178*100000</f>
+        <f t="shared" si="45"/>
         <v>3.457337032259737</v>
       </c>
       <c r="O178" s="4">
         <v>1028.6420000000001</v>
       </c>
       <c r="P178" s="3">
-        <f>O178/E178*100000</f>
+        <f t="shared" si="46"/>
         <v>333.37071150318582</v>
       </c>
       <c r="Q178" s="7">
@@ -11714,23 +11727,23 @@
         <v>493036924</v>
       </c>
       <c r="G179" s="8">
-        <f t="shared" ref="G179:H181" si="22">G167+G170+G173+G176</f>
+        <f t="shared" ref="G179:H181" si="47">G167+G170+G173+G176</f>
         <v>5331979.3499999996</v>
       </c>
       <c r="H179" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>1729.3304999999998</v>
       </c>
       <c r="I179" s="3">
-        <f>H179/E179*100000</f>
+        <f t="shared" si="41"/>
         <v>323.19224430039606</v>
       </c>
       <c r="J179" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>163730.20549999998</v>
       </c>
       <c r="K179" s="3">
-        <f>J179/E179*100000</f>
+        <f t="shared" si="44"/>
         <v>30599.317235953484</v>
       </c>
       <c r="L179" s="8">
@@ -11742,7 +11755,7 @@
         <v>24.7718284</v>
       </c>
       <c r="N179" s="3">
-        <f>M179/E179*100000</f>
+        <f t="shared" si="45"/>
         <v>4.6295735927980743</v>
       </c>
       <c r="O179" s="3">
@@ -11750,7 +11763,7 @@
         <v>2380.4130300000002</v>
       </c>
       <c r="P179" s="3">
-        <f>O179/E179*100000</f>
+        <f t="shared" si="46"/>
         <v>444.87218003013663</v>
       </c>
       <c r="Q179" s="7">
@@ -11779,23 +11792,23 @@
         <v>369365312</v>
       </c>
       <c r="G180" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>4614449.5999999996</v>
       </c>
       <c r="H180" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>11728.069200000002</v>
       </c>
       <c r="I180" s="3">
-        <f>H180/E180*100000</f>
+        <f t="shared" si="41"/>
         <v>408.38767481151882</v>
       </c>
       <c r="J180" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>1071120.5507999999</v>
       </c>
       <c r="K180" s="3">
-        <f>J180/E180*100000</f>
+        <f t="shared" si="44"/>
         <v>37297.906733364529</v>
       </c>
       <c r="L180" s="8">
@@ -11807,7 +11820,7 @@
         <v>3.7201757199999999</v>
       </c>
       <c r="N180" s="3">
-        <f>M180/E180*100000</f>
+        <f t="shared" si="45"/>
         <v>0.12954169064598181</v>
       </c>
       <c r="O180" s="3">
@@ -11815,7 +11828,7 @@
         <v>352.37978999999996</v>
       </c>
       <c r="P180" s="3">
-        <f>O180/E180*100000</f>
+        <f t="shared" si="46"/>
         <v>12.27035419339709</v>
       </c>
       <c r="Q180" s="7">
@@ -11844,23 +11857,23 @@
         <v>862402236</v>
       </c>
       <c r="G181" s="8">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>9946429.1999999993</v>
       </c>
       <c r="H181" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="47"/>
         <v>13457.4</v>
       </c>
       <c r="I181" s="3">
-        <f>H181/E181*100000</f>
+        <f t="shared" si="41"/>
         <v>395.00703870642781</v>
       </c>
       <c r="J181" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>1234850.76</v>
       </c>
       <c r="K181" s="3">
-        <f>J181/E181*100000</f>
+        <f t="shared" si="44"/>
         <v>36245.838122667221</v>
       </c>
       <c r="L181" s="8">
@@ -11872,7 +11885,7 @@
         <v>28.492009599999999</v>
       </c>
       <c r="N181" s="3">
-        <f>M181/E181*100000</f>
+        <f t="shared" si="45"/>
         <v>0.83630897044682573</v>
       </c>
       <c r="O181" s="3">
@@ -11880,7 +11893,7 @@
         <v>2732.7928499999998</v>
       </c>
       <c r="P181" s="3">
-        <f>O181/E181*100000</f>
+        <f t="shared" si="46"/>
         <v>80.214039196025922</v>
       </c>
       <c r="Q181" s="7">
@@ -11914,7 +11927,7 @@
         <v>22.778880000000001</v>
       </c>
       <c r="I182" s="3">
-        <f>H182/E182*100000</f>
+        <f t="shared" si="41"/>
         <v>159.17142935005532</v>
       </c>
       <c r="J182" s="3">
@@ -11922,7 +11935,7 @@
         <v>4726.3771200000001</v>
       </c>
       <c r="K182" s="3">
-        <f>J182/E182*100000</f>
+        <f t="shared" si="44"/>
         <v>33026.391193851407</v>
       </c>
       <c r="L182" s="7">
@@ -11932,14 +11945,14 @@
         <v>0.14820610000000001</v>
       </c>
       <c r="N182" s="3">
-        <f>M182/E182*100000</f>
+        <f t="shared" si="45"/>
         <v>1.0356161837367435</v>
       </c>
       <c r="O182" s="4">
         <v>30.75121</v>
       </c>
       <c r="P182" s="3">
-        <f>O182/E182*100000</f>
+        <f t="shared" si="46"/>
         <v>214.87948704869225</v>
       </c>
       <c r="Q182" s="7">
@@ -11972,15 +11985,15 @@
         <v>333.14109999999999</v>
       </c>
       <c r="I183" s="3">
-        <f>H183/E183*100000</f>
+        <f t="shared" si="41"/>
         <v>159.17139602848755</v>
       </c>
       <c r="J183" s="3">
-        <f t="shared" ref="J183:J196" si="23">H3-H183</f>
+        <f t="shared" ref="J183:J196" si="48">H3-H183</f>
         <v>69123.258900000001</v>
       </c>
       <c r="K183" s="3">
-        <f>J183/E183*100000</f>
+        <f t="shared" si="44"/>
         <v>33026.383166626918</v>
       </c>
       <c r="L183" s="7">
@@ -11990,14 +12003,14 @@
         <v>4.5219849999999999E-2</v>
       </c>
       <c r="N183" s="3">
-        <f>M183/E183*100000</f>
+        <f t="shared" si="45"/>
         <v>2.1605579896022443E-2</v>
       </c>
       <c r="O183" s="4">
         <v>9.3826409999999996</v>
       </c>
       <c r="P183" s="3">
-        <f>O183/E183*100000</f>
+        <f t="shared" si="46"/>
         <v>4.4829295046577089</v>
       </c>
       <c r="Q183" s="7">
@@ -12030,15 +12043,15 @@
         <v>355.92</v>
       </c>
       <c r="I184" s="3">
-        <f>H184/E184*100000</f>
+        <f t="shared" si="41"/>
         <v>159.17140710529142</v>
       </c>
       <c r="J184" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>73849.64</v>
       </c>
       <c r="K184" s="3">
-        <f>J184/E184*100000</f>
+        <f t="shared" si="44"/>
         <v>33026.385460269761</v>
       </c>
       <c r="L184" s="8">
@@ -12049,14 +12062,14 @@
         <v>0.19342599999999999</v>
       </c>
       <c r="N184" s="3">
-        <f>M184/E184*100000</f>
+        <f t="shared" si="45"/>
         <v>8.6502271832850336E-2</v>
       </c>
       <c r="O184" s="4">
         <v>40.133850000000002</v>
       </c>
       <c r="P184" s="3">
-        <f>O184/E184*100000</f>
+        <f t="shared" si="46"/>
         <v>17.948306858430826</v>
       </c>
       <c r="Q184" s="7">
@@ -12090,15 +12103,15 @@
         <v>134.249</v>
       </c>
       <c r="I185" s="3">
-        <f>H185/E185*100000</f>
+        <f t="shared" si="41"/>
         <v>327.93008014499867</v>
       </c>
       <c r="J185" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>26732.190999999999</v>
       </c>
       <c r="K185" s="3">
-        <f>J185/E185*100000</f>
+        <f t="shared" si="44"/>
         <v>65298.732482785061</v>
       </c>
       <c r="L185" s="7">
@@ -12108,14 +12121,14 @@
         <v>0.87513819999999998</v>
       </c>
       <c r="N185" s="3">
-        <f>M185/E185*100000</f>
+        <f t="shared" si="45"/>
         <v>2.137700393030487</v>
       </c>
       <c r="O185" s="4">
         <v>174.261</v>
       </c>
       <c r="P185" s="3">
-        <f>O185/E185*100000</f>
+        <f t="shared" si="46"/>
         <v>425.66740680487464</v>
       </c>
       <c r="Q185" s="7">
@@ -12148,15 +12161,15 @@
         <v>1963.3910000000001</v>
       </c>
       <c r="I186" s="3">
-        <f>H186/E186*100000</f>
+        <f t="shared" si="41"/>
         <v>327.92994152384739</v>
       </c>
       <c r="J186" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>390958.20899999997</v>
       </c>
       <c r="K186" s="3">
-        <f>J186/E186*100000</f>
+        <f t="shared" si="44"/>
         <v>65298.711573822075</v>
       </c>
       <c r="L186" s="7">
@@ -12166,14 +12179,14 @@
         <v>0.26671660000000003</v>
       </c>
       <c r="N186" s="3">
-        <f>M186/E186*100000</f>
+        <f t="shared" si="45"/>
         <v>4.4547601084775984E-2</v>
       </c>
       <c r="O186" s="4">
         <v>53.109670000000001</v>
       </c>
       <c r="P186" s="3">
-        <f>O186/E186*100000</f>
+        <f t="shared" si="46"/>
         <v>8.8704954731130137</v>
       </c>
       <c r="Q186" s="7">
@@ -12206,15 +12219,15 @@
         <v>2097.64</v>
       </c>
       <c r="I187" s="3">
-        <f>H187/E187*100000</f>
+        <f t="shared" si="41"/>
         <v>327.92995039560014</v>
       </c>
       <c r="J187" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>417690.45999999996</v>
       </c>
       <c r="K187" s="3">
-        <f>J187/E187*100000</f>
+        <f t="shared" si="44"/>
         <v>65298.722291964019</v>
       </c>
       <c r="L187" s="8">
@@ -12225,14 +12238,14 @@
         <v>1.1418550000000001</v>
       </c>
       <c r="N187" s="3">
-        <f>M187/E187*100000</f>
+        <f t="shared" si="45"/>
         <v>0.17850939794672491</v>
       </c>
       <c r="O187" s="4">
         <v>227.3707</v>
       </c>
       <c r="P187" s="3">
-        <f>O187/E187*100000</f>
+        <f t="shared" si="46"/>
         <v>35.54549988196873</v>
       </c>
       <c r="Q187" s="7">
@@ -12266,15 +12279,15 @@
         <v>486.58179999999999</v>
       </c>
       <c r="I188" s="3">
-        <f>H188/E188*100000</f>
+        <f t="shared" si="41"/>
         <v>151.18416803310242</v>
       </c>
       <c r="J188" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>98264.978199999998</v>
       </c>
       <c r="K188" s="3">
-        <f>J188/E188*100000</f>
+        <f t="shared" si="44"/>
         <v>30531.57552534424</v>
       </c>
       <c r="L188" s="7">
@@ -12284,14 +12297,14 @@
         <v>6.2846099999999998</v>
       </c>
       <c r="N188" s="3">
-        <f>M188/E188*100000</f>
+        <f t="shared" si="45"/>
         <v>1.9526696934873353</v>
       </c>
       <c r="O188" s="4">
         <v>1269.174</v>
       </c>
       <c r="P188" s="3">
-        <f>O188/E188*100000</f>
+        <f t="shared" si="46"/>
         <v>394.34071574243995</v>
       </c>
       <c r="Q188" s="7">
@@ -12324,15 +12337,15 @@
         <v>2892.4580000000001</v>
       </c>
       <c r="I189" s="3">
-        <f>H189/E189*100000</f>
+        <f t="shared" si="41"/>
         <v>151.18414525546635</v>
       </c>
       <c r="J189" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>584130.74199999997</v>
       </c>
       <c r="K189" s="3">
-        <f>J189/E189*100000</f>
+        <f t="shared" si="44"/>
         <v>30531.577968188762</v>
       </c>
       <c r="L189" s="7">
@@ -12342,14 +12355,14 @@
         <v>0.87547229999999998</v>
       </c>
       <c r="N189" s="3">
-        <f>M189/E189*100000</f>
+        <f t="shared" si="45"/>
         <v>4.5759534406493441E-2</v>
       </c>
       <c r="O189" s="4">
         <v>176.8013</v>
       </c>
       <c r="P189" s="3">
-        <f>O189/E189*100000</f>
+        <f t="shared" si="46"/>
         <v>9.2411206733357165</v>
       </c>
       <c r="Q189" s="7">
@@ -12382,15 +12395,15 @@
         <v>3379.04</v>
       </c>
       <c r="I190" s="3">
-        <f>H190/E190*100000</f>
+        <f t="shared" si="41"/>
         <v>151.18415748379567</v>
       </c>
       <c r="J190" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>682395.65999999992</v>
       </c>
       <c r="K190" s="3">
-        <f>J190/E190*100000</f>
+        <f t="shared" si="44"/>
         <v>30531.574922965894</v>
       </c>
       <c r="L190" s="8">
@@ -12401,14 +12414,14 @@
         <v>7.1600820000000001</v>
       </c>
       <c r="N190" s="3">
-        <f>M190/E190*100000</f>
+        <f t="shared" si="45"/>
         <v>0.3203545873043499</v>
       </c>
       <c r="O190" s="4">
         <v>1445.9760000000001</v>
       </c>
       <c r="P190" s="3">
-        <f>O190/E190*100000</f>
+        <f t="shared" si="46"/>
         <v>64.69549437171176</v>
       </c>
       <c r="Q190" s="7">
@@ -12442,15 +12455,15 @@
         <v>190.1978</v>
       </c>
       <c r="I191" s="3">
-        <f>H191/E191*100000</f>
+        <f t="shared" si="41"/>
         <v>120.39229860167347</v>
       </c>
       <c r="J191" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>34902.182199999996</v>
       </c>
       <c r="K191" s="3">
-        <f>J191/E191*100000</f>
+        <f t="shared" si="44"/>
         <v>22092.547554558532</v>
       </c>
       <c r="L191" s="7">
@@ -12460,14 +12473,14 @@
         <v>5.0063259999999996</v>
       </c>
       <c r="N191" s="3">
-        <f>M191/E191*100000</f>
+        <f t="shared" si="45"/>
         <v>3.1689277935355804</v>
       </c>
       <c r="O191" s="4">
         <v>918.68430000000001</v>
       </c>
       <c r="P191" s="3">
-        <f>O191/E191*100000</f>
+        <f t="shared" si="46"/>
         <v>581.51311196170184</v>
       </c>
       <c r="Q191" s="7">
@@ -12500,15 +12513,15 @@
         <v>181.28219999999999</v>
       </c>
       <c r="I192" s="3">
-        <f>H192/E192*100000</f>
+        <f t="shared" si="41"/>
         <v>120.39225296411188</v>
       </c>
       <c r="J192" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>33266.137799999997</v>
       </c>
       <c r="K192" s="3">
-        <f>J192/E192*100000</f>
+        <f t="shared" si="44"/>
         <v>22092.545639652457</v>
       </c>
       <c r="L192" s="7">
@@ -12518,14 +12531,14 @@
         <v>0.62664500000000001</v>
       </c>
       <c r="N192" s="3">
-        <f>M192/E192*100000</f>
+        <f t="shared" si="45"/>
         <v>0.41616442959483002</v>
       </c>
       <c r="O192" s="4">
         <v>114.9923</v>
       </c>
       <c r="P192" s="3">
-        <f>O192/E192*100000</f>
+        <f t="shared" si="46"/>
         <v>76.368126989439915</v>
       </c>
       <c r="Q192" s="7">
@@ -12558,15 +12571,15 @@
         <v>371.48</v>
       </c>
       <c r="I193" s="3">
-        <f>H193/E193*100000</f>
+        <f t="shared" si="41"/>
         <v>120.39227633054402</v>
       </c>
       <c r="J193" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>68168.320000000007</v>
       </c>
       <c r="K193" s="3">
-        <f>J193/E193*100000</f>
+        <f t="shared" si="44"/>
         <v>22092.546620084395</v>
       </c>
       <c r="L193" s="8">
@@ -12577,14 +12590,14 @@
         <v>5.6329710000000004</v>
       </c>
       <c r="N193" s="3">
-        <f>M193/E193*100000</f>
+        <f t="shared" si="45"/>
         <v>1.8255793076180167</v>
       </c>
       <c r="O193" s="4">
         <v>1033.6769999999999</v>
       </c>
       <c r="P193" s="3">
-        <f>O193/E193*100000</f>
+        <f t="shared" si="46"/>
         <v>335.00249547896988</v>
       </c>
       <c r="Q193" s="7">
@@ -12613,23 +12626,23 @@
         <v>495764844</v>
       </c>
       <c r="G194" s="8">
-        <f t="shared" ref="G194:H196" si="24">G182+G185+G188+G191</f>
+        <f t="shared" ref="G194:H196" si="49">G182+G185+G188+G191</f>
         <v>2604059.89</v>
       </c>
       <c r="H194" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>833.80748000000006</v>
       </c>
       <c r="I194" s="3">
-        <f>H194/E194*100000</f>
+        <f t="shared" ref="I194:I225" si="50">H194/E194*100000</f>
         <v>155.82915514163292</v>
       </c>
       <c r="J194" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>164625.72852</v>
       </c>
       <c r="K194" s="3">
-        <f>J194/E194*100000</f>
+        <f t="shared" si="44"/>
         <v>30766.680325112244</v>
       </c>
       <c r="L194" s="8">
@@ -12641,7 +12654,7 @@
         <v>12.3142803</v>
       </c>
       <c r="N194" s="3">
-        <f>M194/E194*100000</f>
+        <f t="shared" si="45"/>
         <v>2.3013992334612472</v>
       </c>
       <c r="O194" s="3">
@@ -12649,7 +12662,7 @@
         <v>2392.8705099999997</v>
       </c>
       <c r="P194" s="3">
-        <f>O194/E194*100000</f>
+        <f t="shared" si="46"/>
         <v>447.20034166235627</v>
       </c>
       <c r="Q194" s="7">
@@ -12678,23 +12691,23 @@
         <v>371832979</v>
       </c>
       <c r="G195" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>2146782.17</v>
       </c>
       <c r="H195" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>5370.2722999999996</v>
       </c>
       <c r="I195" s="3">
-        <f>H195/E195*100000</f>
+        <f t="shared" si="50"/>
         <v>187.00034765327837</v>
       </c>
       <c r="J195" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>1077478.3476999998</v>
       </c>
       <c r="K195" s="3">
-        <f>J195/E195*100000</f>
+        <f t="shared" si="44"/>
         <v>37519.29406052277</v>
       </c>
       <c r="L195" s="8">
@@ -12706,7 +12719,7 @@
         <v>1.8140537499999998</v>
       </c>
       <c r="N195" s="3">
-        <f>M195/E195*100000</f>
+        <f t="shared" si="45"/>
         <v>6.3167873612616124E-2</v>
       </c>
       <c r="O195" s="3">
@@ -12714,7 +12727,7 @@
         <v>354.285911</v>
       </c>
       <c r="P195" s="3">
-        <f>O195/E195*100000</f>
+        <f t="shared" si="46"/>
         <v>12.336727976653707</v>
       </c>
       <c r="Q195" s="7">
@@ -12743,23 +12756,23 @@
         <v>867597823</v>
       </c>
       <c r="G196" s="8">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>4750841.8</v>
       </c>
       <c r="H196" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="49"/>
         <v>6204.08</v>
       </c>
       <c r="I196" s="3">
-        <f>H196/E196*100000</f>
+        <f t="shared" si="50"/>
         <v>182.1046612791308</v>
       </c>
       <c r="J196" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="48"/>
         <v>1242104.0799999998</v>
       </c>
       <c r="K196" s="3">
-        <f>J196/E196*100000</f>
+        <f t="shared" si="44"/>
         <v>36458.740500094507</v>
       </c>
       <c r="L196" s="8">
@@ -12771,7 +12784,7 @@
         <v>14.128334000000002</v>
       </c>
       <c r="N196" s="3">
-        <f>M196/E196*100000</f>
+        <f t="shared" si="45"/>
         <v>0.41470056438802005</v>
       </c>
       <c r="O196" s="3">
@@ -12779,7 +12792,7 @@
         <v>2747.1575499999999</v>
       </c>
       <c r="P196" s="3">
-        <f>O196/E196*100000</f>
+        <f t="shared" si="46"/>
         <v>80.635677670687159</v>
       </c>
       <c r="Q196" s="7">

--- a/df/icer-all.xlsx
+++ b/df/icer-all.xlsx
@@ -5,25 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gkang/git/economic-influenza/df/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gloriakang/git/economic-influenza/df/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9BD17DEE-9B2B-5A46-9FE5-79F80BBB8839}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084DB7AC-C905-5F48-813F-81C38F4EEF02}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="440" windowWidth="37480" windowHeight="28360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1960" yWindow="440" windowWidth="26420" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="icer-all" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'icer-all'!$A$1:$V$196</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="73">
   <si>
     <t>scenario</t>
   </si>
@@ -122,6 +123,126 @@
   </si>
   <si>
     <t>c.costs</t>
+  </si>
+  <si>
+    <t>basevax 20%</t>
+  </si>
+  <si>
+    <t>Clinical costs in age group (high, low, all)</t>
+  </si>
+  <si>
+    <t>Total clinical costs in scenario (high, low, all)</t>
+  </si>
+  <si>
+    <t>Number of cases in age group (high, low, all)</t>
+  </si>
+  <si>
+    <t>Total number of cases in scenario (high, low, all)</t>
+  </si>
+  <si>
+    <t>Cost difference in age group (high, low, all)</t>
+  </si>
+  <si>
+    <t>Total cost difference in scenario (high, low, all)</t>
+  </si>
+  <si>
+    <t>Cases averted in age group (high, low, all)</t>
+  </si>
+  <si>
+    <t>Total cases averted in scenario (high, low, all)</t>
+  </si>
+  <si>
+    <t>ICER per case averted in age group (high, low, all)</t>
+  </si>
+  <si>
+    <t>Total ICER per case averted in scenario (high, low, all)</t>
+  </si>
+  <si>
+    <t>Deaths in age group (high, low, all)</t>
+  </si>
+  <si>
+    <t>Total deaths in scenario (high, low, all)</t>
+  </si>
+  <si>
+    <t>Deaths averted (high, low, all)</t>
+  </si>
+  <si>
+    <t>Total deaths averted in scenario</t>
+  </si>
+  <si>
+    <t>ICER per death averted (high, low, all)</t>
+  </si>
+  <si>
+    <t>Total ICER per death averted in scenario</t>
+  </si>
+  <si>
+    <t>Other health outcomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  45.37909 2956.81922  288.35711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  181.3398 24686.0525 23565.5677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  275.3765 10540.8690  9143.9718</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1097.23 149740.65 142955.82</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1080.844 45436.132 26298.058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  2936.886 154115.501 281323.520</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1218.107 16096.674  6029.310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  323.5816  8734.7032 13714.0465</t>
+  </si>
+  <si>
+    <t>DALYs (high, low, all)</t>
+  </si>
+  <si>
+    <t>1671.1737  556.2888 2227.4625</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8860.115  2981.709 11841.824</t>
+  </si>
+  <si>
+    <t>37135.015  5591.909 42726.924</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9047.702  1151.922 10199.624</t>
+  </si>
+  <si>
+    <t>Total DALYs in scenario (high, low, all)</t>
+  </si>
+  <si>
+    <t>DALYs averted (high, low, all)</t>
+  </si>
+  <si>
+    <t>725.0862 241.3617 966.4479</t>
+  </si>
+  <si>
+    <t>2987.853 1005.507 3993.359</t>
+  </si>
+  <si>
+    <t>12576.923  1893.873 14470.795</t>
+  </si>
+  <si>
+    <t>4195.3968  534.1431 4729.5399</t>
+  </si>
+  <si>
+    <t>Total DALYs averted in scenario</t>
+  </si>
+  <si>
+    <t>ICER per DALY averted (high, low, all)</t>
+  </si>
+  <si>
+    <t>ICER per DALY averted in scenario</t>
   </si>
 </sst>
 </file>
@@ -999,11 +1120,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:V207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="6" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F15" sqref="F15"/>
+      <selection pane="topRight" activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1100,7 +1222,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>30</v>
       </c>
@@ -1160,7 +1282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>30</v>
       </c>
@@ -1220,7 +1342,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
@@ -1280,7 +1402,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
@@ -1340,7 +1462,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>30</v>
       </c>
@@ -1400,7 +1522,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>30</v>
       </c>
@@ -1460,7 +1582,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
@@ -1520,7 +1642,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
@@ -1580,7 +1702,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
@@ -1640,7 +1762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
@@ -1700,7 +1822,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
@@ -1760,7 +1882,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
@@ -1820,7 +1942,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
@@ -1883,7 +2005,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
@@ -1946,7 +2068,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>30</v>
       </c>
@@ -2009,7 +2131,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -2067,7 +2189,7 @@
         <v>189181.4</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2125,7 +2247,7 @@
         <v>21061.69</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -2185,7 +2307,7 @@
         <v>149877.73566350737</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -2243,7 +2365,7 @@
         <v>433058.6</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -2301,7 +2423,7 @@
         <v>1025455</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -2361,7 +2483,7 @@
         <v>571431.73997902405</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -2419,7 +2541,7 @@
         <v>166246.5</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -2477,7 +2599,7 @@
         <v>619594.4</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2537,7 +2659,7 @@
         <v>221677.88514274888</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
@@ -2595,7 +2717,7 @@
         <v>180755.1</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -2653,7 +2775,7 @@
         <v>108151.3</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -2713,7 +2835,7 @@
         <v>172678.15076033815</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -2779,7 +2901,7 @@
       </c>
       <c r="V29" s="6"/>
     </row>
-    <row r="30" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -2845,7 +2967,7 @@
       </c>
       <c r="V30" s="6"/>
     </row>
-    <row r="31" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -2968,8 +3090,11 @@
       <c r="Q32" s="7">
         <v>211404.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V32">
+        <v>2726.0279999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
@@ -3026,8 +3151,11 @@
       <c r="Q33" s="7">
         <v>1086271</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V33">
+        <v>12839.22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
@@ -3086,8 +3214,11 @@
         <f>F34/O34</f>
         <v>415933.90293591726</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V34">
+        <v>5251.7060000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>21</v>
       </c>
@@ -3144,8 +3275,11 @@
       <c r="Q35" s="7">
         <v>447465.7</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V35">
+        <v>6614.4179999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>21</v>
       </c>
@@ -3202,8 +3336,11 @@
       <c r="Q36" s="7">
         <v>1716806</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V36">
+        <v>22982.67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>21</v>
       </c>
@@ -3262,8 +3399,11 @@
         <f>F37/O37</f>
         <v>743960.58090926288</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V37">
+        <v>10735.86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>21</v>
       </c>
@@ -3320,8 +3460,11 @@
       <c r="Q38" s="7">
         <v>176012.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V38">
+        <v>4515.9480000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>21</v>
       </c>
@@ -3378,8 +3521,11 @@
       <c r="Q39" s="7">
         <v>1036326</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V39">
+        <v>24597.43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>21</v>
       </c>
@@ -3438,8 +3584,11 @@
         <f>F40/O40</f>
         <v>281204.03658495122</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V40">
+        <v>7144.1229999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>21</v>
       </c>
@@ -3496,8 +3645,11 @@
       <c r="Q41" s="7">
         <v>190135.4</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V41">
+        <v>13261.72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
@@ -3554,8 +3706,11 @@
       <c r="Q42" s="7">
         <v>179578.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V42">
+        <v>12314.28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>21</v>
       </c>
@@ -3614,8 +3769,11 @@
         <f>F43/O43</f>
         <v>188960.95360421611</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="V43">
+        <v>13154.72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>21</v>
       </c>
@@ -3679,8 +3837,17 @@
         <f>F44/O44</f>
         <v>200611.76612526106</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R44">
+        <v>56714.01</v>
+      </c>
+      <c r="T44">
+        <v>20485.259999999998</v>
+      </c>
+      <c r="V44">
+        <v>6549.8029999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>21</v>
       </c>
@@ -3744,8 +3911,17 @@
         <f>F45/O45</f>
         <v>810786.13075867551</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R45">
+        <v>10281.83</v>
+      </c>
+      <c r="T45">
+        <v>3674.8850000000002</v>
+      </c>
+      <c r="V45">
+        <v>21597.99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>21</v>
       </c>
@@ -3809,8 +3985,17 @@
         <f>F46/O46</f>
         <v>278517.36443298601</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R46">
+        <v>66995.83</v>
+      </c>
+      <c r="T46">
+        <v>24160.14</v>
+      </c>
+      <c r="V46">
+        <v>8838.7119999999995</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>21</v>
       </c>
@@ -3868,7 +4053,7 @@
         <v>218743.1</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
@@ -3926,7 +4111,7 @@
         <v>1438037</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>21</v>
       </c>
@@ -3986,7 +4171,7 @@
         <v>503793.98127002403</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>21</v>
       </c>
@@ -4044,7 +4229,7 @@
         <v>452194.6</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>21</v>
       </c>
@@ -4102,7 +4287,7 @@
         <v>1943734</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>21</v>
       </c>
@@ -4162,7 +4347,7 @@
         <v>800591.19808364054</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>21</v>
       </c>
@@ -4220,7 +4405,7 @@
         <v>179232.9</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>21</v>
       </c>
@@ -4278,7 +4463,7 @@
         <v>1173755</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>21</v>
       </c>
@@ -4338,7 +4523,7 @@
         <v>300834.37861661002</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>21</v>
       </c>
@@ -4396,7 +4581,7 @@
         <v>193257.1</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>21</v>
       </c>
@@ -4454,7 +4639,7 @@
         <v>203349.7</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>21</v>
       </c>
@@ -4514,7 +4699,7 @@
         <v>194379.8960205871</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>21</v>
       </c>
@@ -4579,7 +4764,7 @@
         <v>204285.20918528966</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>21</v>
       </c>
@@ -4644,7 +4829,7 @@
         <v>934107.56410006643</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>21</v>
       </c>
@@ -4709,7 +4894,7 @@
         <v>297674.12982735288</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>21</v>
       </c>
@@ -4767,7 +4952,7 @@
         <v>222389.7</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>21</v>
       </c>
@@ -4825,7 +5010,7 @@
         <v>1612828</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>21</v>
       </c>
@@ -4885,7 +5070,7 @@
         <v>547451.55978794897</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>21</v>
       </c>
@@ -4943,7 +5128,7 @@
         <v>454575.3</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>21</v>
       </c>
@@ -5001,7 +5186,7 @@
         <v>2057975</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>21</v>
       </c>
@@ -5061,7 +5246,7 @@
         <v>829100.14549640461</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>21</v>
       </c>
@@ -5119,7 +5304,7 @@
         <v>180854.9</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>21</v>
       </c>
@@ -5177,7 +5362,7 @@
         <v>1242969</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>21</v>
       </c>
@@ -5237,7 +5422,7 @@
         <v>310720.97952528438</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>21</v>
       </c>
@@ -5295,7 +5480,7 @@
         <v>194790.39999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>21</v>
       </c>
@@ -5353,7 +5538,7 @@
         <v>215025.1</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>21</v>
       </c>
@@ -5413,7 +5598,7 @@
         <v>197041.46417300336</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>21</v>
       </c>
@@ -5478,7 +5663,7 @@
         <v>206339.97098793313</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>21</v>
       </c>
@@ -5543,7 +5728,7 @@
         <v>1004194.5408944717</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>21</v>
       </c>
@@ -5608,7 +5793,7 @@
         <v>308702.68638342427</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>21</v>
       </c>
@@ -5666,7 +5851,7 @@
         <v>224546.2</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>21</v>
       </c>
@@ -5724,7 +5909,7 @@
         <v>1716198</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>21</v>
       </c>
@@ -5784,7 +5969,7 @@
         <v>573270.09401202679</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>21</v>
       </c>
@@ -5842,7 +6027,7 @@
         <v>455988.9</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>21</v>
       </c>
@@ -5900,7 +6085,7 @@
         <v>2125807</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>21</v>
       </c>
@@ -5960,7 +6145,7 @@
         <v>846028.36815677618</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>21</v>
       </c>
@@ -6018,7 +6203,7 @@
         <v>181836.3</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>21</v>
       </c>
@@ -6076,7 +6261,7 @@
         <v>1284849</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>21</v>
       </c>
@@ -6136,7 +6321,7 @@
         <v>316703.06258847646</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>21</v>
       </c>
@@ -6194,7 +6379,7 @@
         <v>195702.2</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>21</v>
       </c>
@@ -6252,7 +6437,7 @@
         <v>221967.9</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>21</v>
       </c>
@@ -6312,7 +6497,7 @@
         <v>198624.15617811034</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>21</v>
       </c>
@@ -6377,7 +6562,7 @@
         <v>207673.44582173615</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>21</v>
       </c>
@@ -6442,7 +6627,7 @@
         <v>1052281.6324889271</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>21</v>
       </c>
@@ -6507,7 +6692,7 @@
         <v>316301.36898928916</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>21</v>
       </c>
@@ -6565,7 +6750,7 @@
         <v>226064.2</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>21</v>
       </c>
@@ -6623,7 +6808,7 @@
         <v>1788960</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>21</v>
       </c>
@@ -6683,7 +6868,7 @@
         <v>591443.95498197502</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>21</v>
       </c>
@@ -6741,7 +6926,7 @@
         <v>456981.7</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>21</v>
       </c>
@@ -6799,7 +6984,7 @@
         <v>2173449</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>21</v>
       </c>
@@ -6859,7 +7044,7 @@
         <v>857917.14432643144</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>21</v>
       </c>
@@ -6917,7 +7102,7 @@
         <v>182571.5</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>21</v>
       </c>
@@ -6975,7 +7160,7 @@
         <v>1316220</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>21</v>
       </c>
@@ -7035,7 +7220,7 @@
         <v>321184.15439493896</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>21</v>
       </c>
@@ -7093,7 +7278,7 @@
         <v>196365</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>21</v>
       </c>
@@ -7151,7 +7336,7 @@
         <v>227014.7</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>21</v>
       </c>
@@ -7211,7 +7396,7 @@
         <v>199774.6568447453</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>21</v>
       </c>
@@ -7276,7 +7461,7 @@
         <v>208529.9569745074</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>21</v>
       </c>
@@ -7341,7 +7526,7 @@
         <v>1092143.3918786701</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>21</v>
       </c>
@@ -7406,7 +7591,7 @@
         <v>322386.30715744023</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>29</v>
       </c>
@@ -7464,7 +7649,7 @@
         <v>193555</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>29</v>
       </c>
@@ -7522,7 +7707,7 @@
         <v>230699.8</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>29</v>
       </c>
@@ -7582,7 +7767,7 @@
         <v>202238.86023535507</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>29</v>
       </c>
@@ -7640,7 +7825,7 @@
         <v>435095.8</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>29</v>
       </c>
@@ -7698,7 +7883,7 @@
         <v>1123213</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>29</v>
       </c>
@@ -7758,7 +7943,7 @@
         <v>595827.45419597358</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>29</v>
       </c>
@@ -7816,7 +8001,7 @@
         <v>163294.29999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>29</v>
       </c>
@@ -7874,7 +8059,7 @@
         <v>493617.3</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>29</v>
       </c>
@@ -7934,7 +8119,7 @@
         <v>203683.33167084097</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>29</v>
       </c>
@@ -7992,7 +8177,7 @@
         <v>185707.1</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>29</v>
       </c>
@@ -8050,7 +8235,7 @@
         <v>145859.29999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>29</v>
       </c>
@@ -8110,7 +8295,7 @@
         <v>181274.25290108184</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>29</v>
       </c>
@@ -8175,7 +8360,7 @@
         <v>188282.43617831374</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>29</v>
       </c>
@@ -8240,7 +8425,7 @@
         <v>441067.64676208555</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>29</v>
       </c>
@@ -8305,7 +8490,7 @@
         <v>220333.32151618152</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>29</v>
       </c>
@@ -8363,7 +8548,7 @@
         <v>213713</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>29</v>
       </c>
@@ -8421,7 +8606,7 @@
         <v>1196930</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>29</v>
       </c>
@@ -8481,7 +8666,7 @@
         <v>443573.09660377604</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>29</v>
       </c>
@@ -8539,7 +8724,7 @@
         <v>448775.8</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>29</v>
       </c>
@@ -8597,7 +8782,7 @@
         <v>1779673</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>29</v>
       </c>
@@ -8657,7 +8842,7 @@
         <v>759649.16848166287</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>29</v>
       </c>
@@ -8715,7 +8900,7 @@
         <v>174389.6</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>29</v>
       </c>
@@ -8773,7 +8958,7 @@
         <v>967080.8</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>29</v>
       </c>
@@ -8833,7 +9018,7 @@
         <v>271312.97960994893</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>29</v>
       </c>
@@ -8891,7 +9076,7 @@
         <v>192673.2</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>29</v>
       </c>
@@ -8949,7 +9134,7 @@
         <v>198903.4</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>29</v>
       </c>
@@ -9009,7 +9194,7 @@
         <v>193366.29353623415</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>29</v>
       </c>
@@ -9074,7 +9259,7 @@
         <v>198839.78158165168</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>29</v>
       </c>
@@ -9139,7 +9324,7 @@
         <v>814103.42667473073</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>29</v>
       </c>
@@ -9204,7 +9389,7 @@
         <v>277166.26535959402</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>29</v>
       </c>
@@ -9262,7 +9447,7 @@
         <v>220407.2</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>29</v>
       </c>
@@ -9320,7 +9505,7 @@
         <v>1517803</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>29</v>
       </c>
@@ -9380,7 +9565,7 @@
         <v>523717.18575947953</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>29</v>
       </c>
@@ -9438,7 +9623,7 @@
         <v>453413.6</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>29</v>
       </c>
@@ -9496,7 +9681,7 @@
         <v>2002226</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>29</v>
       </c>
@@ -9556,7 +9741,7 @@
         <v>815188.28463740193</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>29</v>
       </c>
@@ -9614,7 +9799,7 @@
         <v>178086.8</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>29</v>
       </c>
@@ -9672,7 +9857,7 @@
         <v>1124850</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>29</v>
       </c>
@@ -9732,7 +9917,7 @@
         <v>293848.82533809962</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>29</v>
       </c>
@@ -9790,7 +9975,7 @@
         <v>195006.5</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>29</v>
       </c>
@@ -9848,7 +10033,7 @@
         <v>216670.3</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>29</v>
       </c>
@@ -9908,7 +10093,7 @@
         <v>197416.52994543259</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>29</v>
       </c>
@@ -9973,7 +10158,7 @@
         <v>203236.77509651534</v>
       </c>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>29</v>
       </c>
@@ -10038,7 +10223,7 @@
         <v>950237.22562026838</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>29</v>
       </c>
@@ -10103,7 +10288,7 @@
         <v>298802.87472502299</v>
       </c>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>29</v>
       </c>
@@ -10161,7 +10346,7 @@
         <v>223773.5</v>
       </c>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>29</v>
       </c>
@@ -10219,7 +10404,7 @@
         <v>1679161</v>
       </c>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>29</v>
       </c>
@@ -10279,7 +10464,7 @@
         <v>564019.38048743829</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>29</v>
       </c>
@@ -10337,7 +10522,7 @@
         <v>455817.8</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>29</v>
       </c>
@@ -10395,7 +10580,7 @@
         <v>2117599</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>29</v>
       </c>
@@ -10455,7 +10640,7 @@
         <v>843979.83028215356</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>29</v>
       </c>
@@ -10513,7 +10698,7 @@
         <v>179988.6</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>29</v>
       </c>
@@ -10571,7 +10756,7 @@
         <v>1206004</v>
       </c>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>29</v>
       </c>
@@ -10631,7 +10816,7 @@
         <v>305440.75974431139</v>
       </c>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>29</v>
       </c>
@@ -10689,7 +10874,7 @@
         <v>196197.9</v>
       </c>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>29</v>
       </c>
@@ -10747,7 +10932,7 @@
         <v>225742.7</v>
       </c>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>29</v>
       </c>
@@ -10807,7 +10992,7 @@
         <v>199484.66566606084</v>
       </c>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>29</v>
       </c>
@@ -10872,7 +11057,7 @@
         <v>206370.52867745626</v>
       </c>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>29</v>
       </c>
@@ -10937,7 +11122,7 @@
         <v>1031423.5882118465</v>
       </c>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>29</v>
       </c>
@@ -11002,7 +11187,7 @@
         <v>312560.66696233954</v>
       </c>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>29</v>
       </c>
@@ -11060,7 +11245,7 @@
         <v>224373.2</v>
       </c>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>29</v>
       </c>
@@ -11118,7 +11303,7 @@
         <v>1707906</v>
       </c>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>29</v>
       </c>
@@ -11178,7 +11363,7 @@
         <v>571199.02217758354</v>
       </c>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>29</v>
       </c>
@@ -11236,7 +11421,7 @@
         <v>456254.5</v>
       </c>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>29</v>
       </c>
@@ -11294,7 +11479,7 @@
         <v>2138553</v>
       </c>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>29</v>
       </c>
@@ -11354,7 +11539,7 @@
         <v>849209.04833290807</v>
       </c>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>29</v>
       </c>
@@ -11412,7 +11597,7 @@
         <v>180325.6</v>
       </c>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>29</v>
       </c>
@@ -11470,7 +11655,7 @@
         <v>1220382</v>
       </c>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>29</v>
       </c>
@@ -11530,7 +11715,7 @@
         <v>307494.72537541075</v>
       </c>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>29</v>
       </c>
@@ -11588,7 +11773,7 @@
         <v>196407.7</v>
       </c>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>29</v>
       </c>
@@ -11622,7 +11807,7 @@
         <v>33104.102200000001</v>
       </c>
       <c r="K177" s="3">
-        <f t="shared" ref="K177:K208" si="44">J177/E177*100000</f>
+        <f t="shared" ref="K177:K196" si="44">J177/E177*100000</f>
         <v>21984.93534507091</v>
       </c>
       <c r="L177" s="7">
@@ -11632,21 +11817,21 @@
         <v>1.1867589999999999</v>
       </c>
       <c r="N177" s="3">
-        <f t="shared" ref="N177:N208" si="45">M177/E177*100000</f>
+        <f t="shared" ref="N177:N196" si="45">M177/E177*100000</f>
         <v>0.78814461505562294</v>
       </c>
       <c r="O177" s="4">
         <v>114.43219999999999</v>
       </c>
       <c r="P177" s="3">
-        <f t="shared" ref="P177:P208" si="46">O177/E177*100000</f>
+        <f t="shared" ref="P177:P196" si="46">O177/E177*100000</f>
         <v>75.996156101591026</v>
       </c>
       <c r="Q177" s="7">
         <v>227339.9</v>
       </c>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>29</v>
       </c>
@@ -11706,7 +11891,7 @@
         <v>199848.70149186984</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>29</v>
       </c>
@@ -11771,7 +11956,7 @@
         <v>207122.42698486656</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>29</v>
       </c>
@@ -11836,7 +12021,7 @@
         <v>1048202.3160295318</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>29</v>
       </c>
@@ -11901,7 +12086,7 @@
         <v>315575.41436044086</v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>29</v>
       </c>
@@ -11959,7 +12144,7 @@
         <v>224421.9</v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>29</v>
       </c>
@@ -12017,7 +12202,7 @@
         <v>1710239</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>29</v>
       </c>
@@ -12077,7 +12262,7 @@
         <v>571781.70048475289</v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>29</v>
       </c>
@@ -12135,7 +12320,7 @@
         <v>456288.6</v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>29</v>
       </c>
@@ -12193,7 +12378,7 @@
         <v>2140190</v>
       </c>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>29</v>
       </c>
@@ -12253,7 +12438,7 @@
         <v>849617.34295579861</v>
       </c>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>29</v>
       </c>
@@ -12311,7 +12496,7 @@
         <v>180352</v>
       </c>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>29</v>
       </c>
@@ -12369,7 +12554,7 @@
         <v>1221510</v>
       </c>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>29</v>
       </c>
@@ -12429,7 +12614,7 @@
         <v>307655.64850315632</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>29</v>
       </c>
@@ -12487,7 +12672,7 @@
         <v>196424.6</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>29</v>
       </c>
@@ -12545,7 +12730,7 @@
         <v>227468.3</v>
       </c>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>29</v>
       </c>
@@ -12605,7 +12790,7 @@
         <v>199877.95800815924</v>
       </c>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>29</v>
       </c>
@@ -12634,7 +12819,7 @@
         <v>833.80748000000006</v>
       </c>
       <c r="I194" s="3">
-        <f t="shared" ref="I194:I225" si="50">H194/E194*100000</f>
+        <f t="shared" ref="I194:I196" si="50">H194/E194*100000</f>
         <v>155.82915514163292</v>
       </c>
       <c r="J194" s="3">
@@ -12670,7 +12855,7 @@
         <v>207184.15055397211</v>
       </c>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>29</v>
       </c>
@@ -12735,7 +12920,7 @@
         <v>1049527.9870161137</v>
       </c>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>29</v>
       </c>
@@ -12868,11 +13053,945 @@
       <c r="L207" s="7"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V196" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:V196" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="vaxbase"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="20"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
     <ignoredError sqref="N29" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A17D303-A10D-8341-9ED0-914B7A8C0567}">
+  <dimension ref="A1:A181"/>
+  <sheetViews>
+    <sheetView topLeftCell="A156" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179:A181"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>5037102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>14183322</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>19220424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>60376456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>94442336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>154818793</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>176674947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>190898979</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>367573927</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>126131099</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20040155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>146171253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>368219604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>319564792</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>687784397</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>3312.105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>48439.54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>51751.64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20091.189999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>293833.59999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>313924.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>73767.81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>438508.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>512276.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>23975.16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>22851.32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>46826.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>121146.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>803633.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>924779.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1976605</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3098895</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>5075500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>19762905</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>23109237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>42872142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>56796725</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>46584424</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>103381149</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>55638166</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>6577588</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>62215753</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>134174401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>79370144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>213544545</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1437.0509999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>21016.87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>22453.919999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>6775.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>99088.03</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>105863.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>24983.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>148514.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>173498.3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>11117.22</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>10596.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>21713.32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>44313.27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>279215.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>323528.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>1375.4590000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>147.44800000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>226.04069999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>2916.9259999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>233.2193</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>404.97649999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>2273.346</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>313.66910000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>595.86270000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>5004.683</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>620.75549999999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>2865.3270000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>3027.86</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>284.26119999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>660.048</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>21.54954</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>6.5750770000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>28.124610000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>130.96979999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>39.915790000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>170.88560000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>952.77290000000005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>132.7252</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>1085.498</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>631.06659999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>78.991010000000003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>710.05759999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>1736.3589999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>258.20710000000003</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>1994.566</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>9.3498789999999996</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>2.8527840000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>12.20266</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>44.1663</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109">
+        <v>13.460599999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110">
+        <v>57.626899999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111">
+        <v>322.68599999999998</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112">
+        <v>44.951509999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113">
+        <v>367.63749999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114">
+        <v>292.62400000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115">
+        <v>36.627929999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116">
+        <v>329.25189999999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118">
+        <v>668.82619999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119">
+        <v>97.89282</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120">
+        <v>766.71900000000005</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122">
+        <v>211404.3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123">
+        <v>1086271</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124">
+        <v>415933.8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125">
+        <v>447465.7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126">
+        <v>1716806</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127">
+        <v>743960.6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128">
+        <v>176012.3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>1036326</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130">
+        <v>281204</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131">
+        <v>190135.4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132">
+        <v>179578.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133">
+        <v>188960.9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135">
+        <v>200611.8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136">
+        <v>810786.2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137">
+        <v>278517.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>56714.01</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>10281.83</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>66995.83</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A162">
+        <v>20485.259999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A163">
+        <v>3674.8850000000002</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A164">
+        <v>24160.14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A166">
+        <v>2726.0279999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A167">
+        <v>12839.22</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A168">
+        <v>5251.7060000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169">
+        <v>6614.4179999999997</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170">
+        <v>22982.67</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171">
+        <v>10735.86</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172">
+        <v>4515.9480000000003</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173">
+        <v>24597.43</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A174">
+        <v>7144.1229999999996</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175">
+        <v>13261.72</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176">
+        <v>12314.28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177">
+        <v>13154.72</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179">
+        <v>6549.8029999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180">
+        <v>21597.99</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181">
+        <v>8838.7119999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/df/icer-all.xlsx
+++ b/df/icer-all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gloriakang/git/economic-influenza/df/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gkang/git/economic-influenza/df/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084DB7AC-C905-5F48-813F-81C38F4EEF02}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AB9D6D5B-AB30-F943-B81E-D31399B42443}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="440" windowWidth="26420" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="440" windowWidth="32260" windowHeight="28360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="icer-all" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'icer-all'!$A$1:$V$196</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="88">
   <si>
     <t>scenario</t>
   </si>
@@ -244,6 +244,51 @@
   <si>
     <t>ICER per DALY averted in scenario</t>
   </si>
+  <si>
+    <t>[1] 2439.466</t>
+  </si>
+  <si>
+    <t>[1] 248.9395</t>
+  </si>
+  <si>
+    <t>[1] 1892.402</t>
+  </si>
+  <si>
+    <t>[1] 6401.452</t>
+  </si>
+  <si>
+    <t>[1] 13727.63</t>
+  </si>
+  <si>
+    <t>[1] 8246.151</t>
+  </si>
+  <si>
+    <t>[1] 4265.386</t>
+  </si>
+  <si>
+    <t>[1] 14706.21</t>
+  </si>
+  <si>
+    <t>[1] 5631.835</t>
+  </si>
+  <si>
+    <t>[1] 12607.45</t>
+  </si>
+  <si>
+    <t>[1] 7416.287</t>
+  </si>
+  <si>
+    <t>[1] 12021.17</t>
+  </si>
+  <si>
+    <t>[1] 6265.986</t>
+  </si>
+  <si>
+    <t>[1] 12380.68</t>
+  </si>
+  <si>
+    <t>[1] 7193.463</t>
+  </si>
 </sst>
 </file>
 
@@ -252,7 +297,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -407,6 +452,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -751,7 +802,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -764,6 +815,7 @@
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1121,11 +1173,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:V207"/>
+  <dimension ref="A1:W207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U41" sqref="U41"/>
+      <pane xSplit="6" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S58" sqref="S58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2131,7 +2183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
@@ -2188,8 +2240,17 @@
       <c r="Q17" s="7">
         <v>189181.4</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R17" s="12">
+        <v>2032.7570000000001</v>
+      </c>
+      <c r="T17" s="12">
+        <v>363.50290000000001</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2246,8 +2307,17 @@
       <c r="Q18" s="7">
         <v>21061.69</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R18" s="12">
+        <v>676.65020000000004</v>
+      </c>
+      <c r="T18" s="12">
+        <v>121.0003</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -2306,8 +2376,17 @@
         <f>F19/O19</f>
         <v>149877.73566350737</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R19" s="12">
+        <v>2709.4072000000001</v>
+      </c>
+      <c r="T19" s="12">
+        <v>484.50319999999999</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
@@ -2364,8 +2443,17 @@
       <c r="Q20" s="7">
         <v>433058.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R20" s="12">
+        <v>10400.976000000001</v>
+      </c>
+      <c r="T20" s="12">
+        <v>1446.9916000000001</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -2422,8 +2510,17 @@
       <c r="Q21" s="7">
         <v>1025455</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R21" s="12">
+        <v>3500.2570000000001</v>
+      </c>
+      <c r="T21" s="12">
+        <v>486.95859999999999</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -2482,8 +2579,17 @@
         <f>F22/O22</f>
         <v>571431.73997902405</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R22" s="12">
+        <v>13901.234</v>
+      </c>
+      <c r="T22" s="12">
+        <v>1933.9492</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -2540,8 +2646,17 @@
       <c r="Q23" s="7">
         <v>166246.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R23" s="12">
+        <v>43536.815000000002</v>
+      </c>
+      <c r="T23" s="12">
+        <v>6175.1232</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
@@ -2598,8 +2713,17 @@
       <c r="Q24" s="7">
         <v>619594.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R24" s="12">
+        <v>6555.9120000000003</v>
+      </c>
+      <c r="T24" s="12">
+        <v>929.87009999999998</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2658,8 +2782,17 @@
         <f>F25/O25</f>
         <v>221677.88514274888</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R25" s="12">
+        <v>50092.726999999999</v>
+      </c>
+      <c r="T25" s="12">
+        <v>7104.9921999999997</v>
+      </c>
+      <c r="V25" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
@@ -2716,8 +2849,17 @@
       <c r="Q26" s="7">
         <v>180755.1</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R26" s="12">
+        <v>11106.544</v>
+      </c>
+      <c r="T26" s="12">
+        <v>2136.5545000000002</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>21</v>
       </c>
@@ -2774,8 +2916,17 @@
       <c r="Q27" s="7">
         <v>108151.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R27" s="12">
+        <v>1414.046</v>
+      </c>
+      <c r="T27" s="12">
+        <v>272.01850000000002</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>21</v>
       </c>
@@ -2834,8 +2985,17 @@
         <f>F28/O28</f>
         <v>172678.15076033815</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R28" s="12">
+        <v>12520.591</v>
+      </c>
+      <c r="T28" s="12">
+        <v>2408.5729999999999</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -2899,9 +3059,17 @@
         <f>F29/O29</f>
         <v>190161.70931312168</v>
       </c>
-      <c r="V29" s="6"/>
-    </row>
-    <row r="30" spans="1:22" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R29" s="12">
+        <v>67077.09</v>
+      </c>
+      <c r="T29" s="12">
+        <v>10122.17</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -2965,9 +3133,17 @@
         <f>F30/O30</f>
         <v>460361.82132678333</v>
       </c>
-      <c r="V30" s="6"/>
-    </row>
-    <row r="31" spans="1:22" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="R30" s="12">
+        <v>12146.87</v>
+      </c>
+      <c r="T30" s="12">
+        <v>1809.847</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -3031,9 +3207,17 @@
         <f>F31/O31</f>
         <v>224570.86743330921</v>
       </c>
-      <c r="V31" s="6"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R31" s="12">
+        <v>79223.960000000006</v>
+      </c>
+      <c r="T31" s="12">
+        <v>11932.02</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>21</v>
       </c>
@@ -3090,11 +3274,21 @@
       <c r="Q32" s="7">
         <v>211404.3</v>
       </c>
+      <c r="R32" s="12">
+        <v>1286.3489999999999</v>
+      </c>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12">
+        <v>1109.9109000000001</v>
+      </c>
       <c r="V32">
         <v>2726.0279999999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="12">
+        <v>2755.797</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>21</v>
       </c>
@@ -3151,11 +3345,21 @@
       <c r="Q33" s="7">
         <v>1086271</v>
       </c>
+      <c r="R33" s="12">
+        <v>428.19099999999997</v>
+      </c>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12">
+        <v>369.45949999999999</v>
+      </c>
       <c r="V33">
         <v>12839.22</v>
       </c>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="12">
+        <v>14147.16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
@@ -3214,11 +3418,21 @@
         <f>F34/O34</f>
         <v>415933.90293591726</v>
       </c>
+      <c r="R34" s="12">
+        <v>1714.54</v>
+      </c>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12">
+        <v>1479.3704</v>
+      </c>
       <c r="V34">
         <v>5251.7060000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="12">
+        <v>5600.6880000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>21</v>
       </c>
@@ -3275,11 +3489,21 @@
       <c r="Q35" s="7">
         <v>447465.7</v>
       </c>
+      <c r="R35" s="12">
+        <v>7307.3109999999997</v>
+      </c>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12">
+        <v>4540.6570000000002</v>
+      </c>
       <c r="V35">
         <v>6614.4179999999997</v>
       </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="12">
+        <v>6633.7839999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>21</v>
       </c>
@@ -3336,11 +3560,21 @@
       <c r="Q36" s="7">
         <v>1716806</v>
       </c>
+      <c r="R36" s="12">
+        <v>2459.1410000000001</v>
+      </c>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12">
+        <v>1528.075</v>
+      </c>
       <c r="V36">
         <v>22982.67</v>
       </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W36" s="12">
+        <v>23824.26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>21</v>
       </c>
@@ -3399,11 +3633,21 @@
         <f>F37/O37</f>
         <v>743960.58090926288</v>
       </c>
+      <c r="R37" s="12">
+        <v>9766.4529999999995</v>
+      </c>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12">
+        <v>6068.73</v>
+      </c>
       <c r="V37">
         <v>10735.86</v>
       </c>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W37" s="12">
+        <v>10962.26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>21</v>
       </c>
@@ -3460,11 +3704,21 @@
       <c r="Q38" s="7">
         <v>176012.3</v>
       </c>
+      <c r="R38" s="12">
+        <v>26953.963</v>
+      </c>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12">
+        <v>22757.974999999999</v>
+      </c>
       <c r="V38">
         <v>4515.9480000000003</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W38" s="12">
+        <v>4474.3140000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>21</v>
       </c>
@@ -3521,11 +3775,21 @@
       <c r="Q39" s="7">
         <v>1036326</v>
       </c>
+      <c r="R39" s="12">
+        <v>4058.8130000000001</v>
+      </c>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12">
+        <v>3426.9690000000001</v>
+      </c>
       <c r="V39">
         <v>24597.43</v>
       </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="12">
+        <v>22953.88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>21</v>
       </c>
@@ -3584,11 +3848,21 @@
         <f>F40/O40</f>
         <v>281204.03658495122</v>
       </c>
+      <c r="R40" s="12">
+        <v>31012.776000000002</v>
+      </c>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12">
+        <v>26184.942999999999</v>
+      </c>
       <c r="V40">
         <v>7144.1229999999996</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="12">
+        <v>6892.8370000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>21</v>
       </c>
@@ -3645,11 +3919,21 @@
       <c r="Q41" s="7">
         <v>190135.4</v>
       </c>
+      <c r="R41" s="12">
+        <v>6937.6264000000001</v>
+      </c>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12">
+        <v>6305.4726000000001</v>
+      </c>
       <c r="V41">
         <v>13261.72</v>
       </c>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="12">
+        <v>13438.73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
@@ -3706,11 +3990,21 @@
       <c r="Q42" s="7">
         <v>179578.5</v>
       </c>
+      <c r="R42" s="12">
+        <v>883.27440000000001</v>
+      </c>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12">
+        <v>802.79060000000004</v>
+      </c>
       <c r="V42">
         <v>12314.28</v>
       </c>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="12">
+        <v>13639.45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>21</v>
       </c>
@@ -3769,11 +4063,21 @@
         <f>F43/O43</f>
         <v>188960.95360421611</v>
       </c>
+      <c r="R43" s="12">
+        <v>7820.9008000000003</v>
+      </c>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12">
+        <v>7108.2632000000003</v>
+      </c>
       <c r="V43">
         <v>13154.72</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="12">
+        <v>13461.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>21</v>
       </c>
@@ -3837,17 +4141,21 @@
         <f>F44/O44</f>
         <v>200611.76612526106</v>
       </c>
-      <c r="R44">
-        <v>56714.01</v>
-      </c>
-      <c r="T44">
-        <v>20485.259999999998</v>
+      <c r="R44" s="12">
+        <v>42485.25</v>
+      </c>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12">
+        <v>34714.019999999997</v>
       </c>
       <c r="V44">
         <v>6549.8029999999999</v>
       </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="12">
+        <v>6330.1319999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>21</v>
       </c>
@@ -3911,17 +4219,21 @@
         <f>F45/O45</f>
         <v>810786.13075867551</v>
       </c>
-      <c r="R45">
-        <v>10281.83</v>
-      </c>
-      <c r="T45">
-        <v>3674.8850000000002</v>
+      <c r="R45" s="12">
+        <v>7829.42</v>
+      </c>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12">
+        <v>6127.2929999999997</v>
       </c>
       <c r="V45">
         <v>21597.99</v>
       </c>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="12">
+        <v>21419.56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>21</v>
       </c>
@@ -3985,17 +4297,21 @@
         <f>F46/O46</f>
         <v>278517.36443298601</v>
       </c>
-      <c r="R46">
-        <v>66995.83</v>
-      </c>
-      <c r="T46">
-        <v>24160.14</v>
+      <c r="R46" s="12">
+        <v>50314.67</v>
+      </c>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12">
+        <v>40841.31</v>
       </c>
       <c r="V46">
         <v>8838.7119999999995</v>
       </c>
-    </row>
-    <row r="47" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+      <c r="W46" s="12">
+        <v>8593.9509999999991</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>21</v>
       </c>
@@ -4053,7 +4369,7 @@
         <v>218743.1</v>
       </c>
     </row>
-    <row r="48" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
@@ -4111,7 +4427,7 @@
         <v>1438037</v>
       </c>
     </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>21</v>
       </c>
@@ -4171,7 +4487,7 @@
         <v>503793.98127002403</v>
       </c>
     </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>21</v>
       </c>
@@ -4229,7 +4545,7 @@
         <v>452194.6</v>
       </c>
     </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>21</v>
       </c>
@@ -4287,7 +4603,7 @@
         <v>1943734</v>
       </c>
     </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>21</v>
       </c>
@@ -4347,7 +4663,7 @@
         <v>800591.19808364054</v>
       </c>
     </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>21</v>
       </c>
@@ -4405,7 +4721,7 @@
         <v>179232.9</v>
       </c>
     </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>21</v>
       </c>
@@ -4463,7 +4779,7 @@
         <v>1173755</v>
       </c>
     </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>21</v>
       </c>
@@ -4523,7 +4839,7 @@
         <v>300834.37861661002</v>
       </c>
     </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>21</v>
       </c>
@@ -4581,7 +4897,7 @@
         <v>193257.1</v>
       </c>
     </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>21</v>
       </c>
@@ -4639,7 +4955,7 @@
         <v>203349.7</v>
       </c>
     </row>
-    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>21</v>
       </c>
@@ -4699,7 +5015,7 @@
         <v>194379.8960205871</v>
       </c>
     </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>21</v>
       </c>
@@ -4764,7 +5080,7 @@
         <v>204285.20918528966</v>
       </c>
     </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>21</v>
       </c>
@@ -4829,7 +5145,7 @@
         <v>934107.56410006643</v>
       </c>
     </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>21</v>
       </c>
@@ -4894,7 +5210,7 @@
         <v>297674.12982735288</v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>21</v>
       </c>
@@ -4952,7 +5268,7 @@
         <v>222389.7</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>21</v>
       </c>
@@ -5010,7 +5326,7 @@
         <v>1612828</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>21</v>
       </c>
@@ -5070,7 +5386,7 @@
         <v>547451.55978794897</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>21</v>
       </c>
@@ -5128,7 +5444,7 @@
         <v>454575.3</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>21</v>
       </c>
@@ -5186,7 +5502,7 @@
         <v>2057975</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>21</v>
       </c>
@@ -5246,7 +5562,7 @@
         <v>829100.14549640461</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>21</v>
       </c>
@@ -5304,7 +5620,7 @@
         <v>180854.9</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>21</v>
       </c>
@@ -5362,7 +5678,7 @@
         <v>1242969</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>21</v>
       </c>
@@ -5422,7 +5738,7 @@
         <v>310720.97952528438</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>21</v>
       </c>
@@ -5480,7 +5796,7 @@
         <v>194790.39999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>21</v>
       </c>
@@ -5538,7 +5854,7 @@
         <v>215025.1</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>21</v>
       </c>
@@ -5598,7 +5914,7 @@
         <v>197041.46417300336</v>
       </c>
     </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>21</v>
       </c>
@@ -5663,7 +5979,7 @@
         <v>206339.97098793313</v>
       </c>
     </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>21</v>
       </c>
@@ -5728,7 +6044,7 @@
         <v>1004194.5408944717</v>
       </c>
     </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>21</v>
       </c>
@@ -5793,7 +6109,7 @@
         <v>308702.68638342427</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>21</v>
       </c>
@@ -5851,7 +6167,7 @@
         <v>224546.2</v>
       </c>
     </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>21</v>
       </c>
@@ -5909,7 +6225,7 @@
         <v>1716198</v>
       </c>
     </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>21</v>
       </c>
@@ -5969,7 +6285,7 @@
         <v>573270.09401202679</v>
       </c>
     </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>21</v>
       </c>
@@ -6027,7 +6343,7 @@
         <v>455988.9</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>21</v>
       </c>
@@ -6085,7 +6401,7 @@
         <v>2125807</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>21</v>
       </c>
@@ -6145,7 +6461,7 @@
         <v>846028.36815677618</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>21</v>
       </c>
@@ -6203,7 +6519,7 @@
         <v>181836.3</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>21</v>
       </c>
@@ -6261,7 +6577,7 @@
         <v>1284849</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>21</v>
       </c>
@@ -6321,7 +6637,7 @@
         <v>316703.06258847646</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>21</v>
       </c>
@@ -6379,7 +6695,7 @@
         <v>195702.2</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>21</v>
       </c>
@@ -6437,7 +6753,7 @@
         <v>221967.9</v>
       </c>
     </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>21</v>
       </c>
@@ -6497,7 +6813,7 @@
         <v>198624.15617811034</v>
       </c>
     </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>21</v>
       </c>
@@ -6562,7 +6878,7 @@
         <v>207673.44582173615</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>21</v>
       </c>
@@ -6627,7 +6943,7 @@
         <v>1052281.6324889271</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>21</v>
       </c>
@@ -6692,7 +7008,7 @@
         <v>316301.36898928916</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>21</v>
       </c>
@@ -6750,7 +7066,7 @@
         <v>226064.2</v>
       </c>
     </row>
-    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>21</v>
       </c>
@@ -6808,7 +7124,7 @@
         <v>1788960</v>
       </c>
     </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>21</v>
       </c>
@@ -6868,7 +7184,7 @@
         <v>591443.95498197502</v>
       </c>
     </row>
-    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>21</v>
       </c>
@@ -6926,7 +7242,7 @@
         <v>456981.7</v>
       </c>
     </row>
-    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>21</v>
       </c>
@@ -6984,7 +7300,7 @@
         <v>2173449</v>
       </c>
     </row>
-    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>21</v>
       </c>
@@ -7044,7 +7360,7 @@
         <v>857917.14432643144</v>
       </c>
     </row>
-    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>21</v>
       </c>
@@ -7102,7 +7418,7 @@
         <v>182571.5</v>
       </c>
     </row>
-    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>21</v>
       </c>
@@ -7160,7 +7476,7 @@
         <v>1316220</v>
       </c>
     </row>
-    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>21</v>
       </c>
@@ -7220,7 +7536,7 @@
         <v>321184.15439493896</v>
       </c>
     </row>
-    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>21</v>
       </c>
@@ -7278,7 +7594,7 @@
         <v>196365</v>
       </c>
     </row>
-    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>21</v>
       </c>
@@ -7336,7 +7652,7 @@
         <v>227014.7</v>
       </c>
     </row>
-    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>21</v>
       </c>
@@ -7396,7 +7712,7 @@
         <v>199774.6568447453</v>
       </c>
     </row>
-    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>21</v>
       </c>
@@ -7461,7 +7777,7 @@
         <v>208529.9569745074</v>
       </c>
     </row>
-    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>21</v>
       </c>
@@ -7526,7 +7842,7 @@
         <v>1092143.3918786701</v>
       </c>
     </row>
-    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>21</v>
       </c>
@@ -13057,11 +13373,6 @@
     <filterColumn colId="0">
       <filters>
         <filter val="vaxbase"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="20"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/df/icer-all.xlsx
+++ b/df/icer-all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gkang/git/economic-influenza/df/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AB9D6D5B-AB30-F943-B81E-D31399B42443}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{176590C8-C4A1-1143-AAC6-13905C8F4BAF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="440" windowWidth="32260" windowHeight="28360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1176,8 +1176,8 @@
   <dimension ref="A1:W207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S58" sqref="S58"/>
+      <pane xSplit="6" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U39" sqref="U39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3284,9 +3284,7 @@
       <c r="V32">
         <v>2726.0279999999998</v>
       </c>
-      <c r="W32" s="12">
-        <v>2755.797</v>
-      </c>
+      <c r="W32" s="12"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
@@ -3355,9 +3353,7 @@
       <c r="V33">
         <v>12839.22</v>
       </c>
-      <c r="W33" s="12">
-        <v>14147.16</v>
-      </c>
+      <c r="W33" s="12"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -3428,9 +3424,7 @@
       <c r="V34">
         <v>5251.7060000000001</v>
       </c>
-      <c r="W34" s="12">
-        <v>5600.6880000000001</v>
-      </c>
+      <c r="W34" s="12"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
@@ -3499,9 +3493,7 @@
       <c r="V35">
         <v>6614.4179999999997</v>
       </c>
-      <c r="W35" s="12">
-        <v>6633.7839999999997</v>
-      </c>
+      <c r="W35" s="12"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
@@ -3570,9 +3562,7 @@
       <c r="V36">
         <v>22982.67</v>
       </c>
-      <c r="W36" s="12">
-        <v>23824.26</v>
-      </c>
+      <c r="W36" s="12"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
@@ -3643,9 +3633,7 @@
       <c r="V37">
         <v>10735.86</v>
       </c>
-      <c r="W37" s="12">
-        <v>10962.26</v>
-      </c>
+      <c r="W37" s="12"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
@@ -3714,9 +3702,7 @@
       <c r="V38">
         <v>4515.9480000000003</v>
       </c>
-      <c r="W38" s="12">
-        <v>4474.3140000000003</v>
-      </c>
+      <c r="W38" s="12"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
@@ -3785,9 +3771,7 @@
       <c r="V39">
         <v>24597.43</v>
       </c>
-      <c r="W39" s="12">
-        <v>22953.88</v>
-      </c>
+      <c r="W39" s="12"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
@@ -3858,9 +3842,7 @@
       <c r="V40">
         <v>7144.1229999999996</v>
       </c>
-      <c r="W40" s="12">
-        <v>6892.8370000000004</v>
-      </c>
+      <c r="W40" s="12"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
@@ -3929,9 +3911,7 @@
       <c r="V41">
         <v>13261.72</v>
       </c>
-      <c r="W41" s="12">
-        <v>13438.73</v>
-      </c>
+      <c r="W41" s="12"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
@@ -4000,9 +3980,7 @@
       <c r="V42">
         <v>12314.28</v>
       </c>
-      <c r="W42" s="12">
-        <v>13639.45</v>
-      </c>
+      <c r="W42" s="12"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
@@ -4073,9 +4051,7 @@
       <c r="V43">
         <v>13154.72</v>
       </c>
-      <c r="W43" s="12">
-        <v>13461.4</v>
-      </c>
+      <c r="W43" s="12"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
@@ -4151,9 +4127,7 @@
       <c r="V44">
         <v>6549.8029999999999</v>
       </c>
-      <c r="W44" s="12">
-        <v>6330.1319999999996</v>
-      </c>
+      <c r="W44" s="12"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
@@ -4229,9 +4203,7 @@
       <c r="V45">
         <v>21597.99</v>
       </c>
-      <c r="W45" s="12">
-        <v>21419.56</v>
-      </c>
+      <c r="W45" s="12"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
@@ -4307,9 +4279,7 @@
       <c r="V46">
         <v>8838.7119999999995</v>
       </c>
-      <c r="W46" s="12">
-        <v>8593.9509999999991</v>
-      </c>
+      <c r="W46" s="12"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">

--- a/df/icer-all.xlsx
+++ b/df/icer-all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gkang/git/economic-influenza/df/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CEE7434B-3602-824D-87B3-B5E99D4B814F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7EDF847E-685D-0049-953A-A8BC1B2A744E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4740" yWindow="680" windowWidth="37980" windowHeight="28360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="440" windowWidth="37980" windowHeight="28360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="icer-all" sheetId="1" r:id="rId1"/>
@@ -1119,11 +1119,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:W196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="6" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q202" sqref="Q202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1220,7 +1221,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -1287,7 +1288,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
@@ -1354,7 +1355,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
@@ -1555,7 +1556,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1622,7 +1623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
@@ -1689,7 +1690,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
@@ -1756,7 +1757,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -1823,7 +1824,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1890,7 +1891,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -1957,7 +1958,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -2024,7 +2025,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
@@ -2164,7 +2165,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -2384,7 +2385,7 @@
         <v>248.93950000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -2611,7 +2612,7 @@
         <v>13727.63</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2838,7 +2839,7 @@
         <v>14706.21</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -3065,7 +3066,7 @@
         <v>7416.2870000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
@@ -3306,7 +3307,7 @@
         <v>12380.68</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -3388,7 +3389,7 @@
         <v>7193.4629999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -3464,7 +3465,7 @@
       </c>
       <c r="W32" s="10"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -3540,7 +3541,7 @@
       </c>
       <c r="W33" s="10"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -3618,7 +3619,7 @@
       </c>
       <c r="W34" s="10"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -3694,7 +3695,7 @@
       </c>
       <c r="W35" s="10"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -3770,7 +3771,7 @@
       </c>
       <c r="W36" s="10"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
@@ -3848,7 +3849,7 @@
       </c>
       <c r="W37" s="10"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
@@ -3924,7 +3925,7 @@
       </c>
       <c r="W38" s="10"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>21</v>
       </c>
@@ -4000,7 +4001,7 @@
       </c>
       <c r="W39" s="10"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>21</v>
       </c>
@@ -4078,7 +4079,7 @@
       </c>
       <c r="W40" s="10"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>21</v>
       </c>
@@ -4154,7 +4155,7 @@
       </c>
       <c r="W41" s="10"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
@@ -4230,7 +4231,7 @@
       </c>
       <c r="W42" s="10"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>21</v>
       </c>
@@ -4308,7 +4309,7 @@
       </c>
       <c r="W43" s="10"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>21</v>
       </c>
@@ -4391,7 +4392,7 @@
       </c>
       <c r="W44" s="10"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>21</v>
       </c>
@@ -4474,7 +4475,7 @@
       </c>
       <c r="W45" s="10"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>21</v>
       </c>
@@ -4557,7 +4558,7 @@
       </c>
       <c r="W46" s="10"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>21</v>
       </c>
@@ -4632,7 +4633,7 @@
         <v>2820.66</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>21</v>
       </c>
@@ -4707,7 +4708,7 @@
         <v>16996.93</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>21</v>
       </c>
@@ -4784,7 +4785,7 @@
         <v>6361.0569999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>21</v>
       </c>
@@ -4859,7 +4860,7 @@
         <v>6684.3209999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>21</v>
       </c>
@@ -4934,7 +4935,7 @@
         <v>26020.53</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>21</v>
       </c>
@@ -5011,7 +5012,7 @@
         <v>11553.08</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>21</v>
       </c>
@@ -5086,7 +5087,7 @@
         <v>4598.5770000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>21</v>
       </c>
@@ -5161,7 +5162,7 @@
         <v>27859.34</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>21</v>
       </c>
@@ -5238,7 +5239,7 @@
         <v>7642.8419999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>21</v>
       </c>
@@ -5313,7 +5314,7 @@
         <v>13479.46</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>21</v>
       </c>
@@ -5388,7 +5389,7 @@
         <v>13944.35</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>21</v>
       </c>
@@ -5465,7 +5466,7 @@
         <v>13531.96</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>21</v>
       </c>
@@ -5547,7 +5548,7 @@
         <v>6617.6419999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>21</v>
       </c>
@@ -5629,7 +5630,7 @@
         <v>24683.29</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>21</v>
       </c>
@@ -5711,7 +5712,7 @@
         <v>9371.9680000000008</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>21</v>
       </c>
@@ -5786,7 +5787,7 @@
         <v>2867.6819999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>21</v>
       </c>
@@ -5861,7 +5862,7 @@
         <v>19062.88</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>21</v>
       </c>
@@ -5938,7 +5939,7 @@
         <v>6912.2879999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>21</v>
       </c>
@@ -6013,7 +6014,7 @@
         <v>6719.5119999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>21</v>
       </c>
@@ -6088,7 +6089,7 @@
         <v>27549.86</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>21</v>
       </c>
@@ -6165,7 +6166,7 @@
         <v>11964.49</v>
       </c>
     </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>21</v>
       </c>
@@ -6240,7 +6241,7 @@
         <v>4640.1930000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>21</v>
       </c>
@@ -6315,7 +6316,7 @@
         <v>29502.16</v>
       </c>
     </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>21</v>
       </c>
@@ -6392,7 +6393,7 @@
         <v>7894.0159999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>21</v>
       </c>
@@ -6467,7 +6468,7 @@
         <v>13586.4</v>
       </c>
     </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>21</v>
       </c>
@@ -6542,7 +6543,7 @@
         <v>14744.97</v>
       </c>
     </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>21</v>
       </c>
@@ -6619,7 +6620,7 @@
         <v>13717.25</v>
       </c>
     </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>21</v>
       </c>
@@ -6701,7 +6702,7 @@
         <v>6621.0839999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>21</v>
       </c>
@@ -6783,7 +6784,7 @@
         <v>26281.83</v>
       </c>
     </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>21</v>
       </c>
@@ -6865,7 +6866,7 @@
         <v>9626.5380000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>21</v>
       </c>
@@ -6938,7 +6939,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>21</v>
       </c>
@@ -7011,7 +7012,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>21</v>
       </c>
@@ -7086,7 +7087,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>21</v>
       </c>
@@ -7159,7 +7160,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>21</v>
       </c>
@@ -7232,7 +7233,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>21</v>
       </c>
@@ -7307,7 +7308,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>21</v>
       </c>
@@ -7380,7 +7381,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>21</v>
       </c>
@@ -7453,7 +7454,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>21</v>
       </c>
@@ -7528,7 +7529,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>21</v>
       </c>
@@ -7601,7 +7602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>21</v>
       </c>
@@ -7674,7 +7675,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>21</v>
       </c>
@@ -7749,7 +7750,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>21</v>
       </c>
@@ -7829,7 +7830,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>21</v>
       </c>
@@ -7909,7 +7910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>21</v>
       </c>
@@ -7989,7 +7990,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>21</v>
       </c>
@@ -8062,7 +8063,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>21</v>
       </c>
@@ -8135,7 +8136,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>21</v>
       </c>
@@ -8210,7 +8211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>21</v>
       </c>
@@ -8283,7 +8284,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>21</v>
       </c>
@@ -8356,7 +8357,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>21</v>
       </c>
@@ -8431,7 +8432,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>21</v>
       </c>
@@ -8504,7 +8505,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>21</v>
       </c>
@@ -8577,7 +8578,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>21</v>
       </c>
@@ -8652,7 +8653,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>21</v>
       </c>
@@ -8725,7 +8726,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>21</v>
       </c>
@@ -8798,7 +8799,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>21</v>
       </c>
@@ -8873,7 +8874,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>21</v>
       </c>
@@ -8953,7 +8954,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>21</v>
       </c>
@@ -9033,7 +9034,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>21</v>
       </c>
@@ -9113,7 +9114,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>29</v>
       </c>
@@ -9188,7 +9189,7 @@
         <v>2495.8629999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>29</v>
       </c>
@@ -9263,7 +9264,7 @@
         <v>2726.7649999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>29</v>
       </c>
@@ -9340,7 +9341,7 @@
         <v>2553.5279999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>29</v>
       </c>
@@ -9415,7 +9416,7 @@
         <v>6431.5659999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>29</v>
       </c>
@@ -9490,7 +9491,7 @@
         <v>15036.31</v>
       </c>
     </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>29</v>
       </c>
@@ -9567,7 +9568,7 @@
         <v>8598.1990000000005</v>
       </c>
     </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>29</v>
       </c>
@@ -9642,7 +9643,7 @@
         <v>4189.6409999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>29</v>
       </c>
@@ -9717,7 +9718,7 @@
         <v>11716.12</v>
       </c>
     </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>29</v>
       </c>
@@ -9794,7 +9795,7 @@
         <v>5174.6729999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>29</v>
       </c>
@@ -9869,7 +9870,7 @@
         <v>12952.85</v>
       </c>
     </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>29</v>
       </c>
@@ -9944,7 +9945,7 @@
         <v>10002.049999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>29</v>
       </c>
@@ -10021,7 +10022,7 @@
         <v>12619.6</v>
       </c>
     </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>29</v>
       </c>
@@ -10103,7 +10104,7 @@
         <v>6041.2659999999996</v>
       </c>
     </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>29</v>
       </c>
@@ -10185,7 +10186,7 @@
         <v>11729.04</v>
       </c>
     </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>29</v>
       </c>
@@ -10267,7 +10268,7 @@
         <v>6889.201</v>
       </c>
     </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>29</v>
       </c>
@@ -10342,7 +10343,7 @@
         <v>2755.797</v>
       </c>
     </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>29</v>
       </c>
@@ -10417,7 +10418,7 @@
         <v>14147.16</v>
       </c>
     </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>29</v>
       </c>
@@ -10494,7 +10495,7 @@
         <v>5600.6880000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>29</v>
       </c>
@@ -10569,7 +10570,7 @@
         <v>6633.7839999999997</v>
       </c>
     </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>29</v>
       </c>
@@ -10644,7 +10645,7 @@
         <v>23824.26</v>
       </c>
     </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>29</v>
       </c>
@@ -10721,7 +10722,7 @@
         <v>10962.26</v>
       </c>
     </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>29</v>
       </c>
@@ -10796,7 +10797,7 @@
         <v>4474.3140000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>29</v>
       </c>
@@ -10871,7 +10872,7 @@
         <v>22953.88</v>
       </c>
     </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>29</v>
       </c>
@@ -10948,7 +10949,7 @@
         <v>6892.8370000000004</v>
       </c>
     </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>29</v>
       </c>
@@ -11023,7 +11024,7 @@
         <v>13438.73</v>
       </c>
     </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>29</v>
       </c>
@@ -11098,7 +11099,7 @@
         <v>13639.45</v>
       </c>
     </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>29</v>
       </c>
@@ -11175,7 +11176,7 @@
         <v>13461.4</v>
       </c>
     </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>29</v>
       </c>
@@ -11257,7 +11258,7 @@
         <v>6330.1319999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>29</v>
       </c>
@@ -11339,7 +11340,7 @@
         <v>21419.56</v>
       </c>
     </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>29</v>
       </c>
@@ -11421,7 +11422,7 @@
         <v>8593.9509999999991</v>
       </c>
     </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>29</v>
       </c>
@@ -11494,7 +11495,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>29</v>
       </c>
@@ -11567,7 +11568,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>29</v>
       </c>
@@ -11642,7 +11643,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>29</v>
       </c>
@@ -11715,7 +11716,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>29</v>
       </c>
@@ -11788,7 +11789,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>29</v>
       </c>
@@ -11863,7 +11864,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>29</v>
       </c>
@@ -11936,7 +11937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>29</v>
       </c>
@@ -12009,7 +12010,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>29</v>
       </c>
@@ -12084,7 +12085,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>29</v>
       </c>
@@ -12157,7 +12158,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>29</v>
       </c>
@@ -12230,7 +12231,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>29</v>
       </c>
@@ -12305,7 +12306,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>29</v>
       </c>
@@ -12385,7 +12386,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>29</v>
       </c>
@@ -12465,7 +12466,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>29</v>
       </c>
@@ -12545,7 +12546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>29</v>
       </c>
@@ -12618,7 +12619,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>29</v>
       </c>
@@ -12691,7 +12692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>29</v>
       </c>
@@ -12766,7 +12767,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>29</v>
       </c>
@@ -12839,7 +12840,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>29</v>
       </c>
@@ -12912,7 +12913,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>29</v>
       </c>
@@ -12987,7 +12988,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>29</v>
       </c>
@@ -13060,7 +13061,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>29</v>
       </c>
@@ -13133,7 +13134,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>29</v>
       </c>
@@ -13208,7 +13209,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>29</v>
       </c>
@@ -13281,7 +13282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>29</v>
       </c>
@@ -13354,7 +13355,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>29</v>
       </c>
@@ -13429,7 +13430,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>29</v>
       </c>
@@ -13509,7 +13510,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>29</v>
       </c>
@@ -13589,7 +13590,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>29</v>
       </c>
@@ -13669,7 +13670,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>29</v>
       </c>
@@ -13742,7 +13743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>29</v>
       </c>
@@ -13815,7 +13816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>29</v>
       </c>
@@ -13890,7 +13891,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>29</v>
       </c>
@@ -13963,7 +13964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>29</v>
       </c>
@@ -14036,7 +14037,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>29</v>
       </c>
@@ -14111,7 +14112,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>29</v>
       </c>
@@ -14184,7 +14185,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>29</v>
       </c>
@@ -14257,7 +14258,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>29</v>
       </c>
@@ -14332,7 +14333,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>29</v>
       </c>
@@ -14405,7 +14406,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>29</v>
       </c>
@@ -14478,7 +14479,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>29</v>
       </c>
@@ -14553,7 +14554,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>29</v>
       </c>
@@ -14633,7 +14634,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>29</v>
       </c>
@@ -14713,7 +14714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>29</v>
       </c>
@@ -14793,7 +14794,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>29</v>
       </c>
@@ -14866,7 +14867,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>29</v>
       </c>
@@ -14939,7 +14940,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>29</v>
       </c>
@@ -15014,7 +15015,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>29</v>
       </c>
@@ -15087,7 +15088,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>29</v>
       </c>
@@ -15160,7 +15161,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>29</v>
       </c>
@@ -15235,7 +15236,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>29</v>
       </c>
@@ -15308,7 +15309,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>29</v>
       </c>
@@ -15381,7 +15382,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>29</v>
       </c>
@@ -15456,7 +15457,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>29</v>
       </c>
@@ -15529,7 +15530,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>29</v>
       </c>
@@ -15602,7 +15603,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>29</v>
       </c>
@@ -15677,7 +15678,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>29</v>
       </c>
@@ -15757,7 +15758,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>29</v>
       </c>
@@ -15837,7 +15838,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>29</v>
       </c>
@@ -15918,7 +15919,24 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V196" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:V196" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="vaxbase"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="10"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="High"/>
+        <filter val="Non-high"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>

--- a/df/icer-all.xlsx
+++ b/df/icer-all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gkang/git/economic-influenza/df/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7EDF847E-685D-0049-953A-A8BC1B2A744E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{34098A21-64A0-0D4F-ABF3-D7EF393FF128}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="340" yWindow="440" windowWidth="37980" windowHeight="28360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1119,12 +1119,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:W196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q202" sqref="Q202"/>
+      <pane xSplit="6" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1221,7 +1220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>30</v>
       </c>
@@ -1288,7 +1287,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
@@ -1355,7 +1354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -1422,7 +1421,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>30</v>
       </c>
@@ -1489,7 +1488,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
@@ -1556,7 +1555,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>30</v>
       </c>
@@ -1623,7 +1622,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>30</v>
       </c>
@@ -1690,7 +1689,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
@@ -1757,7 +1756,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -1824,7 +1823,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1891,7 +1890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>30</v>
       </c>
@@ -1958,7 +1957,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -2025,7 +2024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>30</v>
       </c>
@@ -2095,7 +2094,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>30</v>
       </c>
@@ -2165,7 +2164,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
@@ -2385,7 +2384,7 @@
         <v>248.93950000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -2612,7 +2611,7 @@
         <v>13727.63</v>
       </c>
     </row>
-    <row r="22" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2839,7 +2838,7 @@
         <v>14706.21</v>
       </c>
     </row>
-    <row r="25" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -3066,7 +3065,7 @@
         <v>7416.2870000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
@@ -3307,7 +3306,7 @@
         <v>12380.68</v>
       </c>
     </row>
-    <row r="31" spans="1:23" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -3389,7 +3388,7 @@
         <v>7193.4629999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -3465,7 +3464,7 @@
       </c>
       <c r="W32" s="10"/>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -3541,7 +3540,7 @@
       </c>
       <c r="W33" s="10"/>
     </row>
-    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -3619,7 +3618,7 @@
       </c>
       <c r="W34" s="10"/>
     </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -3695,7 +3694,7 @@
       </c>
       <c r="W35" s="10"/>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -3771,7 +3770,7 @@
       </c>
       <c r="W36" s="10"/>
     </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
@@ -3849,7 +3848,7 @@
       </c>
       <c r="W37" s="10"/>
     </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
@@ -3925,7 +3924,7 @@
       </c>
       <c r="W38" s="10"/>
     </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>21</v>
       </c>
@@ -4001,7 +4000,7 @@
       </c>
       <c r="W39" s="10"/>
     </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>21</v>
       </c>
@@ -4079,7 +4078,7 @@
       </c>
       <c r="W40" s="10"/>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>21</v>
       </c>
@@ -4155,7 +4154,7 @@
       </c>
       <c r="W41" s="10"/>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
@@ -4231,7 +4230,7 @@
       </c>
       <c r="W42" s="10"/>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>21</v>
       </c>
@@ -4309,7 +4308,7 @@
       </c>
       <c r="W43" s="10"/>
     </row>
-    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>21</v>
       </c>
@@ -4392,7 +4391,7 @@
       </c>
       <c r="W44" s="10"/>
     </row>
-    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>21</v>
       </c>
@@ -4475,7 +4474,7 @@
       </c>
       <c r="W45" s="10"/>
     </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>21</v>
       </c>
@@ -4558,7 +4557,7 @@
       </c>
       <c r="W46" s="10"/>
     </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>21</v>
       </c>
@@ -4633,7 +4632,7 @@
         <v>2820.66</v>
       </c>
     </row>
-    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>21</v>
       </c>
@@ -4708,7 +4707,7 @@
         <v>16996.93</v>
       </c>
     </row>
-    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>21</v>
       </c>
@@ -4785,7 +4784,7 @@
         <v>6361.0569999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>21</v>
       </c>
@@ -4860,7 +4859,7 @@
         <v>6684.3209999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>21</v>
       </c>
@@ -4935,7 +4934,7 @@
         <v>26020.53</v>
       </c>
     </row>
-    <row r="52" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>21</v>
       </c>
@@ -5012,7 +5011,7 @@
         <v>11553.08</v>
       </c>
     </row>
-    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>21</v>
       </c>
@@ -5087,7 +5086,7 @@
         <v>4598.5770000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>21</v>
       </c>
@@ -5162,7 +5161,7 @@
         <v>27859.34</v>
       </c>
     </row>
-    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>21</v>
       </c>
@@ -5239,7 +5238,7 @@
         <v>7642.8419999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>21</v>
       </c>
@@ -5314,7 +5313,7 @@
         <v>13479.46</v>
       </c>
     </row>
-    <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>21</v>
       </c>
@@ -5389,7 +5388,7 @@
         <v>13944.35</v>
       </c>
     </row>
-    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>21</v>
       </c>
@@ -5466,7 +5465,7 @@
         <v>13531.96</v>
       </c>
     </row>
-    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>21</v>
       </c>
@@ -5548,7 +5547,7 @@
         <v>6617.6419999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>21</v>
       </c>
@@ -5630,7 +5629,7 @@
         <v>24683.29</v>
       </c>
     </row>
-    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>21</v>
       </c>
@@ -5712,7 +5711,7 @@
         <v>9371.9680000000008</v>
       </c>
     </row>
-    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>21</v>
       </c>
@@ -5787,7 +5786,7 @@
         <v>2867.6819999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>21</v>
       </c>
@@ -5862,7 +5861,7 @@
         <v>19062.88</v>
       </c>
     </row>
-    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>21</v>
       </c>
@@ -5939,7 +5938,7 @@
         <v>6912.2879999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>21</v>
       </c>
@@ -6014,7 +6013,7 @@
         <v>6719.5119999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>21</v>
       </c>
@@ -6089,7 +6088,7 @@
         <v>27549.86</v>
       </c>
     </row>
-    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>21</v>
       </c>
@@ -6166,7 +6165,7 @@
         <v>11964.49</v>
       </c>
     </row>
-    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>21</v>
       </c>
@@ -6241,7 +6240,7 @@
         <v>4640.1930000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>21</v>
       </c>
@@ -6316,7 +6315,7 @@
         <v>29502.16</v>
       </c>
     </row>
-    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>21</v>
       </c>
@@ -6393,7 +6392,7 @@
         <v>7894.0159999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>21</v>
       </c>
@@ -6468,7 +6467,7 @@
         <v>13586.4</v>
       </c>
     </row>
-    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>21</v>
       </c>
@@ -6543,7 +6542,7 @@
         <v>14744.97</v>
       </c>
     </row>
-    <row r="73" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>21</v>
       </c>
@@ -6620,7 +6619,7 @@
         <v>13717.25</v>
       </c>
     </row>
-    <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>21</v>
       </c>
@@ -6702,7 +6701,7 @@
         <v>6621.0839999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>21</v>
       </c>
@@ -6784,7 +6783,7 @@
         <v>26281.83</v>
       </c>
     </row>
-    <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>21</v>
       </c>
@@ -6866,7 +6865,7 @@
         <v>9626.5380000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>21</v>
       </c>
@@ -6939,7 +6938,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>21</v>
       </c>
@@ -7012,7 +7011,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>21</v>
       </c>
@@ -7087,7 +7086,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>21</v>
       </c>
@@ -7160,7 +7159,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>21</v>
       </c>
@@ -7233,7 +7232,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>21</v>
       </c>
@@ -7308,7 +7307,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>21</v>
       </c>
@@ -7381,7 +7380,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>21</v>
       </c>
@@ -7454,7 +7453,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="85" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>21</v>
       </c>
@@ -7529,7 +7528,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>21</v>
       </c>
@@ -7602,7 +7601,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>21</v>
       </c>
@@ -7675,7 +7674,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>21</v>
       </c>
@@ -7750,7 +7749,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>21</v>
       </c>
@@ -7830,7 +7829,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>21</v>
       </c>
@@ -7910,7 +7909,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>21</v>
       </c>
@@ -7990,7 +7989,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="92" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>21</v>
       </c>
@@ -8063,7 +8062,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>21</v>
       </c>
@@ -8136,7 +8135,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>21</v>
       </c>
@@ -8211,7 +8210,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>21</v>
       </c>
@@ -8284,7 +8283,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>21</v>
       </c>
@@ -8357,7 +8356,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="97" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>21</v>
       </c>
@@ -8432,7 +8431,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>21</v>
       </c>
@@ -8505,7 +8504,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="99" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>21</v>
       </c>
@@ -8578,7 +8577,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="100" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>21</v>
       </c>
@@ -8653,7 +8652,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>21</v>
       </c>
@@ -8726,7 +8725,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>21</v>
       </c>
@@ -8799,7 +8798,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>21</v>
       </c>
@@ -8874,7 +8873,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>21</v>
       </c>
@@ -8954,7 +8953,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>21</v>
       </c>
@@ -9034,7 +9033,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="106" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>21</v>
       </c>
@@ -9114,7 +9113,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>29</v>
       </c>
@@ -9189,7 +9188,7 @@
         <v>2495.8629999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>29</v>
       </c>
@@ -9264,7 +9263,7 @@
         <v>2726.7649999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>29</v>
       </c>
@@ -9341,7 +9340,7 @@
         <v>2553.5279999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>29</v>
       </c>
@@ -9416,7 +9415,7 @@
         <v>6431.5659999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>29</v>
       </c>
@@ -9491,7 +9490,7 @@
         <v>15036.31</v>
       </c>
     </row>
-    <row r="112" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>29</v>
       </c>
@@ -9568,7 +9567,7 @@
         <v>8598.1990000000005</v>
       </c>
     </row>
-    <row r="113" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>29</v>
       </c>
@@ -9643,7 +9642,7 @@
         <v>4189.6409999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>29</v>
       </c>
@@ -9718,7 +9717,7 @@
         <v>11716.12</v>
       </c>
     </row>
-    <row r="115" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>29</v>
       </c>
@@ -9795,7 +9794,7 @@
         <v>5174.6729999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>29</v>
       </c>
@@ -9870,7 +9869,7 @@
         <v>12952.85</v>
       </c>
     </row>
-    <row r="117" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>29</v>
       </c>
@@ -9945,7 +9944,7 @@
         <v>10002.049999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>29</v>
       </c>
@@ -10022,7 +10021,7 @@
         <v>12619.6</v>
       </c>
     </row>
-    <row r="119" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>29</v>
       </c>
@@ -10104,7 +10103,7 @@
         <v>6041.2659999999996</v>
       </c>
     </row>
-    <row r="120" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>29</v>
       </c>
@@ -10186,7 +10185,7 @@
         <v>11729.04</v>
       </c>
     </row>
-    <row r="121" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>29</v>
       </c>
@@ -10268,7 +10267,7 @@
         <v>6889.201</v>
       </c>
     </row>
-    <row r="122" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>29</v>
       </c>
@@ -10343,7 +10342,7 @@
         <v>2755.797</v>
       </c>
     </row>
-    <row r="123" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>29</v>
       </c>
@@ -10418,7 +10417,7 @@
         <v>14147.16</v>
       </c>
     </row>
-    <row r="124" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>29</v>
       </c>
@@ -10495,7 +10494,7 @@
         <v>5600.6880000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>29</v>
       </c>
@@ -10570,7 +10569,7 @@
         <v>6633.7839999999997</v>
       </c>
     </row>
-    <row r="126" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>29</v>
       </c>
@@ -10645,7 +10644,7 @@
         <v>23824.26</v>
       </c>
     </row>
-    <row r="127" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>29</v>
       </c>
@@ -10722,7 +10721,7 @@
         <v>10962.26</v>
       </c>
     </row>
-    <row r="128" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>29</v>
       </c>
@@ -10797,7 +10796,7 @@
         <v>4474.3140000000003</v>
       </c>
     </row>
-    <row r="129" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>29</v>
       </c>
@@ -10872,7 +10871,7 @@
         <v>22953.88</v>
       </c>
     </row>
-    <row r="130" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>29</v>
       </c>
@@ -10949,7 +10948,7 @@
         <v>6892.8370000000004</v>
       </c>
     </row>
-    <row r="131" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>29</v>
       </c>
@@ -11024,7 +11023,7 @@
         <v>13438.73</v>
       </c>
     </row>
-    <row r="132" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>29</v>
       </c>
@@ -11099,7 +11098,7 @@
         <v>13639.45</v>
       </c>
     </row>
-    <row r="133" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>29</v>
       </c>
@@ -11176,7 +11175,7 @@
         <v>13461.4</v>
       </c>
     </row>
-    <row r="134" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>29</v>
       </c>
@@ -11258,7 +11257,7 @@
         <v>6330.1319999999996</v>
       </c>
     </row>
-    <row r="135" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="s">
         <v>29</v>
       </c>
@@ -11340,7 +11339,7 @@
         <v>21419.56</v>
       </c>
     </row>
-    <row r="136" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>29</v>
       </c>
@@ -11422,7 +11421,7 @@
         <v>8593.9509999999991</v>
       </c>
     </row>
-    <row r="137" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>29</v>
       </c>
@@ -11495,7 +11494,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>29</v>
       </c>
@@ -11568,7 +11567,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>29</v>
       </c>
@@ -11643,7 +11642,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>29</v>
       </c>
@@ -11716,7 +11715,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="141" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>29</v>
       </c>
@@ -11789,7 +11788,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="142" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>29</v>
       </c>
@@ -11864,7 +11863,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="143" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>29</v>
       </c>
@@ -11937,7 +11936,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="s">
         <v>29</v>
       </c>
@@ -12010,7 +12009,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="145" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>29</v>
       </c>
@@ -12085,7 +12084,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="146" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>29</v>
       </c>
@@ -12158,7 +12157,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="147" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>29</v>
       </c>
@@ -12231,7 +12230,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
         <v>29</v>
       </c>
@@ -12306,7 +12305,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="149" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="s">
         <v>29</v>
       </c>
@@ -12386,7 +12385,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="150" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="s">
         <v>29</v>
       </c>
@@ -12466,7 +12465,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="151" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="s">
         <v>29</v>
       </c>
@@ -12546,7 +12545,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="152" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="s">
         <v>29</v>
       </c>
@@ -12619,7 +12618,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="153" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>29</v>
       </c>
@@ -12692,7 +12691,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="154" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>29</v>
       </c>
@@ -12767,7 +12766,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="155" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="s">
         <v>29</v>
       </c>
@@ -12840,7 +12839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="s">
         <v>29</v>
       </c>
@@ -12913,7 +12912,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="157" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="s">
         <v>29</v>
       </c>
@@ -12988,7 +12987,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="158" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="s">
         <v>29</v>
       </c>
@@ -13061,7 +13060,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="s">
         <v>29</v>
       </c>
@@ -13134,7 +13133,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="160" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="s">
         <v>29</v>
       </c>
@@ -13209,7 +13208,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="161" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>29</v>
       </c>
@@ -13282,7 +13281,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>29</v>
       </c>
@@ -13355,7 +13354,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="163" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>29</v>
       </c>
@@ -13430,7 +13429,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="164" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="s">
         <v>29</v>
       </c>
@@ -13510,7 +13509,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="165" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="s">
         <v>29</v>
       </c>
@@ -13590,7 +13589,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="166" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="s">
         <v>29</v>
       </c>
@@ -13670,7 +13669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="s">
         <v>29</v>
       </c>
@@ -13743,7 +13742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="168" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="s">
         <v>29</v>
       </c>
@@ -13816,7 +13815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="s">
         <v>29</v>
       </c>
@@ -13891,7 +13890,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="s">
         <v>29</v>
       </c>
@@ -13964,7 +13963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="s">
         <v>29</v>
       </c>
@@ -14037,7 +14036,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="172" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>29</v>
       </c>
@@ -14112,7 +14111,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="173" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>29</v>
       </c>
@@ -14185,7 +14184,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="174" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="s">
         <v>29</v>
       </c>
@@ -14258,7 +14257,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="175" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="s">
         <v>29</v>
       </c>
@@ -14333,7 +14332,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="176" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A176" s="2" t="s">
         <v>29</v>
       </c>
@@ -14406,7 +14405,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="177" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="s">
         <v>29</v>
       </c>
@@ -14479,7 +14478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="178" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="s">
         <v>29</v>
       </c>
@@ -14554,7 +14553,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="179" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="s">
         <v>29</v>
       </c>
@@ -14634,7 +14633,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="180" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>29</v>
       </c>
@@ -14714,7 +14713,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="181" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>29</v>
       </c>
@@ -14794,7 +14793,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>29</v>
       </c>
@@ -14867,7 +14866,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="183" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="s">
         <v>29</v>
       </c>
@@ -14940,7 +14939,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="s">
         <v>29</v>
       </c>
@@ -15015,7 +15014,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="185" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="s">
         <v>29</v>
       </c>
@@ -15088,7 +15087,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="186" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="s">
         <v>29</v>
       </c>
@@ -15161,7 +15160,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="187" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="s">
         <v>29</v>
       </c>
@@ -15236,7 +15235,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="188" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="s">
         <v>29</v>
       </c>
@@ -15309,7 +15308,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="189" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>29</v>
       </c>
@@ -15382,7 +15381,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="190" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>29</v>
       </c>
@@ -15457,7 +15456,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="191" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>29</v>
       </c>
@@ -15530,7 +15529,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="192" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>29</v>
       </c>
@@ -15603,7 +15602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="193" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>29</v>
       </c>
@@ -15678,7 +15677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="s">
         <v>29</v>
       </c>
@@ -15758,7 +15757,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>29</v>
       </c>
@@ -15838,7 +15837,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="196" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="s">
         <v>29</v>
       </c>
@@ -15919,24 +15918,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V196" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="vaxbase"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="10"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="High"/>
-        <filter val="Non-high"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V196" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>

--- a/df/icer-all.xlsx
+++ b/df/icer-all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gkang/git/economic-influenza/df/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{34098A21-64A0-0D4F-ABF3-D7EF393FF128}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9DE22B3B-51C6-094D-9DE4-885547BF6754}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="440" windowWidth="37980" windowHeight="28360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="440" windowWidth="37980" windowHeight="28360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="icer-all" sheetId="1" r:id="rId1"/>
@@ -1122,8 +1122,8 @@
   <dimension ref="A1:W196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F17" sqref="F17"/>
+      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/df/icer-all.xlsx
+++ b/df/icer-all.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gkang/git/economic-influenza/df/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{756ED9A5-22D0-FF48-B532-3E26954A6951}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{172B151D-4229-8A47-9D6E-05BD3B2FC75B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="440" windowWidth="40340" windowHeight="28360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12200" yWindow="440" windowWidth="33140" windowHeight="28360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="icer-all" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'icer-all'!$A$1:$V$196</definedName>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="33">
   <si>
     <t>scenario</t>
   </si>
@@ -123,126 +122,6 @@
   </si>
   <si>
     <t>c.costs</t>
-  </si>
-  <si>
-    <t>basevax 20%</t>
-  </si>
-  <si>
-    <t>Clinical costs in age group (high, low, all)</t>
-  </si>
-  <si>
-    <t>Total clinical costs in scenario (high, low, all)</t>
-  </si>
-  <si>
-    <t>Number of cases in age group (high, low, all)</t>
-  </si>
-  <si>
-    <t>Total number of cases in scenario (high, low, all)</t>
-  </si>
-  <si>
-    <t>Cost difference in age group (high, low, all)</t>
-  </si>
-  <si>
-    <t>Total cost difference in scenario (high, low, all)</t>
-  </si>
-  <si>
-    <t>Cases averted in age group (high, low, all)</t>
-  </si>
-  <si>
-    <t>Total cases averted in scenario (high, low, all)</t>
-  </si>
-  <si>
-    <t>ICER per case averted in age group (high, low, all)</t>
-  </si>
-  <si>
-    <t>Total ICER per case averted in scenario (high, low, all)</t>
-  </si>
-  <si>
-    <t>Deaths in age group (high, low, all)</t>
-  </si>
-  <si>
-    <t>Total deaths in scenario (high, low, all)</t>
-  </si>
-  <si>
-    <t>Deaths averted (high, low, all)</t>
-  </si>
-  <si>
-    <t>Total deaths averted in scenario</t>
-  </si>
-  <si>
-    <t>ICER per death averted (high, low, all)</t>
-  </si>
-  <si>
-    <t>Total ICER per death averted in scenario</t>
-  </si>
-  <si>
-    <t>Other health outcomes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  45.37909 2956.81922  288.35711</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  181.3398 24686.0525 23565.5677</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  275.3765 10540.8690  9143.9718</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  1097.23 149740.65 142955.82</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1080.844 45436.132 26298.058</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  2936.886 154115.501 281323.520</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1218.107 16096.674  6029.310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  323.5816  8734.7032 13714.0465</t>
-  </si>
-  <si>
-    <t>DALYs (high, low, all)</t>
-  </si>
-  <si>
-    <t>1671.1737  556.2888 2227.4625</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 8860.115  2981.709 11841.824</t>
-  </si>
-  <si>
-    <t>37135.015  5591.909 42726.924</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 9047.702  1151.922 10199.624</t>
-  </si>
-  <si>
-    <t>Total DALYs in scenario (high, low, all)</t>
-  </si>
-  <si>
-    <t>DALYs averted (high, low, all)</t>
-  </si>
-  <si>
-    <t>725.0862 241.3617 966.4479</t>
-  </si>
-  <si>
-    <t>2987.853 1005.507 3993.359</t>
-  </si>
-  <si>
-    <t>12576.923  1893.873 14470.795</t>
-  </si>
-  <si>
-    <t>4195.3968  534.1431 4729.5399</t>
-  </si>
-  <si>
-    <t>Total DALYs averted in scenario</t>
-  </si>
-  <si>
-    <t>ICER per DALY averted (high, low, all)</t>
-  </si>
-  <si>
-    <t>ICER per DALY averted in scenario</t>
   </si>
 </sst>
 </file>
@@ -1122,12 +1001,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AP196"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F128" sqref="F128"/>
+      <pane xSplit="6" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1245,7 +1123,7 @@
       <c r="AO1" s="5"/>
       <c r="AP1" s="5"/>
     </row>
-    <row r="2" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
@@ -1316,7 +1194,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
@@ -1387,7 +1265,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1458,7 +1336,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
@@ -1529,7 +1407,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
@@ -1600,7 +1478,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
@@ -1671,7 +1549,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>30</v>
       </c>
@@ -1742,7 +1620,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -1813,7 +1691,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
@@ -1884,7 +1762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1955,7 +1833,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
@@ -2026,7 +1904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -2097,7 +1975,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>30</v>
       </c>
@@ -2171,7 +2049,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -2245,7 +2123,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>30</v>
       </c>
@@ -2319,7 +2197,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -2394,7 +2272,7 @@
         <v>2439.4659999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -2438,7 +2316,7 @@
         <v>7.9976929999999999</v>
       </c>
       <c r="N18" s="7">
-        <f t="shared" ref="N17:N48" si="7">M18/E18*100000</f>
+        <f t="shared" ref="N18:N48" si="7">M18/E18*100000</f>
         <v>3.8212155744735865</v>
       </c>
       <c r="O18" s="10">
@@ -2469,7 +2347,7 @@
         <v>248.93950000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
@@ -2546,7 +2424,7 @@
         <v>1892.402</v>
       </c>
     </row>
-    <row r="20" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>21</v>
       </c>
@@ -2621,7 +2499,7 @@
         <v>6401.4520000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -2696,7 +2574,7 @@
         <v>13727.63</v>
       </c>
     </row>
-    <row r="22" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
@@ -2773,7 +2651,7 @@
         <v>8246.1509999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -2848,7 +2726,7 @@
         <v>4265.3860000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -2923,7 +2801,7 @@
         <v>14706.21</v>
       </c>
     </row>
-    <row r="25" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>21</v>
       </c>
@@ -3000,7 +2878,7 @@
         <v>5631.835</v>
       </c>
     </row>
-    <row r="26" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>21</v>
       </c>
@@ -3075,7 +2953,7 @@
         <v>12607.45</v>
       </c>
     </row>
-    <row r="27" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -3150,7 +3028,7 @@
         <v>7416.2870000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
@@ -3227,7 +3105,7 @@
         <v>12021.17</v>
       </c>
     </row>
-    <row r="29" spans="1:42" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -3326,7 +3204,7 @@
       <c r="AO29" s="5"/>
       <c r="AP29" s="5"/>
     </row>
-    <row r="30" spans="1:42" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
@@ -3425,7 +3303,7 @@
       <c r="AO30" s="5"/>
       <c r="AP30" s="5"/>
     </row>
-    <row r="31" spans="1:42" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>21</v>
       </c>
@@ -3524,7 +3402,7 @@
       <c r="AO31" s="5"/>
       <c r="AP31" s="5"/>
     </row>
-    <row r="32" spans="1:42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>21</v>
       </c>
@@ -3600,7 +3478,7 @@
       </c>
       <c r="W32" s="13"/>
     </row>
-    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -3676,7 +3554,7 @@
       </c>
       <c r="W33" s="13"/>
     </row>
-    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -3754,7 +3632,7 @@
       </c>
       <c r="W34" s="13"/>
     </row>
-    <row r="35" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>21</v>
       </c>
@@ -3830,7 +3708,7 @@
       </c>
       <c r="W35" s="13"/>
     </row>
-    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>21</v>
       </c>
@@ -3906,7 +3784,7 @@
       </c>
       <c r="W36" s="13"/>
     </row>
-    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>21</v>
       </c>
@@ -3984,7 +3862,7 @@
       </c>
       <c r="W37" s="13"/>
     </row>
-    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>21</v>
       </c>
@@ -4060,7 +3938,7 @@
       </c>
       <c r="W38" s="13"/>
     </row>
-    <row r="39" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>21</v>
       </c>
@@ -4136,7 +4014,7 @@
       </c>
       <c r="W39" s="13"/>
     </row>
-    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>21</v>
       </c>
@@ -4214,7 +4092,7 @@
       </c>
       <c r="W40" s="13"/>
     </row>
-    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>21</v>
       </c>
@@ -4290,7 +4168,7 @@
       </c>
       <c r="W41" s="13"/>
     </row>
-    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>21</v>
       </c>
@@ -4366,7 +4244,7 @@
       </c>
       <c r="W42" s="13"/>
     </row>
-    <row r="43" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>21</v>
       </c>
@@ -4444,7 +4322,7 @@
       </c>
       <c r="W43" s="13"/>
     </row>
-    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>21</v>
       </c>
@@ -4524,7 +4402,7 @@
       </c>
       <c r="W44" s="13"/>
     </row>
-    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>21</v>
       </c>
@@ -4604,7 +4482,7 @@
       </c>
       <c r="W45" s="13"/>
     </row>
-    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>21</v>
       </c>
@@ -4684,7 +4562,7 @@
       </c>
       <c r="W46" s="13"/>
     </row>
-    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>21</v>
       </c>
@@ -4759,7 +4637,7 @@
         <v>2820.66</v>
       </c>
     </row>
-    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>21</v>
       </c>
@@ -4834,7 +4712,7 @@
         <v>16996.93</v>
       </c>
     </row>
-    <row r="49" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>21</v>
       </c>
@@ -4911,7 +4789,7 @@
         <v>6361.0569999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>21</v>
       </c>
@@ -4986,7 +4864,7 @@
         <v>6684.3209999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>21</v>
       </c>
@@ -5061,7 +4939,7 @@
         <v>26020.53</v>
       </c>
     </row>
-    <row r="52" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>21</v>
       </c>
@@ -5138,7 +5016,7 @@
         <v>11553.08</v>
       </c>
     </row>
-    <row r="53" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>21</v>
       </c>
@@ -5213,7 +5091,7 @@
         <v>4598.5770000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>21</v>
       </c>
@@ -5288,7 +5166,7 @@
         <v>27859.34</v>
       </c>
     </row>
-    <row r="55" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>21</v>
       </c>
@@ -5365,7 +5243,7 @@
         <v>7642.8419999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>21</v>
       </c>
@@ -5440,7 +5318,7 @@
         <v>13479.46</v>
       </c>
     </row>
-    <row r="57" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>21</v>
       </c>
@@ -5515,7 +5393,7 @@
         <v>13944.35</v>
       </c>
     </row>
-    <row r="58" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>21</v>
       </c>
@@ -5592,7 +5470,7 @@
         <v>13531.96</v>
       </c>
     </row>
-    <row r="59" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>21</v>
       </c>
@@ -5671,7 +5549,7 @@
         <v>6617.6419999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>21</v>
       </c>
@@ -5750,7 +5628,7 @@
         <v>24683.29</v>
       </c>
     </row>
-    <row r="61" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>21</v>
       </c>
@@ -5829,7 +5707,7 @@
         <v>9371.9680000000008</v>
       </c>
     </row>
-    <row r="62" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>21</v>
       </c>
@@ -5904,7 +5782,7 @@
         <v>2867.6819999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>21</v>
       </c>
@@ -5979,7 +5857,7 @@
         <v>19062.88</v>
       </c>
     </row>
-    <row r="64" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>21</v>
       </c>
@@ -6056,7 +5934,7 @@
         <v>6912.2879999999996</v>
       </c>
     </row>
-    <row r="65" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>21</v>
       </c>
@@ -6131,7 +6009,7 @@
         <v>6719.5119999999997</v>
       </c>
     </row>
-    <row r="66" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>21</v>
       </c>
@@ -6206,7 +6084,7 @@
         <v>27549.86</v>
       </c>
     </row>
-    <row r="67" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>21</v>
       </c>
@@ -6283,7 +6161,7 @@
         <v>11964.49</v>
       </c>
     </row>
-    <row r="68" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>21</v>
       </c>
@@ -6358,7 +6236,7 @@
         <v>4640.1930000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>21</v>
       </c>
@@ -6433,7 +6311,7 @@
         <v>29502.16</v>
       </c>
     </row>
-    <row r="70" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>21</v>
       </c>
@@ -6510,7 +6388,7 @@
         <v>7894.0159999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>21</v>
       </c>
@@ -6585,7 +6463,7 @@
         <v>13586.4</v>
       </c>
     </row>
-    <row r="72" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>21</v>
       </c>
@@ -6660,7 +6538,7 @@
         <v>14744.97</v>
       </c>
     </row>
-    <row r="73" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>21</v>
       </c>
@@ -6737,7 +6615,7 @@
         <v>13717.25</v>
       </c>
     </row>
-    <row r="74" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>21</v>
       </c>
@@ -6818,7 +6696,7 @@
         <v>6621.0839999999998</v>
       </c>
     </row>
-    <row r="75" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>21</v>
       </c>
@@ -6899,7 +6777,7 @@
         <v>26281.83</v>
       </c>
     </row>
-    <row r="76" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>21</v>
       </c>
@@ -6980,7 +6858,7 @@
         <v>9626.5380000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>21</v>
       </c>
@@ -7054,7 +6932,7 @@
         <v>2926.9389999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>21</v>
       </c>
@@ -7128,7 +7006,7 @@
         <v>21666.400000000001</v>
       </c>
     </row>
-    <row r="79" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>21</v>
       </c>
@@ -7202,7 +7080,7 @@
         <v>7606.9520000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>21</v>
       </c>
@@ -7276,7 +7154,7 @@
         <v>6763.9750000000004</v>
       </c>
     </row>
-    <row r="81" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>21</v>
       </c>
@@ -7350,7 +7228,7 @@
         <v>29482.12</v>
       </c>
     </row>
-    <row r="82" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>21</v>
       </c>
@@ -7424,7 +7302,7 @@
         <v>12484.28</v>
       </c>
     </row>
-    <row r="83" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>21</v>
       </c>
@@ -7498,7 +7376,7 @@
         <v>4696.491</v>
       </c>
     </row>
-    <row r="84" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>21</v>
       </c>
@@ -7572,7 +7450,7 @@
         <v>31724.6</v>
       </c>
     </row>
-    <row r="85" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>21</v>
       </c>
@@ -7646,7 +7524,7 @@
         <v>8233.8089999999993</v>
       </c>
     </row>
-    <row r="86" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>21</v>
       </c>
@@ -7720,7 +7598,7 @@
         <v>13725.58</v>
       </c>
     </row>
-    <row r="87" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>21</v>
       </c>
@@ -7794,7 +7672,7 @@
         <v>15786.9</v>
       </c>
     </row>
-    <row r="88" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>21</v>
       </c>
@@ -7868,7 +7746,7 @@
         <v>13958.38</v>
       </c>
     </row>
-    <row r="89" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>21</v>
       </c>
@@ -7942,7 +7820,7 @@
         <v>6507.7560000000003</v>
       </c>
     </row>
-    <row r="90" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>21</v>
       </c>
@@ -8016,7 +7894,7 @@
         <v>28583.73</v>
       </c>
     </row>
-    <row r="91" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>21</v>
       </c>
@@ -8090,7 +7968,7 @@
         <v>9887.7659999999996</v>
       </c>
     </row>
-    <row r="92" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>21</v>
       </c>
@@ -8165,7 +8043,7 @@
         <v>2926.9389999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>21</v>
       </c>
@@ -8240,7 +8118,7 @@
         <v>21666.400000000001</v>
       </c>
     </row>
-    <row r="94" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>21</v>
       </c>
@@ -8315,7 +8193,7 @@
         <v>7606.9520000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>21</v>
       </c>
@@ -8390,7 +8268,7 @@
         <v>6763.9750000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>21</v>
       </c>
@@ -8465,7 +8343,7 @@
         <v>29482.12</v>
       </c>
     </row>
-    <row r="97" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>21</v>
       </c>
@@ -8540,7 +8418,7 @@
         <v>12484.28</v>
       </c>
     </row>
-    <row r="98" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>21</v>
       </c>
@@ -8615,7 +8493,7 @@
         <v>4696.491</v>
       </c>
     </row>
-    <row r="99" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>21</v>
       </c>
@@ -8690,7 +8568,7 @@
         <v>31724.6</v>
       </c>
     </row>
-    <row r="100" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>21</v>
       </c>
@@ -8765,7 +8643,7 @@
         <v>8233.8089999999993</v>
       </c>
     </row>
-    <row r="101" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>21</v>
       </c>
@@ -8840,7 +8718,7 @@
         <v>13725.58</v>
       </c>
     </row>
-    <row r="102" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>21</v>
       </c>
@@ -8915,7 +8793,7 @@
         <v>15786.9</v>
       </c>
     </row>
-    <row r="103" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>21</v>
       </c>
@@ -8990,7 +8868,7 @@
         <v>13958.38</v>
       </c>
     </row>
-    <row r="104" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>21</v>
       </c>
@@ -9065,7 +8943,7 @@
         <v>6507.7560000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>21</v>
       </c>
@@ -9140,7 +9018,7 @@
         <v>28583.73</v>
       </c>
     </row>
-    <row r="106" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>21</v>
       </c>
@@ -9215,7 +9093,7 @@
         <v>9887.7659999999996</v>
       </c>
     </row>
-    <row r="107" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>29</v>
       </c>
@@ -9290,7 +9168,7 @@
         <v>2495.8629999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>29</v>
       </c>
@@ -9365,7 +9243,7 @@
         <v>2726.7649999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>29</v>
       </c>
@@ -9442,7 +9320,7 @@
         <v>2553.5279999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>29</v>
       </c>
@@ -9517,7 +9395,7 @@
         <v>6431.5659999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>29</v>
       </c>
@@ -9592,7 +9470,7 @@
         <v>15036.31</v>
       </c>
     </row>
-    <row r="112" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>29</v>
       </c>
@@ -9669,7 +9547,7 @@
         <v>8598.1990000000005</v>
       </c>
     </row>
-    <row r="113" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>29</v>
       </c>
@@ -9744,7 +9622,7 @@
         <v>4189.6409999999996</v>
       </c>
     </row>
-    <row r="114" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>29</v>
       </c>
@@ -9819,7 +9697,7 @@
         <v>11716.12</v>
       </c>
     </row>
-    <row r="115" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>29</v>
       </c>
@@ -9896,7 +9774,7 @@
         <v>5174.6729999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>29</v>
       </c>
@@ -9971,7 +9849,7 @@
         <v>12952.85</v>
       </c>
     </row>
-    <row r="117" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>29</v>
       </c>
@@ -10046,7 +9924,7 @@
         <v>10002.049999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>29</v>
       </c>
@@ -10123,7 +10001,7 @@
         <v>12619.6</v>
       </c>
     </row>
-    <row r="119" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>29</v>
       </c>
@@ -10204,7 +10082,7 @@
         <v>6041.2659999999996</v>
       </c>
     </row>
-    <row r="120" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>29</v>
       </c>
@@ -10285,7 +10163,7 @@
         <v>11729.04</v>
       </c>
     </row>
-    <row r="121" spans="1:22" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>29</v>
       </c>
@@ -12173,7 +12051,7 @@
         <v>0</v>
       </c>
       <c r="N145" s="7">
-        <f t="shared" ref="N145:N176" si="40">M145/E145*100000</f>
+        <f t="shared" ref="N145:N166" si="40">M145/E145*100000</f>
         <v>0</v>
       </c>
       <c r="O145" s="10">
@@ -16038,949 +15916,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V196" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="vax70"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="2">
-      <filters>
-        <filter val="20"/>
-        <filter val="30"/>
-        <filter val="40"/>
-        <filter val="50"/>
-        <filter val="60"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:V196" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <ignoredErrors>
     <ignoredError sqref="N29" formula="1"/>
   </ignoredErrors>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A17D303-A10D-8341-9ED0-914B7A8C0567}">
-  <dimension ref="A1:A181"/>
-  <sheetViews>
-    <sheetView topLeftCell="A156" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A179" sqref="A179:A181"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="46.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>5037102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>14183322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>19220424</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>60376456</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>94442336</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>154818793</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>176674947</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>190898979</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>367573927</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>126131099</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>20040155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>146171253</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>368219604</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>319564792</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>687784397</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>3312.105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>48439.54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>51751.64</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>20091.189999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>293833.59999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>313924.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>73767.81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>438508.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>512276.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>23975.16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>22851.32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>46826.48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>121146.3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>803633.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>924779.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>1976605</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>3098895</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>5075500</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>19762905</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>23109237</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>42872142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>56796725</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>46584424</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>103381149</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>55638166</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>6577588</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>62215753</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>134174401</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>79370144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>213544545</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>1437.0509999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>21016.87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>22453.919999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>6775.25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>99088.03</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>105863.3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>24983.75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>148514.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>173498.3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>11117.22</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>10596.1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>21713.32</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>44313.27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>279215.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>323528.8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71">
-        <v>1375.4590000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72">
-        <v>147.44800000000001</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73">
-        <v>226.04069999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>2916.9259999999999</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75">
-        <v>233.2193</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76">
-        <v>404.97649999999999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77">
-        <v>2273.346</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>313.66910000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79">
-        <v>595.86270000000002</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80">
-        <v>5004.683</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81">
-        <v>620.75549999999998</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82">
-        <v>2865.3270000000002</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84">
-        <v>3027.86</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85">
-        <v>284.26119999999997</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86">
-        <v>660.048</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88">
-        <v>21.54954</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89">
-        <v>6.5750770000000003</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90">
-        <v>28.124610000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91">
-        <v>130.96979999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92">
-        <v>39.915790000000001</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93">
-        <v>170.88560000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94">
-        <v>952.77290000000005</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95">
-        <v>132.7252</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96">
-        <v>1085.498</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97">
-        <v>631.06659999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A98">
-        <v>78.991010000000003</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A99">
-        <v>710.05759999999998</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>1736.3589999999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A102">
-        <v>258.20710000000003</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A103">
-        <v>1994.566</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A105">
-        <v>9.3498789999999996</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A106">
-        <v>2.8527840000000002</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A107">
-        <v>12.20266</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A108">
-        <v>44.1663</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A109">
-        <v>13.460599999999999</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A110">
-        <v>57.626899999999999</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111">
-        <v>322.68599999999998</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112">
-        <v>44.951509999999999</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113">
-        <v>367.63749999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114">
-        <v>292.62400000000002</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115">
-        <v>36.627929999999999</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116">
-        <v>329.25189999999998</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A118">
-        <v>668.82619999999997</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A119">
-        <v>97.89282</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A120">
-        <v>766.71900000000005</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A122">
-        <v>211404.3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A123">
-        <v>1086271</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A124">
-        <v>415933.8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A125">
-        <v>447465.7</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A126">
-        <v>1716806</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A127">
-        <v>743960.6</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128">
-        <v>176012.3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129">
-        <v>1036326</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130">
-        <v>281204</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A131">
-        <v>190135.4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A132">
-        <v>179578.5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A133">
-        <v>188960.9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A135">
-        <v>200611.8</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A136">
-        <v>810786.2</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A137">
-        <v>278517.3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A153">
-        <v>56714.01</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A154">
-        <v>10281.83</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A155">
-        <v>66995.83</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A162">
-        <v>20485.259999999998</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A163">
-        <v>3674.8850000000002</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A164">
-        <v>24160.14</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A166">
-        <v>2726.0279999999998</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A167">
-        <v>12839.22</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A168">
-        <v>5251.7060000000001</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169">
-        <v>6614.4179999999997</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170">
-        <v>22982.67</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A171">
-        <v>10735.86</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172">
-        <v>4515.9480000000003</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173">
-        <v>24597.43</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A174">
-        <v>7144.1229999999996</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A175">
-        <v>13261.72</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A176">
-        <v>12314.28</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A177">
-        <v>13154.72</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179">
-        <v>6549.8029999999999</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180">
-        <v>21597.99</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181">
-        <v>8838.7119999999995</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/df/icer-all.xlsx
+++ b/df/icer-all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gkang/git/economic-influenza/df/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8F7E49B0-34BA-5440-8442-381208CD0186}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{265BCC5B-7905-C944-9846-B25DF8BE8164}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11320" yWindow="440" windowWidth="39580" windowHeight="28360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5960" yWindow="440" windowWidth="39580" windowHeight="28360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="icer-all" sheetId="1" r:id="rId1"/>
@@ -1017,8 +1017,8 @@
   <dimension ref="A1:AS226"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E200" sqref="E200"/>
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H202" sqref="H202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
